--- a/Metadata/Metadata.xlsx
+++ b/Metadata/Metadata.xlsx
@@ -1,25 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjfields/research/biotech/young-chae_kim/2021-Fall-Microbiome/Metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jholmes5/Desktop/hpcbio-git/hergenrother-16S-mouse-2022Sept/Metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1301831-8CF6-5840-81BF-FFE8E536E4BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B55E78-117E-2543-8D7A-B468E12831C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15740" xr2:uid="{3002B69C-95F9-A945-8E01-CF836651094A}"/>
+    <workbookView xWindow="2600" yWindow="1080" windowWidth="27640" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="filenames" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -27,6 +24,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,85 +33,391 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="126">
+  <si>
+    <t>Amoxicillin</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Clindamycin</t>
+  </si>
+  <si>
+    <t>Lolamycin</t>
+  </si>
+  <si>
+    <t>Vehicle</t>
+  </si>
+  <si>
+    <t>Forward_Primer</t>
+  </si>
+  <si>
+    <t>Reverse_Primer</t>
+  </si>
+  <si>
+    <t>bc1057</t>
+  </si>
+  <si>
+    <t>bc1059</t>
+  </si>
+  <si>
+    <t>bc1060</t>
+  </si>
+  <si>
+    <t>bc1062</t>
+  </si>
+  <si>
+    <t>bc1065</t>
+  </si>
+  <si>
+    <t>bc1075</t>
+  </si>
+  <si>
+    <t>bc1045</t>
+  </si>
+  <si>
+    <t>bc1054</t>
+  </si>
+  <si>
+    <t>bc1056</t>
+  </si>
+  <si>
+    <t>bc1033</t>
+  </si>
+  <si>
+    <t>bc1035</t>
+  </si>
+  <si>
+    <t>bc1044</t>
+  </si>
   <si>
     <t>SampleID</t>
   </si>
   <si>
-    <t>Sex</t>
-  </si>
-  <si>
-    <t>MB1</t>
-  </si>
-  <si>
-    <t>MB10</t>
-  </si>
-  <si>
-    <t>MB11</t>
-  </si>
-  <si>
-    <t>MB12</t>
-  </si>
-  <si>
-    <t>MB13</t>
-  </si>
-  <si>
-    <t>MB14</t>
-  </si>
-  <si>
-    <t>MB15</t>
-  </si>
-  <si>
-    <t>MB16</t>
-  </si>
-  <si>
-    <t>MB2</t>
-  </si>
-  <si>
-    <t>MB3</t>
-  </si>
-  <si>
-    <t>MB4</t>
-  </si>
-  <si>
-    <t>MB5</t>
-  </si>
-  <si>
-    <t>MB6</t>
-  </si>
-  <si>
-    <t>MB7</t>
-  </si>
-  <si>
-    <t>MB8</t>
-  </si>
-  <si>
-    <t>MB9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C57BL/6 </t>
-  </si>
-  <si>
-    <t>SHP-T58A</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Strain</t>
-  </si>
-  <si>
     <t>Replicate</t>
+  </si>
+  <si>
+    <t>Treatment</t>
+  </si>
+  <si>
+    <t>bc1005</t>
+  </si>
+  <si>
+    <t>bc1015</t>
+  </si>
+  <si>
+    <t>bc1008</t>
+  </si>
+  <si>
+    <t>bc1022</t>
+  </si>
+  <si>
+    <t>bc1007</t>
+  </si>
+  <si>
+    <t>bc1020</t>
+  </si>
+  <si>
+    <t>bc1012</t>
+  </si>
+  <si>
+    <t>bc1024</t>
+  </si>
+  <si>
+    <t>A_D0_1</t>
+  </si>
+  <si>
+    <t>A_D10_1</t>
+  </si>
+  <si>
+    <t>A_D31_1</t>
+  </si>
+  <si>
+    <t>A_D0_2</t>
+  </si>
+  <si>
+    <t>A_D10_2</t>
+  </si>
+  <si>
+    <t>A_D31_2</t>
+  </si>
+  <si>
+    <t>A_D0_3</t>
+  </si>
+  <si>
+    <t>A_D10_3</t>
+  </si>
+  <si>
+    <t>A_D31_3</t>
+  </si>
+  <si>
+    <t>A_D0_4</t>
+  </si>
+  <si>
+    <t>A_D10_4</t>
+  </si>
+  <si>
+    <t>A_D31_4</t>
+  </si>
+  <si>
+    <t>A_D0_5</t>
+  </si>
+  <si>
+    <t>A_D10_5</t>
+  </si>
+  <si>
+    <t>A_D31_5</t>
+  </si>
+  <si>
+    <t>A_D0_6</t>
+  </si>
+  <si>
+    <t>A_D10_6</t>
+  </si>
+  <si>
+    <t>A_D31_6</t>
+  </si>
+  <si>
+    <t>C_D0_1</t>
+  </si>
+  <si>
+    <t>C_D10_1</t>
+  </si>
+  <si>
+    <t>C_D31_1</t>
+  </si>
+  <si>
+    <t>C_D0_2</t>
+  </si>
+  <si>
+    <t>C_D10_2</t>
+  </si>
+  <si>
+    <t>C_D31_2</t>
+  </si>
+  <si>
+    <t>C_D0_3</t>
+  </si>
+  <si>
+    <t>C_D10_3</t>
+  </si>
+  <si>
+    <t>C_D31_3</t>
+  </si>
+  <si>
+    <t>C_D0_4</t>
+  </si>
+  <si>
+    <t>C_D10_4</t>
+  </si>
+  <si>
+    <t>C_D31_4</t>
+  </si>
+  <si>
+    <t>C_D0_5</t>
+  </si>
+  <si>
+    <t>C_D10_5</t>
+  </si>
+  <si>
+    <t>C_D31_5</t>
+  </si>
+  <si>
+    <t>C_D0_6</t>
+  </si>
+  <si>
+    <t>C_D10_6</t>
+  </si>
+  <si>
+    <t>C_D31_6</t>
+  </si>
+  <si>
+    <t>L_D0_1</t>
+  </si>
+  <si>
+    <t>L_D10_1</t>
+  </si>
+  <si>
+    <t>L_D31_1</t>
+  </si>
+  <si>
+    <t>L_D0_2</t>
+  </si>
+  <si>
+    <t>L_D10_2</t>
+  </si>
+  <si>
+    <t>L_D31_2</t>
+  </si>
+  <si>
+    <t>L_D0_3</t>
+  </si>
+  <si>
+    <t>L_D10_3</t>
+  </si>
+  <si>
+    <t>L_D31_3</t>
+  </si>
+  <si>
+    <t>L_D0_4</t>
+  </si>
+  <si>
+    <t>L_D10_4</t>
+  </si>
+  <si>
+    <t>L_D31_4</t>
+  </si>
+  <si>
+    <t>L_D0_5</t>
+  </si>
+  <si>
+    <t>L_D10_5</t>
+  </si>
+  <si>
+    <t>L_D31_5</t>
+  </si>
+  <si>
+    <t>L_D0_6</t>
+  </si>
+  <si>
+    <t>L_D10_6</t>
+  </si>
+  <si>
+    <t>L_D31_6</t>
+  </si>
+  <si>
+    <t>V_D0_1</t>
+  </si>
+  <si>
+    <t>V_D10_1</t>
+  </si>
+  <si>
+    <t>V_D31_1</t>
+  </si>
+  <si>
+    <t>V_D0_2</t>
+  </si>
+  <si>
+    <t>V_D10_2</t>
+  </si>
+  <si>
+    <t>V_D31_2</t>
+  </si>
+  <si>
+    <t>V_D0_3</t>
+  </si>
+  <si>
+    <t>V_D10_3</t>
+  </si>
+  <si>
+    <t>V_D31_3</t>
+  </si>
+  <si>
+    <t>V_D0_4</t>
+  </si>
+  <si>
+    <t>V_D10_4</t>
+  </si>
+  <si>
+    <t>V_D31_4</t>
+  </si>
+  <si>
+    <t>V_D0_5</t>
+  </si>
+  <si>
+    <t>V_D10_5</t>
+  </si>
+  <si>
+    <t>V_D31_5</t>
+  </si>
+  <si>
+    <t>V_D0_6</t>
+  </si>
+  <si>
+    <t>V_D10_6</t>
+  </si>
+  <si>
+    <t>V_D31_6</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>V_D07_1</t>
+  </si>
+  <si>
+    <t>V_D07_2</t>
+  </si>
+  <si>
+    <t>V_D07_3</t>
+  </si>
+  <si>
+    <t>V_D07_4</t>
+  </si>
+  <si>
+    <t>V_D07_5</t>
+  </si>
+  <si>
+    <t>V_D07_6</t>
+  </si>
+  <si>
+    <t>L_D07_1</t>
+  </si>
+  <si>
+    <t>L_D07_2</t>
+  </si>
+  <si>
+    <t>L_D07_3</t>
+  </si>
+  <si>
+    <t>L_D07_4</t>
+  </si>
+  <si>
+    <t>L_D07_5</t>
+  </si>
+  <si>
+    <t>L_D07_6</t>
+  </si>
+  <si>
+    <t>A_D07_1</t>
+  </si>
+  <si>
+    <t>A_D07_3</t>
+  </si>
+  <si>
+    <t>A_D07_4</t>
+  </si>
+  <si>
+    <t>A_D07_5</t>
+  </si>
+  <si>
+    <t>A_D07_6</t>
+  </si>
+  <si>
+    <t>C_D07_1</t>
+  </si>
+  <si>
+    <t>C_D07_2</t>
+  </si>
+  <si>
+    <t>C_D07_3</t>
+  </si>
+  <si>
+    <t>C_D07_4</t>
+  </si>
+  <si>
+    <t>C_D07_5</t>
+  </si>
+  <si>
+    <t>C_D07_6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -123,18 +428,313 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="ArialMT"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -142,16 +742,204 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -462,252 +1250,2329 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73BF30E3-7FDB-6A41-9150-B0C39C160527}">
-  <dimension ref="A1:D17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56:B60"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="str">
+        <f t="shared" ref="A2:A25" si="0">(_xlfn.CONCAT(C2,"_",D2,"_",$E$1,"_",E2))</f>
+        <v>Vehicle_1_Day_0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>18</v>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="str">
+        <f t="shared" si="0"/>
+        <v>Vehicle_2_Day_0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>Vehicle_3_Day_0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>Vehicle_4_Day_0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>93</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>Vehicle_5_Day_0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>Vehicle_6_Day_0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>Vehicle_1_Day_7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>18</v>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v>Vehicle_2_Day_7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>104</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v>Vehicle_3_Day_7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>18</v>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v>Vehicle_4_Day_7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>106</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>Vehicle_5_Day_7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>107</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>18</v>
+      <c r="E12">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>Vehicle_6_Day_7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>108</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>19</v>
+      <c r="E13">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v>Vehicle_1_Day_10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>85</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v>Vehicle_2_Day_10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="str">
+        <f t="shared" si="0"/>
+        <v>Vehicle_3_Day_10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="str">
+        <f t="shared" si="0"/>
+        <v>Vehicle_4_Day_10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="str">
+        <f t="shared" si="0"/>
+        <v>Vehicle_5_Day_10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="str">
+        <f t="shared" si="0"/>
+        <v>Vehicle_6_Day_10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="str">
+        <f t="shared" si="0"/>
+        <v>Vehicle_1_Day_31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>31</v>
+      </c>
+      <c r="F20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="str">
+        <f t="shared" si="0"/>
+        <v>Vehicle_2_Day_31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>31</v>
+      </c>
+      <c r="F21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="str">
+        <f t="shared" si="0"/>
+        <v>Vehicle_3_Day_31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>31</v>
+      </c>
+      <c r="F22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="str">
+        <f t="shared" si="0"/>
+        <v>Vehicle_4_Day_31</v>
+      </c>
+      <c r="B23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <v>31</v>
+      </c>
+      <c r="F23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="str">
+        <f t="shared" si="0"/>
+        <v>Vehicle_5_Day_31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <v>31</v>
+      </c>
+      <c r="F24" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="str">
+        <f t="shared" si="0"/>
+        <v>Vehicle_6_Day_31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>6</v>
+      </c>
+      <c r="E25">
+        <v>31</v>
+      </c>
+      <c r="F25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="str">
+        <f t="shared" ref="A26:A43" si="1">(_xlfn.CONCAT(C26,"_",D26,"_",$E$1,"_",E26))</f>
+        <v>Lolamycin_1_Day_0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="str">
+        <f t="shared" si="1"/>
+        <v>Lolamycin_2_Day_0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="str">
+        <f t="shared" si="1"/>
+        <v>Lolamycin_3_Day_0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="str">
+        <f t="shared" si="1"/>
+        <v>Lolamycin_4_Day_0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="str">
+        <f t="shared" si="1"/>
+        <v>Lolamycin_5_Day_0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="str">
+        <f t="shared" si="1"/>
+        <v>Lolamycin_6_Day_0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="str">
+        <f t="shared" si="1"/>
+        <v>Lolamycin_1_Day_7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
         <v>7</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
+      <c r="F32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="str">
+        <f t="shared" si="1"/>
+        <v>Lolamycin_2_Day_7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>7</v>
+      </c>
+      <c r="F33" t="s">
+        <v>29</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="str">
+        <f t="shared" si="1"/>
+        <v>Lolamycin_3_Day_7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>7</v>
+      </c>
+      <c r="F34" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="str">
+        <f t="shared" si="1"/>
+        <v>Lolamycin_4_Day_7</v>
+      </c>
+      <c r="B35" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35">
+        <v>7</v>
+      </c>
+      <c r="F35" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="str">
+        <f t="shared" si="1"/>
+        <v>Lolamycin_5_Day_7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>5</v>
+      </c>
+      <c r="E36">
+        <v>7</v>
+      </c>
+      <c r="F36" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="str">
+        <f t="shared" si="1"/>
+        <v>Lolamycin_6_Day_7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>6</v>
+      </c>
+      <c r="E37">
+        <v>7</v>
+      </c>
+      <c r="F37" t="s">
+        <v>28</v>
+      </c>
+      <c r="G37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="str">
+        <f t="shared" si="1"/>
+        <v>Lolamycin_1_Day_10</v>
+      </c>
+      <c r="B38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>10</v>
+      </c>
+      <c r="F38" t="s">
+        <v>23</v>
+      </c>
+      <c r="G38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="str">
+        <f t="shared" si="1"/>
+        <v>Lolamycin_2_Day_10</v>
+      </c>
+      <c r="B39" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>10</v>
+      </c>
+      <c r="F39" t="s">
+        <v>27</v>
+      </c>
+      <c r="G39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="str">
+        <f t="shared" si="1"/>
+        <v>Lolamycin_3_Day_10</v>
+      </c>
+      <c r="B40" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>10</v>
+      </c>
+      <c r="F40" t="s">
+        <v>25</v>
+      </c>
+      <c r="G40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="str">
+        <f t="shared" si="1"/>
+        <v>Lolamycin_4_Day_10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+      <c r="E41">
+        <v>10</v>
+      </c>
+      <c r="F41" t="s">
+        <v>29</v>
+      </c>
+      <c r="G41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="str">
+        <f t="shared" si="1"/>
+        <v>Lolamycin_5_Day_10</v>
+      </c>
+      <c r="B42" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>5</v>
+      </c>
+      <c r="E42">
+        <v>10</v>
+      </c>
+      <c r="F42" t="s">
+        <v>22</v>
+      </c>
+      <c r="G42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="str">
+        <f t="shared" si="1"/>
+        <v>Lolamycin_6_Day_10</v>
+      </c>
+      <c r="B43" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <v>6</v>
+      </c>
+      <c r="E43">
+        <v>10</v>
+      </c>
+      <c r="F43" t="s">
+        <v>26</v>
+      </c>
+      <c r="G43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="str">
+        <f t="shared" ref="A44:A75" si="2">(_xlfn.CONCAT(C44,"_",D44,"_",$E$1,"_",E44))</f>
+        <v>Lolamycin_1_Day_31</v>
+      </c>
+      <c r="B44" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>31</v>
+      </c>
+      <c r="F44" t="s">
+        <v>24</v>
+      </c>
+      <c r="G44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" t="str">
+        <f t="shared" si="2"/>
+        <v>Lolamycin_2_Day_31</v>
+      </c>
+      <c r="B45" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>31</v>
+      </c>
+      <c r="F45" t="s">
+        <v>28</v>
+      </c>
+      <c r="G45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="str">
+        <f t="shared" si="2"/>
+        <v>Lolamycin_3_Day_31</v>
+      </c>
+      <c r="B46" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46">
+        <v>31</v>
+      </c>
+      <c r="F46" t="s">
+        <v>23</v>
+      </c>
+      <c r="G46" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="str">
+        <f t="shared" si="2"/>
+        <v>Lolamycin_4_Day_31</v>
+      </c>
+      <c r="B47" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47">
+        <v>31</v>
+      </c>
+      <c r="F47" t="s">
+        <v>27</v>
+      </c>
+      <c r="G47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" t="str">
+        <f t="shared" si="2"/>
+        <v>Lolamycin_5_Day_31</v>
+      </c>
+      <c r="B48" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
+      </c>
+      <c r="E48">
+        <v>31</v>
+      </c>
+      <c r="F48" t="s">
+        <v>25</v>
+      </c>
+      <c r="G48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" t="str">
+        <f t="shared" si="2"/>
+        <v>Lolamycin_6_Day_31</v>
+      </c>
+      <c r="B49" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <v>6</v>
+      </c>
+      <c r="E49">
+        <v>31</v>
+      </c>
+      <c r="F49" t="s">
+        <v>29</v>
+      </c>
+      <c r="G49" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" t="str">
+        <f t="shared" si="2"/>
+        <v>Amoxicillin_1_Day_0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50" t="s">
+        <v>22</v>
+      </c>
+      <c r="G50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" t="str">
+        <f t="shared" si="2"/>
+        <v>Amoxicillin_2_Day_0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51" t="s">
+        <v>26</v>
+      </c>
+      <c r="G51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" t="str">
+        <f t="shared" si="2"/>
+        <v>Amoxicillin_3_Day_0</v>
+      </c>
+      <c r="B52" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52" t="s">
+        <v>24</v>
+      </c>
+      <c r="G52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" t="str">
+        <f t="shared" si="2"/>
+        <v>Amoxicillin_4_Day_0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53" t="s">
+        <v>28</v>
+      </c>
+      <c r="G53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" t="str">
+        <f t="shared" si="2"/>
+        <v>Amoxicillin_5_Day_0</v>
+      </c>
+      <c r="B54" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>5</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54" t="s">
+        <v>23</v>
+      </c>
+      <c r="G54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" t="str">
+        <f t="shared" si="2"/>
+        <v>Amoxicillin_6_Day_0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>45</v>
+      </c>
+      <c r="C55" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>6</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55" t="s">
+        <v>27</v>
+      </c>
+      <c r="G55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" t="str">
+        <f t="shared" si="2"/>
+        <v>Amoxicillin_1_Day_7</v>
+      </c>
+      <c r="B56" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>7</v>
+      </c>
+      <c r="F56" t="s">
+        <v>25</v>
+      </c>
+      <c r="G56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" t="str">
+        <f t="shared" si="2"/>
+        <v>Amoxicillin_3_Day_7</v>
+      </c>
+      <c r="B57" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" t="s">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57">
+        <v>7</v>
+      </c>
+      <c r="F57" t="s">
+        <v>22</v>
+      </c>
+      <c r="G57" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" t="str">
+        <f t="shared" si="2"/>
+        <v>Amoxicillin_4_Day_7</v>
+      </c>
+      <c r="B58" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>4</v>
+      </c>
+      <c r="E58">
+        <v>7</v>
+      </c>
+      <c r="F58" t="s">
+        <v>26</v>
+      </c>
+      <c r="G58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" t="str">
+        <f t="shared" si="2"/>
+        <v>Amoxicillin_5_Day_7</v>
+      </c>
+      <c r="B59" t="s">
+        <v>118</v>
+      </c>
+      <c r="C59" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>5</v>
+      </c>
+      <c r="E59">
+        <v>7</v>
+      </c>
+      <c r="F59" t="s">
+        <v>24</v>
+      </c>
+      <c r="G59" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" t="str">
+        <f t="shared" si="2"/>
+        <v>Amoxicillin_6_Day_7</v>
+      </c>
+      <c r="B60" t="s">
+        <v>119</v>
+      </c>
+      <c r="C60" t="s">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>6</v>
+      </c>
+      <c r="E60">
+        <v>7</v>
+      </c>
+      <c r="F60" t="s">
+        <v>28</v>
+      </c>
+      <c r="G60" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" t="str">
+        <f t="shared" si="2"/>
+        <v>Amoxicillin_1_Day_10</v>
+      </c>
+      <c r="B61" t="s">
+        <v>31</v>
+      </c>
+      <c r="C61" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>10</v>
+      </c>
+      <c r="F61" t="s">
+        <v>23</v>
+      </c>
+      <c r="G61" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" t="str">
+        <f t="shared" si="2"/>
+        <v>Amoxicillin_2_Day_10</v>
+      </c>
+      <c r="B62" t="s">
+        <v>34</v>
+      </c>
+      <c r="C62" t="s">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <v>10</v>
+      </c>
+      <c r="F62" t="s">
+        <v>27</v>
+      </c>
+      <c r="G62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" t="str">
+        <f t="shared" si="2"/>
+        <v>Amoxicillin_3_Day_10</v>
+      </c>
+      <c r="B63" t="s">
+        <v>37</v>
+      </c>
+      <c r="C63" t="s">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>3</v>
+      </c>
+      <c r="E63">
+        <v>10</v>
+      </c>
+      <c r="F63" t="s">
+        <v>25</v>
+      </c>
+      <c r="G63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" t="str">
+        <f t="shared" si="2"/>
+        <v>Amoxicillin_4_Day_10</v>
+      </c>
+      <c r="B64" t="s">
+        <v>40</v>
+      </c>
+      <c r="C64" t="s">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>4</v>
+      </c>
+      <c r="E64">
+        <v>10</v>
+      </c>
+      <c r="F64" t="s">
+        <v>29</v>
+      </c>
+      <c r="G64" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" t="str">
+        <f t="shared" si="2"/>
+        <v>Amoxicillin_5_Day_10</v>
+      </c>
+      <c r="B65" t="s">
+        <v>43</v>
+      </c>
+      <c r="C65" t="s">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>5</v>
+      </c>
+      <c r="E65">
+        <v>10</v>
+      </c>
+      <c r="F65" t="s">
+        <v>22</v>
+      </c>
+      <c r="G65" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17">
-        <v>4</v>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" t="str">
+        <f t="shared" si="2"/>
+        <v>Amoxicillin_6_Day_10</v>
+      </c>
+      <c r="B66" t="s">
+        <v>46</v>
+      </c>
+      <c r="C66" t="s">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>6</v>
+      </c>
+      <c r="E66">
+        <v>10</v>
+      </c>
+      <c r="F66" t="s">
+        <v>26</v>
+      </c>
+      <c r="G66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" t="str">
+        <f t="shared" si="2"/>
+        <v>Amoxicillin_1_Day_31</v>
+      </c>
+      <c r="B67" t="s">
+        <v>32</v>
+      </c>
+      <c r="C67" t="s">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>31</v>
+      </c>
+      <c r="F67" t="s">
+        <v>24</v>
+      </c>
+      <c r="G67" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" t="str">
+        <f t="shared" si="2"/>
+        <v>Amoxicillin_2_Day_31</v>
+      </c>
+      <c r="B68" t="s">
+        <v>35</v>
+      </c>
+      <c r="C68" t="s">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68">
+        <v>31</v>
+      </c>
+      <c r="F68" t="s">
+        <v>28</v>
+      </c>
+      <c r="G68" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" t="str">
+        <f t="shared" si="2"/>
+        <v>Amoxicillin_3_Day_31</v>
+      </c>
+      <c r="B69" t="s">
+        <v>38</v>
+      </c>
+      <c r="C69" t="s">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>3</v>
+      </c>
+      <c r="E69">
+        <v>31</v>
+      </c>
+      <c r="F69" t="s">
+        <v>23</v>
+      </c>
+      <c r="G69" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" t="str">
+        <f t="shared" si="2"/>
+        <v>Amoxicillin_4_Day_31</v>
+      </c>
+      <c r="B70" t="s">
+        <v>41</v>
+      </c>
+      <c r="C70" t="s">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>4</v>
+      </c>
+      <c r="E70">
+        <v>31</v>
+      </c>
+      <c r="F70" t="s">
+        <v>27</v>
+      </c>
+      <c r="G70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" t="str">
+        <f t="shared" si="2"/>
+        <v>Amoxicillin_5_Day_31</v>
+      </c>
+      <c r="B71" t="s">
+        <v>44</v>
+      </c>
+      <c r="C71" t="s">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>5</v>
+      </c>
+      <c r="E71">
+        <v>31</v>
+      </c>
+      <c r="F71" t="s">
+        <v>25</v>
+      </c>
+      <c r="G71" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" t="str">
+        <f t="shared" si="2"/>
+        <v>Amoxicillin_6_Day_31</v>
+      </c>
+      <c r="B72" t="s">
+        <v>47</v>
+      </c>
+      <c r="C72" t="s">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>6</v>
+      </c>
+      <c r="E72">
+        <v>31</v>
+      </c>
+      <c r="F72" t="s">
+        <v>29</v>
+      </c>
+      <c r="G72" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" t="str">
+        <f t="shared" si="2"/>
+        <v>Clindamycin_1_Day_0</v>
+      </c>
+      <c r="B73" t="s">
+        <v>48</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73" t="s">
+        <v>22</v>
+      </c>
+      <c r="G73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" t="str">
+        <f t="shared" si="2"/>
+        <v>Clindamycin_2_Day_0</v>
+      </c>
+      <c r="B74" t="s">
+        <v>51</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74" t="s">
+        <v>26</v>
+      </c>
+      <c r="G74" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" t="str">
+        <f t="shared" si="2"/>
+        <v>Clindamycin_3_Day_0</v>
+      </c>
+      <c r="B75" t="s">
+        <v>54</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75">
+        <v>3</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75" t="s">
+        <v>24</v>
+      </c>
+      <c r="G75" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" t="str">
+        <f t="shared" ref="A76:A96" si="3">(_xlfn.CONCAT(C76,"_",D76,"_",$E$1,"_",E76))</f>
+        <v>Clindamycin_4_Day_0</v>
+      </c>
+      <c r="B76" t="s">
+        <v>57</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76">
+        <v>4</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76" t="s">
+        <v>28</v>
+      </c>
+      <c r="G76" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" t="str">
+        <f t="shared" si="3"/>
+        <v>Clindamycin_5_Day_0</v>
+      </c>
+      <c r="B77" t="s">
+        <v>60</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77">
+        <v>5</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77" t="s">
+        <v>23</v>
+      </c>
+      <c r="G77" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" t="str">
+        <f t="shared" si="3"/>
+        <v>Clindamycin_6_Day_0</v>
+      </c>
+      <c r="B78" t="s">
+        <v>63</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78">
+        <v>6</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78" t="s">
+        <v>27</v>
+      </c>
+      <c r="G78" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" t="str">
+        <f t="shared" si="3"/>
+        <v>Clindamycin_1_Day_7</v>
+      </c>
+      <c r="B79" t="s">
+        <v>120</v>
+      </c>
+      <c r="C79" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>7</v>
+      </c>
+      <c r="F79" t="s">
+        <v>25</v>
+      </c>
+      <c r="G79" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" t="str">
+        <f t="shared" si="3"/>
+        <v>Clindamycin_2_Day_7</v>
+      </c>
+      <c r="B80" t="s">
+        <v>121</v>
+      </c>
+      <c r="C80" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+      <c r="E80">
+        <v>7</v>
+      </c>
+      <c r="F80" t="s">
+        <v>29</v>
+      </c>
+      <c r="G80" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" t="str">
+        <f t="shared" si="3"/>
+        <v>Clindamycin_3_Day_7</v>
+      </c>
+      <c r="B81" t="s">
+        <v>122</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81">
+        <v>3</v>
+      </c>
+      <c r="E81">
+        <v>7</v>
+      </c>
+      <c r="F81" t="s">
+        <v>22</v>
+      </c>
+      <c r="G81" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" t="str">
+        <f t="shared" si="3"/>
+        <v>Clindamycin_4_Day_7</v>
+      </c>
+      <c r="B82" t="s">
+        <v>123</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82">
+        <v>4</v>
+      </c>
+      <c r="E82">
+        <v>7</v>
+      </c>
+      <c r="F82" t="s">
+        <v>26</v>
+      </c>
+      <c r="G82" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" t="str">
+        <f t="shared" si="3"/>
+        <v>Clindamycin_5_Day_7</v>
+      </c>
+      <c r="B83" t="s">
+        <v>124</v>
+      </c>
+      <c r="C83" t="s">
+        <v>2</v>
+      </c>
+      <c r="D83">
+        <v>5</v>
+      </c>
+      <c r="E83">
+        <v>7</v>
+      </c>
+      <c r="F83" t="s">
+        <v>24</v>
+      </c>
+      <c r="G83" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" t="str">
+        <f t="shared" si="3"/>
+        <v>Clindamycin_6_Day_7</v>
+      </c>
+      <c r="B84" t="s">
+        <v>125</v>
+      </c>
+      <c r="C84" t="s">
+        <v>2</v>
+      </c>
+      <c r="D84">
+        <v>6</v>
+      </c>
+      <c r="E84">
+        <v>7</v>
+      </c>
+      <c r="F84" t="s">
+        <v>28</v>
+      </c>
+      <c r="G84" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" t="str">
+        <f t="shared" si="3"/>
+        <v>Clindamycin_1_Day_10</v>
+      </c>
+      <c r="B85" t="s">
+        <v>49</v>
+      </c>
+      <c r="C85" t="s">
+        <v>2</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>10</v>
+      </c>
+      <c r="F85" t="s">
+        <v>23</v>
+      </c>
+      <c r="G85" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" t="str">
+        <f t="shared" si="3"/>
+        <v>Clindamycin_2_Day_10</v>
+      </c>
+      <c r="B86" t="s">
+        <v>52</v>
+      </c>
+      <c r="C86" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
+      </c>
+      <c r="E86">
+        <v>10</v>
+      </c>
+      <c r="F86" t="s">
+        <v>27</v>
+      </c>
+      <c r="G86" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" t="str">
+        <f t="shared" si="3"/>
+        <v>Clindamycin_3_Day_10</v>
+      </c>
+      <c r="B87" t="s">
+        <v>55</v>
+      </c>
+      <c r="C87" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87">
+        <v>3</v>
+      </c>
+      <c r="E87">
+        <v>10</v>
+      </c>
+      <c r="F87" t="s">
+        <v>25</v>
+      </c>
+      <c r="G87" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" t="str">
+        <f t="shared" si="3"/>
+        <v>Clindamycin_4_Day_10</v>
+      </c>
+      <c r="B88" t="s">
+        <v>58</v>
+      </c>
+      <c r="C88" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88">
+        <v>4</v>
+      </c>
+      <c r="E88">
+        <v>10</v>
+      </c>
+      <c r="F88" t="s">
+        <v>29</v>
+      </c>
+      <c r="G88" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" t="str">
+        <f t="shared" si="3"/>
+        <v>Clindamycin_5_Day_10</v>
+      </c>
+      <c r="B89" t="s">
+        <v>61</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89">
+        <v>5</v>
+      </c>
+      <c r="E89">
+        <v>10</v>
+      </c>
+      <c r="F89" t="s">
+        <v>22</v>
+      </c>
+      <c r="G89" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" t="str">
+        <f t="shared" si="3"/>
+        <v>Clindamycin_6_Day_10</v>
+      </c>
+      <c r="B90" t="s">
+        <v>64</v>
+      </c>
+      <c r="C90" t="s">
+        <v>2</v>
+      </c>
+      <c r="D90">
+        <v>6</v>
+      </c>
+      <c r="E90">
+        <v>10</v>
+      </c>
+      <c r="F90" t="s">
+        <v>26</v>
+      </c>
+      <c r="G90" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" t="str">
+        <f t="shared" si="3"/>
+        <v>Clindamycin_1_Day_31</v>
+      </c>
+      <c r="B91" t="s">
+        <v>50</v>
+      </c>
+      <c r="C91" t="s">
+        <v>2</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>31</v>
+      </c>
+      <c r="F91" t="s">
+        <v>24</v>
+      </c>
+      <c r="G91" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" t="str">
+        <f t="shared" si="3"/>
+        <v>Clindamycin_2_Day_31</v>
+      </c>
+      <c r="B92" t="s">
+        <v>53</v>
+      </c>
+      <c r="C92" t="s">
+        <v>2</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
+      <c r="E92">
+        <v>31</v>
+      </c>
+      <c r="F92" t="s">
+        <v>28</v>
+      </c>
+      <c r="G92" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" t="str">
+        <f t="shared" si="3"/>
+        <v>Clindamycin_3_Day_31</v>
+      </c>
+      <c r="B93" t="s">
+        <v>56</v>
+      </c>
+      <c r="C93" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93">
+        <v>3</v>
+      </c>
+      <c r="E93">
+        <v>31</v>
+      </c>
+      <c r="F93" t="s">
+        <v>23</v>
+      </c>
+      <c r="G93" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" t="str">
+        <f t="shared" si="3"/>
+        <v>Clindamycin_4_Day_31</v>
+      </c>
+      <c r="B94" t="s">
+        <v>59</v>
+      </c>
+      <c r="C94" t="s">
+        <v>2</v>
+      </c>
+      <c r="D94">
+        <v>4</v>
+      </c>
+      <c r="E94">
+        <v>31</v>
+      </c>
+      <c r="F94" t="s">
+        <v>27</v>
+      </c>
+      <c r="G94" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" t="str">
+        <f t="shared" si="3"/>
+        <v>Clindamycin_5_Day_31</v>
+      </c>
+      <c r="B95" t="s">
+        <v>62</v>
+      </c>
+      <c r="C95" t="s">
+        <v>2</v>
+      </c>
+      <c r="D95">
+        <v>5</v>
+      </c>
+      <c r="E95">
+        <v>31</v>
+      </c>
+      <c r="F95" t="s">
+        <v>25</v>
+      </c>
+      <c r="G95" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" t="str">
+        <f t="shared" si="3"/>
+        <v>Clindamycin_6_Day_31</v>
+      </c>
+      <c r="B96" t="s">
+        <v>65</v>
+      </c>
+      <c r="C96" t="s">
+        <v>2</v>
+      </c>
+      <c r="D96">
+        <v>6</v>
+      </c>
+      <c r="E96">
+        <v>31</v>
+      </c>
+      <c r="F96" t="s">
+        <v>29</v>
+      </c>
+      <c r="G96" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G96">
+    <sortCondition ref="C2:C96"/>
+    <sortCondition ref="E2:E96"/>
+    <sortCondition ref="D2:D96"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Metadata/Metadata.xlsx
+++ b/Metadata/Metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jholmes5/Desktop/hpcbio-git/caceres-16S-mosquito-2022Sept/Metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1E3C6B-0F48-B749-B271-AB656F91136A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF3C7B4-2376-B642-9055-4EC48B8DDA7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28620" yWindow="500" windowWidth="21860" windowHeight="19380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="filenames" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1997" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1997" uniqueCount="749">
   <si>
     <t>SampleID</t>
   </si>
@@ -468,9 +468,6 @@
     <t>I.G.STOCK_155</t>
   </si>
   <si>
-    <t>Infusion</t>
-  </si>
-  <si>
     <t>I.G.STOCK_156</t>
   </si>
   <si>
@@ -1782,12 +1779,6 @@
     <t>S185</t>
   </si>
   <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
     <t>16s-I-G-M-20-108_S204_L001</t>
   </si>
   <si>
@@ -2287,6 +2278,9 @@
   </si>
   <si>
     <t>ML_GN</t>
+  </si>
+  <si>
+    <t>Stock Water</t>
   </si>
 </sst>
 </file>
@@ -2442,7 +2436,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2622,12 +2616,6 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -2789,12 +2777,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -3154,8 +3141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="L136" sqref="L136"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3176,39 +3163,39 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="C1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" t="s">
+        <v>742</v>
+      </c>
+      <c r="E1" t="s">
         <v>151</v>
       </c>
-      <c r="D1" t="s">
-        <v>745</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>152</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>153</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I1" t="s">
+        <v>723</v>
+      </c>
+      <c r="J1" t="s">
         <v>154</v>
       </c>
-      <c r="H1" t="s">
-        <v>150</v>
-      </c>
-      <c r="I1" t="s">
-        <v>726</v>
-      </c>
-      <c r="J1" t="s">
-        <v>155</v>
-      </c>
       <c r="K1" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>584</v>
+      <c r="A2" s="3" t="s">
+        <v>581</v>
       </c>
       <c r="B2" t="s">
         <v>104</v>
@@ -3217,7 +3204,7 @@
         <v>105</v>
       </c>
       <c r="D2" t="s">
-        <v>583</v>
+        <v>105</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
@@ -3232,19 +3219,19 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="J2" s="1" t="str">
         <f t="shared" ref="J2:J20" si="0">CONCATENATE(E2,"-",F2,"-",G2)</f>
         <v>G-Intraspecific-20</v>
       </c>
       <c r="K2" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>585</v>
+      <c r="A3" s="3" t="s">
+        <v>582</v>
       </c>
       <c r="B3" t="s">
         <v>113</v>
@@ -3253,7 +3240,7 @@
         <v>105</v>
       </c>
       <c r="D3" t="s">
-        <v>583</v>
+        <v>105</v>
       </c>
       <c r="E3" t="s">
         <v>3</v>
@@ -3268,19 +3255,19 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="J3" s="1" t="str">
         <f t="shared" si="0"/>
         <v>G-Intraspecific-20</v>
       </c>
       <c r="K3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>586</v>
+      <c r="A4" s="3" t="s">
+        <v>583</v>
       </c>
       <c r="B4" t="s">
         <v>121</v>
@@ -3289,7 +3276,7 @@
         <v>105</v>
       </c>
       <c r="D4" t="s">
-        <v>583</v>
+        <v>105</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
@@ -3304,19 +3291,19 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="J4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>G-Intraspecific-20</v>
       </c>
       <c r="K4" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>587</v>
+      <c r="A5" s="3" t="s">
+        <v>584</v>
       </c>
       <c r="B5" t="s">
         <v>128</v>
@@ -3325,7 +3312,7 @@
         <v>105</v>
       </c>
       <c r="D5" t="s">
-        <v>583</v>
+        <v>105</v>
       </c>
       <c r="E5" t="s">
         <v>3</v>
@@ -3340,19 +3327,19 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="J5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>G-Intraspecific-20</v>
       </c>
       <c r="K5" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>588</v>
+      <c r="A6" s="3" t="s">
+        <v>585</v>
       </c>
       <c r="B6" t="s">
         <v>136</v>
@@ -3361,7 +3348,7 @@
         <v>105</v>
       </c>
       <c r="D6" t="s">
-        <v>583</v>
+        <v>105</v>
       </c>
       <c r="E6" t="s">
         <v>3</v>
@@ -3376,19 +3363,19 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="J6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>G-Intraspecific-20</v>
       </c>
       <c r="K6" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>589</v>
+      <c r="A7" s="3" t="s">
+        <v>586</v>
       </c>
       <c r="B7" t="s">
         <v>106</v>
@@ -3397,7 +3384,7 @@
         <v>105</v>
       </c>
       <c r="D7" t="s">
-        <v>583</v>
+        <v>105</v>
       </c>
       <c r="E7" t="s">
         <v>3</v>
@@ -3412,19 +3399,19 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="J7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>G-Intraspecific-40</v>
       </c>
       <c r="K7" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>590</v>
+      <c r="A8" s="3" t="s">
+        <v>587</v>
       </c>
       <c r="B8" t="s">
         <v>114</v>
@@ -3433,7 +3420,7 @@
         <v>105</v>
       </c>
       <c r="D8" t="s">
-        <v>583</v>
+        <v>105</v>
       </c>
       <c r="E8" t="s">
         <v>3</v>
@@ -3448,19 +3435,19 @@
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="J8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>G-Intraspecific-40</v>
       </c>
       <c r="K8" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>591</v>
+      <c r="A9" s="3" t="s">
+        <v>588</v>
       </c>
       <c r="B9" t="s">
         <v>122</v>
@@ -3469,7 +3456,7 @@
         <v>105</v>
       </c>
       <c r="D9" t="s">
-        <v>583</v>
+        <v>105</v>
       </c>
       <c r="E9" t="s">
         <v>3</v>
@@ -3484,19 +3471,19 @@
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="J9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>G-Intraspecific-40</v>
       </c>
       <c r="K9" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>592</v>
+      <c r="A10" s="3" t="s">
+        <v>589</v>
       </c>
       <c r="B10" t="s">
         <v>129</v>
@@ -3505,7 +3492,7 @@
         <v>105</v>
       </c>
       <c r="D10" t="s">
-        <v>583</v>
+        <v>105</v>
       </c>
       <c r="E10" t="s">
         <v>3</v>
@@ -3520,19 +3507,19 @@
         <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="J10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>G-Intraspecific-40</v>
       </c>
       <c r="K10" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>593</v>
+      <c r="A11" s="3" t="s">
+        <v>590</v>
       </c>
       <c r="B11" t="s">
         <v>137</v>
@@ -3541,7 +3528,7 @@
         <v>105</v>
       </c>
       <c r="D11" t="s">
-        <v>583</v>
+        <v>105</v>
       </c>
       <c r="E11" t="s">
         <v>3</v>
@@ -3556,19 +3543,19 @@
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="J11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>G-Intraspecific-40</v>
       </c>
       <c r="K11" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>594</v>
+      <c r="A12" s="3" t="s">
+        <v>591</v>
       </c>
       <c r="B12" t="s">
         <v>107</v>
@@ -3577,7 +3564,7 @@
         <v>105</v>
       </c>
       <c r="D12" t="s">
-        <v>583</v>
+        <v>105</v>
       </c>
       <c r="E12" t="s">
         <v>3</v>
@@ -3592,19 +3579,19 @@
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="J12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>G-Interspecific-20</v>
       </c>
       <c r="K12" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>595</v>
+      <c r="A13" s="3" t="s">
+        <v>592</v>
       </c>
       <c r="B13" t="s">
         <v>115</v>
@@ -3613,7 +3600,7 @@
         <v>105</v>
       </c>
       <c r="D13" t="s">
-        <v>583</v>
+        <v>105</v>
       </c>
       <c r="E13" t="s">
         <v>3</v>
@@ -3628,19 +3615,19 @@
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="J13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>G-Interspecific-20</v>
       </c>
       <c r="K13" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>596</v>
+      <c r="A14" s="3" t="s">
+        <v>593</v>
       </c>
       <c r="B14" t="s">
         <v>123</v>
@@ -3649,7 +3636,7 @@
         <v>105</v>
       </c>
       <c r="D14" t="s">
-        <v>583</v>
+        <v>105</v>
       </c>
       <c r="E14" t="s">
         <v>3</v>
@@ -3664,19 +3651,19 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="J14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>G-Interspecific-20</v>
       </c>
       <c r="K14" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>597</v>
+      <c r="A15" s="3" t="s">
+        <v>594</v>
       </c>
       <c r="B15" t="s">
         <v>130</v>
@@ -3685,7 +3672,7 @@
         <v>105</v>
       </c>
       <c r="D15" t="s">
-        <v>583</v>
+        <v>105</v>
       </c>
       <c r="E15" t="s">
         <v>3</v>
@@ -3700,19 +3687,19 @@
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="J15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>G-Interspecific-20</v>
       </c>
       <c r="K15" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>598</v>
+      <c r="A16" s="3" t="s">
+        <v>595</v>
       </c>
       <c r="B16" t="s">
         <v>138</v>
@@ -3721,7 +3708,7 @@
         <v>105</v>
       </c>
       <c r="D16" t="s">
-        <v>583</v>
+        <v>105</v>
       </c>
       <c r="E16" t="s">
         <v>3</v>
@@ -3736,19 +3723,19 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="J16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>G-Interspecific-20</v>
       </c>
       <c r="K16" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>599</v>
+      <c r="A17" s="3" t="s">
+        <v>596</v>
       </c>
       <c r="B17" t="s">
         <v>108</v>
@@ -3757,7 +3744,7 @@
         <v>105</v>
       </c>
       <c r="D17" t="s">
-        <v>583</v>
+        <v>105</v>
       </c>
       <c r="E17" t="s">
         <v>3</v>
@@ -3772,19 +3759,19 @@
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="J17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>G-Interspecific-40</v>
       </c>
       <c r="K17" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>600</v>
+      <c r="A18" s="3" t="s">
+        <v>597</v>
       </c>
       <c r="B18" t="s">
         <v>116</v>
@@ -3793,7 +3780,7 @@
         <v>105</v>
       </c>
       <c r="D18" t="s">
-        <v>583</v>
+        <v>105</v>
       </c>
       <c r="E18" t="s">
         <v>3</v>
@@ -3808,19 +3795,19 @@
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="J18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>G-Interspecific-40</v>
       </c>
       <c r="K18" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>601</v>
+      <c r="A19" s="3" t="s">
+        <v>598</v>
       </c>
       <c r="B19" t="s">
         <v>131</v>
@@ -3829,7 +3816,7 @@
         <v>105</v>
       </c>
       <c r="D19" t="s">
-        <v>583</v>
+        <v>105</v>
       </c>
       <c r="E19" t="s">
         <v>3</v>
@@ -3844,19 +3831,19 @@
         <v>2</v>
       </c>
       <c r="I19" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="J19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>G-Interspecific-40</v>
       </c>
       <c r="K19" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>602</v>
+      <c r="A20" s="3" t="s">
+        <v>599</v>
       </c>
       <c r="B20" t="s">
         <v>139</v>
@@ -3865,7 +3852,7 @@
         <v>105</v>
       </c>
       <c r="D20" t="s">
-        <v>583</v>
+        <v>105</v>
       </c>
       <c r="E20" t="s">
         <v>3</v>
@@ -3880,19 +3867,19 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="J20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>G-Interspecific-40</v>
       </c>
       <c r="K20" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>603</v>
+      <c r="A21" s="3" t="s">
+        <v>600</v>
       </c>
       <c r="B21" t="s">
         <v>143</v>
@@ -3901,103 +3888,103 @@
         <v>105</v>
       </c>
       <c r="D21" t="s">
-        <v>583</v>
+        <v>748</v>
       </c>
       <c r="E21" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>144</v>
+      <c r="F21" t="s">
+        <v>748</v>
+      </c>
+      <c r="G21" t="s">
+        <v>748</v>
       </c>
       <c r="H21">
         <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>731</v>
-      </c>
-      <c r="J21" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="J21" t="s">
+        <v>748</v>
+      </c>
+      <c r="K21" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="B22" t="s">
         <v>144</v>
-      </c>
-      <c r="K21" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="B22" t="s">
-        <v>145</v>
       </c>
       <c r="C22" t="s">
         <v>105</v>
       </c>
       <c r="D22" t="s">
-        <v>583</v>
+        <v>748</v>
       </c>
       <c r="E22" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>144</v>
+      <c r="F22" t="s">
+        <v>748</v>
+      </c>
+      <c r="G22" t="s">
+        <v>748</v>
       </c>
       <c r="H22">
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>731</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>144</v>
+        <v>728</v>
+      </c>
+      <c r="J22" t="s">
+        <v>748</v>
       </c>
       <c r="K22" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>605</v>
+      <c r="A23" s="3" t="s">
+        <v>602</v>
       </c>
       <c r="B23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C23" t="s">
         <v>105</v>
       </c>
       <c r="D23" t="s">
-        <v>583</v>
+        <v>748</v>
       </c>
       <c r="E23" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>144</v>
+      <c r="F23" t="s">
+        <v>748</v>
+      </c>
+      <c r="G23" t="s">
+        <v>748</v>
       </c>
       <c r="H23">
         <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>731</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>144</v>
+        <v>728</v>
+      </c>
+      <c r="J23" t="s">
+        <v>748</v>
       </c>
       <c r="K23" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>606</v>
+      <c r="A24" s="3" t="s">
+        <v>603</v>
       </c>
       <c r="B24" t="s">
         <v>109</v>
@@ -4006,7 +3993,7 @@
         <v>105</v>
       </c>
       <c r="D24" t="s">
-        <v>583</v>
+        <v>105</v>
       </c>
       <c r="E24" t="s">
         <v>12</v>
@@ -4021,19 +4008,19 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="J24" s="1" t="str">
         <f t="shared" ref="J24:J42" si="1">CONCATENATE(E24,"-",F24,"-",G24)</f>
         <v>GN-Intraspecific-20</v>
       </c>
       <c r="K24" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>607</v>
+      <c r="A25" s="3" t="s">
+        <v>604</v>
       </c>
       <c r="B25" t="s">
         <v>117</v>
@@ -4042,7 +4029,7 @@
         <v>105</v>
       </c>
       <c r="D25" t="s">
-        <v>583</v>
+        <v>105</v>
       </c>
       <c r="E25" t="s">
         <v>12</v>
@@ -4057,19 +4044,19 @@
         <v>2</v>
       </c>
       <c r="I25" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="J25" s="1" t="str">
         <f t="shared" si="1"/>
         <v>GN-Intraspecific-20</v>
       </c>
       <c r="K25" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>608</v>
+      <c r="A26" s="3" t="s">
+        <v>605</v>
       </c>
       <c r="B26" t="s">
         <v>124</v>
@@ -4078,7 +4065,7 @@
         <v>105</v>
       </c>
       <c r="D26" t="s">
-        <v>583</v>
+        <v>105</v>
       </c>
       <c r="E26" t="s">
         <v>12</v>
@@ -4093,19 +4080,19 @@
         <v>2</v>
       </c>
       <c r="I26" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="J26" s="1" t="str">
         <f t="shared" si="1"/>
         <v>GN-Intraspecific-20</v>
       </c>
       <c r="K26" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>609</v>
+      <c r="A27" s="3" t="s">
+        <v>606</v>
       </c>
       <c r="B27" t="s">
         <v>132</v>
@@ -4114,7 +4101,7 @@
         <v>105</v>
       </c>
       <c r="D27" t="s">
-        <v>583</v>
+        <v>105</v>
       </c>
       <c r="E27" t="s">
         <v>12</v>
@@ -4129,19 +4116,19 @@
         <v>2</v>
       </c>
       <c r="I27" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="J27" s="1" t="str">
         <f t="shared" si="1"/>
         <v>GN-Intraspecific-20</v>
       </c>
       <c r="K27" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>610</v>
+      <c r="A28" s="3" t="s">
+        <v>607</v>
       </c>
       <c r="B28" t="s">
         <v>140</v>
@@ -4150,7 +4137,7 @@
         <v>105</v>
       </c>
       <c r="D28" t="s">
-        <v>583</v>
+        <v>105</v>
       </c>
       <c r="E28" t="s">
         <v>12</v>
@@ -4165,19 +4152,19 @@
         <v>2</v>
       </c>
       <c r="I28" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="J28" s="1" t="str">
         <f t="shared" si="1"/>
         <v>GN-Intraspecific-20</v>
       </c>
       <c r="K28" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>611</v>
+      <c r="A29" s="3" t="s">
+        <v>608</v>
       </c>
       <c r="B29" t="s">
         <v>110</v>
@@ -4186,7 +4173,7 @@
         <v>105</v>
       </c>
       <c r="D29" t="s">
-        <v>583</v>
+        <v>105</v>
       </c>
       <c r="E29" t="s">
         <v>12</v>
@@ -4201,19 +4188,19 @@
         <v>2</v>
       </c>
       <c r="I29" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="J29" s="1" t="str">
         <f t="shared" si="1"/>
         <v>GN-Intraspecific-40</v>
       </c>
       <c r="K29" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>612</v>
+      <c r="A30" s="3" t="s">
+        <v>609</v>
       </c>
       <c r="B30" t="s">
         <v>118</v>
@@ -4222,7 +4209,7 @@
         <v>105</v>
       </c>
       <c r="D30" t="s">
-        <v>583</v>
+        <v>105</v>
       </c>
       <c r="E30" t="s">
         <v>12</v>
@@ -4237,19 +4224,19 @@
         <v>2</v>
       </c>
       <c r="I30" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="J30" s="1" t="str">
         <f t="shared" si="1"/>
         <v>GN-Intraspecific-40</v>
       </c>
       <c r="K30" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
-        <v>613</v>
+      <c r="A31" s="3" t="s">
+        <v>610</v>
       </c>
       <c r="B31" t="s">
         <v>125</v>
@@ -4258,7 +4245,7 @@
         <v>105</v>
       </c>
       <c r="D31" t="s">
-        <v>583</v>
+        <v>105</v>
       </c>
       <c r="E31" t="s">
         <v>12</v>
@@ -4273,19 +4260,19 @@
         <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="J31" s="1" t="str">
         <f t="shared" si="1"/>
         <v>GN-Intraspecific-40</v>
       </c>
       <c r="K31" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>614</v>
+      <c r="A32" s="3" t="s">
+        <v>611</v>
       </c>
       <c r="B32" t="s">
         <v>133</v>
@@ -4294,7 +4281,7 @@
         <v>105</v>
       </c>
       <c r="D32" t="s">
-        <v>583</v>
+        <v>105</v>
       </c>
       <c r="E32" t="s">
         <v>12</v>
@@ -4309,19 +4296,19 @@
         <v>2</v>
       </c>
       <c r="I32" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="J32" s="1" t="str">
         <f t="shared" si="1"/>
         <v>GN-Intraspecific-40</v>
       </c>
       <c r="K32" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>615</v>
+      <c r="A33" s="3" t="s">
+        <v>612</v>
       </c>
       <c r="B33" t="s">
         <v>111</v>
@@ -4330,7 +4317,7 @@
         <v>105</v>
       </c>
       <c r="D33" t="s">
-        <v>583</v>
+        <v>105</v>
       </c>
       <c r="E33" t="s">
         <v>12</v>
@@ -4345,19 +4332,19 @@
         <v>2</v>
       </c>
       <c r="I33" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="J33" s="1" t="str">
         <f t="shared" si="1"/>
         <v>GN-Interspecific-20</v>
       </c>
       <c r="K33" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>616</v>
+      <c r="A34" s="3" t="s">
+        <v>613</v>
       </c>
       <c r="B34" t="s">
         <v>119</v>
@@ -4366,7 +4353,7 @@
         <v>105</v>
       </c>
       <c r="D34" t="s">
-        <v>583</v>
+        <v>105</v>
       </c>
       <c r="E34" t="s">
         <v>12</v>
@@ -4381,19 +4368,19 @@
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="J34" s="1" t="str">
         <f t="shared" si="1"/>
         <v>GN-Interspecific-20</v>
       </c>
       <c r="K34" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>617</v>
+      <c r="A35" s="3" t="s">
+        <v>614</v>
       </c>
       <c r="B35" t="s">
         <v>126</v>
@@ -4402,7 +4389,7 @@
         <v>105</v>
       </c>
       <c r="D35" t="s">
-        <v>583</v>
+        <v>105</v>
       </c>
       <c r="E35" t="s">
         <v>12</v>
@@ -4417,19 +4404,19 @@
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="J35" s="1" t="str">
         <f t="shared" si="1"/>
         <v>GN-Interspecific-20</v>
       </c>
       <c r="K35" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>618</v>
+      <c r="A36" s="3" t="s">
+        <v>615</v>
       </c>
       <c r="B36" t="s">
         <v>134</v>
@@ -4438,7 +4425,7 @@
         <v>105</v>
       </c>
       <c r="D36" t="s">
-        <v>583</v>
+        <v>105</v>
       </c>
       <c r="E36" t="s">
         <v>12</v>
@@ -4453,19 +4440,19 @@
         <v>2</v>
       </c>
       <c r="I36" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="J36" s="1" t="str">
         <f t="shared" si="1"/>
         <v>GN-Interspecific-20</v>
       </c>
       <c r="K36" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>619</v>
+      <c r="A37" s="3" t="s">
+        <v>616</v>
       </c>
       <c r="B37" t="s">
         <v>141</v>
@@ -4474,7 +4461,7 @@
         <v>105</v>
       </c>
       <c r="D37" t="s">
-        <v>583</v>
+        <v>105</v>
       </c>
       <c r="E37" t="s">
         <v>12</v>
@@ -4489,19 +4476,19 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="J37" s="1" t="str">
         <f t="shared" si="1"/>
         <v>GN-Interspecific-20</v>
       </c>
       <c r="K37" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
-        <v>620</v>
+      <c r="A38" s="3" t="s">
+        <v>617</v>
       </c>
       <c r="B38" t="s">
         <v>112</v>
@@ -4510,7 +4497,7 @@
         <v>105</v>
       </c>
       <c r="D38" t="s">
-        <v>583</v>
+        <v>105</v>
       </c>
       <c r="E38" t="s">
         <v>12</v>
@@ -4525,19 +4512,19 @@
         <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="J38" s="1" t="str">
         <f t="shared" si="1"/>
         <v>GN-Interspecific-40</v>
       </c>
       <c r="K38" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
-        <v>621</v>
+      <c r="A39" s="3" t="s">
+        <v>618</v>
       </c>
       <c r="B39" t="s">
         <v>120</v>
@@ -4546,7 +4533,7 @@
         <v>105</v>
       </c>
       <c r="D39" t="s">
-        <v>583</v>
+        <v>105</v>
       </c>
       <c r="E39" t="s">
         <v>12</v>
@@ -4561,19 +4548,19 @@
         <v>2</v>
       </c>
       <c r="I39" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="J39" s="1" t="str">
         <f t="shared" si="1"/>
         <v>GN-Interspecific-40</v>
       </c>
       <c r="K39" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
-        <v>622</v>
+      <c r="A40" s="3" t="s">
+        <v>619</v>
       </c>
       <c r="B40" t="s">
         <v>127</v>
@@ -4582,7 +4569,7 @@
         <v>105</v>
       </c>
       <c r="D40" t="s">
-        <v>583</v>
+        <v>105</v>
       </c>
       <c r="E40" t="s">
         <v>12</v>
@@ -4597,19 +4584,19 @@
         <v>2</v>
       </c>
       <c r="I40" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="J40" s="1" t="str">
         <f t="shared" si="1"/>
         <v>GN-Interspecific-40</v>
       </c>
       <c r="K40" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
-        <v>623</v>
+      <c r="A41" s="3" t="s">
+        <v>620</v>
       </c>
       <c r="B41" t="s">
         <v>135</v>
@@ -4618,7 +4605,7 @@
         <v>105</v>
       </c>
       <c r="D41" t="s">
-        <v>583</v>
+        <v>105</v>
       </c>
       <c r="E41" t="s">
         <v>12</v>
@@ -4633,19 +4620,19 @@
         <v>2</v>
       </c>
       <c r="I41" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="J41" s="1" t="str">
         <f t="shared" si="1"/>
         <v>GN-Interspecific-40</v>
       </c>
       <c r="K41" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
-        <v>624</v>
+      <c r="A42" s="3" t="s">
+        <v>621</v>
       </c>
       <c r="B42" t="s">
         <v>142</v>
@@ -4654,7 +4641,7 @@
         <v>105</v>
       </c>
       <c r="D42" t="s">
-        <v>583</v>
+        <v>105</v>
       </c>
       <c r="E42" t="s">
         <v>12</v>
@@ -4669,124 +4656,124 @@
         <v>2</v>
       </c>
       <c r="I42" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="J42" s="1" t="str">
         <f t="shared" si="1"/>
         <v>GN-Interspecific-40</v>
       </c>
       <c r="K42" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
-        <v>625</v>
+      <c r="A43" s="3" t="s">
+        <v>622</v>
       </c>
       <c r="B43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C43" t="s">
         <v>105</v>
       </c>
       <c r="D43" t="s">
-        <v>583</v>
+        <v>748</v>
       </c>
       <c r="E43" t="s">
         <v>12</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>144</v>
+      <c r="F43" t="s">
+        <v>748</v>
+      </c>
+      <c r="G43" t="s">
+        <v>748</v>
       </c>
       <c r="H43">
         <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>736</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>144</v>
+        <v>733</v>
+      </c>
+      <c r="J43" t="s">
+        <v>748</v>
       </c>
       <c r="K43" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
-        <v>626</v>
+      <c r="A44" s="3" t="s">
+        <v>623</v>
       </c>
       <c r="B44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C44" t="s">
         <v>105</v>
       </c>
       <c r="D44" t="s">
-        <v>583</v>
+        <v>748</v>
       </c>
       <c r="E44" t="s">
         <v>12</v>
       </c>
-      <c r="F44" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>144</v>
+      <c r="F44" t="s">
+        <v>748</v>
+      </c>
+      <c r="G44" t="s">
+        <v>748</v>
       </c>
       <c r="H44">
         <v>2</v>
       </c>
       <c r="I44" t="s">
-        <v>736</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>144</v>
+        <v>733</v>
+      </c>
+      <c r="J44" t="s">
+        <v>748</v>
       </c>
       <c r="K44" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
-        <v>627</v>
+      <c r="A45" s="3" t="s">
+        <v>624</v>
       </c>
       <c r="B45" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C45" t="s">
         <v>105</v>
       </c>
       <c r="D45" t="s">
-        <v>583</v>
+        <v>748</v>
       </c>
       <c r="E45" t="s">
         <v>12</v>
       </c>
-      <c r="F45" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>144</v>
+      <c r="F45" t="s">
+        <v>748</v>
+      </c>
+      <c r="G45" t="s">
+        <v>748</v>
       </c>
       <c r="H45">
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>736</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>144</v>
+        <v>733</v>
+      </c>
+      <c r="J45" t="s">
+        <v>748</v>
       </c>
       <c r="K45" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
-        <v>628</v>
+      <c r="A46" s="3" t="s">
+        <v>625</v>
       </c>
       <c r="B46" t="s">
         <v>1</v>
@@ -4795,7 +4782,7 @@
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E46" t="s">
         <v>3</v>
@@ -4810,19 +4797,19 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="J46" s="1" t="str">
         <f t="shared" ref="J46:J77" si="2">CONCATENATE(E46,"-",F46,"-",G46)</f>
         <v>G-Intraspecific-20</v>
       </c>
       <c r="K46" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
-        <v>629</v>
+      <c r="A47" s="3" t="s">
+        <v>626</v>
       </c>
       <c r="B47" t="s">
         <v>22</v>
@@ -4831,7 +4818,7 @@
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E47" t="s">
         <v>3</v>
@@ -4846,19 +4833,19 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="J47" s="1" t="str">
         <f t="shared" si="2"/>
         <v>G-Intraspecific-20</v>
       </c>
       <c r="K47" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
-        <v>630</v>
+      <c r="A48" s="3" t="s">
+        <v>627</v>
       </c>
       <c r="B48" t="s">
         <v>23</v>
@@ -4867,7 +4854,7 @@
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E48" t="s">
         <v>3</v>
@@ -4882,19 +4869,19 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="J48" s="1" t="str">
         <f t="shared" si="2"/>
         <v>G-Intraspecific-20</v>
       </c>
       <c r="K48" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
-        <v>631</v>
+      <c r="A49" s="3" t="s">
+        <v>628</v>
       </c>
       <c r="B49" t="s">
         <v>44</v>
@@ -4903,7 +4890,7 @@
         <v>25</v>
       </c>
       <c r="D49" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E49" t="s">
         <v>3</v>
@@ -4918,19 +4905,19 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="J49" s="1" t="str">
         <f t="shared" si="2"/>
         <v>G-Intraspecific-20</v>
       </c>
       <c r="K49" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
-        <v>632</v>
+      <c r="A50" s="3" t="s">
+        <v>629</v>
       </c>
       <c r="B50" t="s">
         <v>45</v>
@@ -4939,7 +4926,7 @@
         <v>25</v>
       </c>
       <c r="D50" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E50" t="s">
         <v>3</v>
@@ -4954,19 +4941,19 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="J50" s="1" t="str">
         <f t="shared" si="2"/>
         <v>G-Intraspecific-20</v>
       </c>
       <c r="K50" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
-        <v>633</v>
+      <c r="A51" s="3" t="s">
+        <v>630</v>
       </c>
       <c r="B51" t="s">
         <v>46</v>
@@ -4975,7 +4962,7 @@
         <v>25</v>
       </c>
       <c r="D51" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E51" t="s">
         <v>3</v>
@@ -4990,19 +4977,19 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="J51" s="1" t="str">
         <f t="shared" si="2"/>
         <v>G-Intraspecific-20</v>
       </c>
       <c r="K51" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
-        <v>634</v>
+      <c r="A52" s="3" t="s">
+        <v>631</v>
       </c>
       <c r="B52" t="s">
         <v>64</v>
@@ -5011,7 +4998,7 @@
         <v>25</v>
       </c>
       <c r="D52" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E52" t="s">
         <v>3</v>
@@ -5026,19 +5013,19 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="J52" s="1" t="str">
         <f t="shared" si="2"/>
         <v>G-Intraspecific-20</v>
       </c>
       <c r="K52" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
-        <v>635</v>
+      <c r="A53" s="3" t="s">
+        <v>632</v>
       </c>
       <c r="B53" t="s">
         <v>65</v>
@@ -5047,7 +5034,7 @@
         <v>25</v>
       </c>
       <c r="D53" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E53" t="s">
         <v>3</v>
@@ -5062,19 +5049,19 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="J53" s="1" t="str">
         <f t="shared" si="2"/>
         <v>G-Intraspecific-20</v>
       </c>
       <c r="K53" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
-        <v>636</v>
+      <c r="A54" s="3" t="s">
+        <v>633</v>
       </c>
       <c r="B54" t="s">
         <v>66</v>
@@ -5083,7 +5070,7 @@
         <v>25</v>
       </c>
       <c r="D54" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E54" t="s">
         <v>3</v>
@@ -5098,19 +5085,19 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="J54" s="1" t="str">
         <f t="shared" si="2"/>
         <v>G-Intraspecific-20</v>
       </c>
       <c r="K54" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
-        <v>637</v>
+      <c r="A55" s="3" t="s">
+        <v>634</v>
       </c>
       <c r="B55" t="s">
         <v>88</v>
@@ -5119,7 +5106,7 @@
         <v>25</v>
       </c>
       <c r="D55" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E55" t="s">
         <v>3</v>
@@ -5134,19 +5121,19 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="J55" s="1" t="str">
         <f t="shared" si="2"/>
         <v>G-Intraspecific-20</v>
       </c>
       <c r="K55" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
-        <v>638</v>
+      <c r="A56" s="3" t="s">
+        <v>635</v>
       </c>
       <c r="B56" t="s">
         <v>5</v>
@@ -5155,7 +5142,7 @@
         <v>2</v>
       </c>
       <c r="D56" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E56" t="s">
         <v>3</v>
@@ -5170,19 +5157,19 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="J56" s="1" t="str">
         <f t="shared" si="2"/>
         <v>G-Intraspecific-40</v>
       </c>
       <c r="K56" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
-        <v>639</v>
+      <c r="A57" s="3" t="s">
+        <v>636</v>
       </c>
       <c r="B57" t="s">
         <v>24</v>
@@ -5191,7 +5178,7 @@
         <v>25</v>
       </c>
       <c r="D57" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E57" t="s">
         <v>3</v>
@@ -5206,19 +5193,19 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="J57" s="1" t="str">
         <f t="shared" si="2"/>
         <v>G-Intraspecific-40</v>
       </c>
       <c r="K57" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="4" t="s">
-        <v>640</v>
+      <c r="A58" s="3" t="s">
+        <v>637</v>
       </c>
       <c r="B58" t="s">
         <v>26</v>
@@ -5227,7 +5214,7 @@
         <v>25</v>
       </c>
       <c r="D58" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E58" t="s">
         <v>3</v>
@@ -5242,19 +5229,19 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="J58" s="1" t="str">
         <f t="shared" si="2"/>
         <v>G-Intraspecific-40</v>
       </c>
       <c r="K58" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="4" t="s">
-        <v>641</v>
+      <c r="A59" s="3" t="s">
+        <v>638</v>
       </c>
       <c r="B59" t="s">
         <v>27</v>
@@ -5263,7 +5250,7 @@
         <v>25</v>
       </c>
       <c r="D59" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E59" t="s">
         <v>3</v>
@@ -5278,19 +5265,19 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="J59" s="1" t="str">
         <f t="shared" si="2"/>
         <v>G-Intraspecific-40</v>
       </c>
       <c r="K59" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="4" t="s">
-        <v>642</v>
+      <c r="A60" s="3" t="s">
+        <v>639</v>
       </c>
       <c r="B60" t="s">
         <v>6</v>
@@ -5299,7 +5286,7 @@
         <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E60" t="s">
         <v>3</v>
@@ -5314,19 +5301,19 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="J60" s="1" t="str">
         <f t="shared" si="2"/>
         <v>G-Intraspecific-40</v>
       </c>
       <c r="K60" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="4" t="s">
-        <v>643</v>
+      <c r="A61" s="3" t="s">
+        <v>640</v>
       </c>
       <c r="B61" t="s">
         <v>7</v>
@@ -5335,7 +5322,7 @@
         <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E61" t="s">
         <v>3</v>
@@ -5350,19 +5337,19 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="J61" s="1" t="str">
         <f t="shared" si="2"/>
         <v>G-Intraspecific-40</v>
       </c>
       <c r="K61" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="4" t="s">
-        <v>644</v>
+      <c r="A62" s="3" t="s">
+        <v>641</v>
       </c>
       <c r="B62" t="s">
         <v>47</v>
@@ -5371,7 +5358,7 @@
         <v>25</v>
       </c>
       <c r="D62" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E62" t="s">
         <v>3</v>
@@ -5386,19 +5373,19 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="J62" s="1" t="str">
         <f t="shared" si="2"/>
         <v>G-Intraspecific-40</v>
       </c>
       <c r="K62" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="4" t="s">
-        <v>645</v>
+      <c r="A63" s="3" t="s">
+        <v>642</v>
       </c>
       <c r="B63" t="s">
         <v>48</v>
@@ -5407,7 +5394,7 @@
         <v>25</v>
       </c>
       <c r="D63" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E63" t="s">
         <v>3</v>
@@ -5422,19 +5409,19 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="J63" s="1" t="str">
         <f t="shared" si="2"/>
         <v>G-Intraspecific-40</v>
       </c>
       <c r="K63" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="4" t="s">
-        <v>646</v>
+      <c r="A64" s="3" t="s">
+        <v>643</v>
       </c>
       <c r="B64" t="s">
         <v>49</v>
@@ -5443,7 +5430,7 @@
         <v>25</v>
       </c>
       <c r="D64" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E64" t="s">
         <v>3</v>
@@ -5458,19 +5445,19 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="J64" s="1" t="str">
         <f t="shared" si="2"/>
         <v>G-Intraspecific-40</v>
       </c>
       <c r="K64" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="s">
-        <v>647</v>
+      <c r="A65" s="3" t="s">
+        <v>644</v>
       </c>
       <c r="B65" t="s">
         <v>67</v>
@@ -5479,7 +5466,7 @@
         <v>25</v>
       </c>
       <c r="D65" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E65" t="s">
         <v>3</v>
@@ -5494,19 +5481,19 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="J65" s="1" t="str">
         <f t="shared" si="2"/>
         <v>G-Intraspecific-40</v>
       </c>
       <c r="K65" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="4" t="s">
-        <v>648</v>
+      <c r="A66" s="3" t="s">
+        <v>645</v>
       </c>
       <c r="B66" t="s">
         <v>68</v>
@@ -5515,7 +5502,7 @@
         <v>25</v>
       </c>
       <c r="D66" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E66" t="s">
         <v>3</v>
@@ -5530,19 +5517,19 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="J66" s="1" t="str">
         <f t="shared" si="2"/>
         <v>G-Intraspecific-40</v>
       </c>
       <c r="K66" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="4" t="s">
-        <v>649</v>
+      <c r="A67" s="3" t="s">
+        <v>646</v>
       </c>
       <c r="B67" t="s">
         <v>69</v>
@@ -5551,7 +5538,7 @@
         <v>25</v>
       </c>
       <c r="D67" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E67" t="s">
         <v>3</v>
@@ -5566,19 +5553,19 @@
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="J67" s="1" t="str">
         <f t="shared" si="2"/>
         <v>G-Intraspecific-40</v>
       </c>
       <c r="K67" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="4" t="s">
-        <v>650</v>
+      <c r="A68" s="3" t="s">
+        <v>647</v>
       </c>
       <c r="B68" t="s">
         <v>89</v>
@@ -5587,7 +5574,7 @@
         <v>25</v>
       </c>
       <c r="D68" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E68" t="s">
         <v>3</v>
@@ -5602,19 +5589,19 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="J68" s="1" t="str">
         <f t="shared" si="2"/>
         <v>G-Intraspecific-40</v>
       </c>
       <c r="K68" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A69" s="4" t="s">
-        <v>651</v>
+      <c r="A69" s="3" t="s">
+        <v>648</v>
       </c>
       <c r="B69" t="s">
         <v>90</v>
@@ -5623,7 +5610,7 @@
         <v>25</v>
       </c>
       <c r="D69" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E69" t="s">
         <v>3</v>
@@ -5638,19 +5625,19 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="J69" s="1" t="str">
         <f t="shared" si="2"/>
         <v>G-Intraspecific-40</v>
       </c>
       <c r="K69" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A70" s="4" t="s">
-        <v>652</v>
+      <c r="A70" s="3" t="s">
+        <v>649</v>
       </c>
       <c r="B70" t="s">
         <v>28</v>
@@ -5659,7 +5646,7 @@
         <v>25</v>
       </c>
       <c r="D70" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E70" t="s">
         <v>3</v>
@@ -5674,19 +5661,19 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="J70" s="1" t="str">
         <f t="shared" si="2"/>
         <v>G-Interspecific-20</v>
       </c>
       <c r="K70" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A71" s="4" t="s">
-        <v>653</v>
+      <c r="A71" s="3" t="s">
+        <v>650</v>
       </c>
       <c r="B71" t="s">
         <v>29</v>
@@ -5695,7 +5682,7 @@
         <v>25</v>
       </c>
       <c r="D71" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E71" t="s">
         <v>3</v>
@@ -5710,19 +5697,19 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="J71" s="1" t="str">
         <f t="shared" si="2"/>
         <v>G-Interspecific-20</v>
       </c>
       <c r="K71" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A72" s="4" t="s">
-        <v>654</v>
+      <c r="A72" s="3" t="s">
+        <v>651</v>
       </c>
       <c r="B72" t="s">
         <v>50</v>
@@ -5731,7 +5718,7 @@
         <v>25</v>
       </c>
       <c r="D72" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E72" t="s">
         <v>3</v>
@@ -5746,19 +5733,19 @@
         <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="J72" s="1" t="str">
         <f t="shared" si="2"/>
         <v>G-Interspecific-20</v>
       </c>
       <c r="K72" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A73" s="4" t="s">
-        <v>655</v>
+      <c r="A73" s="3" t="s">
+        <v>652</v>
       </c>
       <c r="B73" t="s">
         <v>51</v>
@@ -5767,7 +5754,7 @@
         <v>25</v>
       </c>
       <c r="D73" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E73" t="s">
         <v>3</v>
@@ -5782,19 +5769,19 @@
         <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="J73" s="1" t="str">
         <f t="shared" si="2"/>
         <v>G-Interspecific-20</v>
       </c>
       <c r="K73" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A74" s="4" t="s">
-        <v>656</v>
+      <c r="A74" s="3" t="s">
+        <v>653</v>
       </c>
       <c r="B74" t="s">
         <v>8</v>
@@ -5803,7 +5790,7 @@
         <v>2</v>
       </c>
       <c r="D74" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E74" t="s">
         <v>3</v>
@@ -5818,19 +5805,19 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="J74" s="1" t="str">
         <f t="shared" si="2"/>
         <v>G-Interspecific-20</v>
       </c>
       <c r="K74" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A75" s="4" t="s">
-        <v>657</v>
+      <c r="A75" s="3" t="s">
+        <v>654</v>
       </c>
       <c r="B75" t="s">
         <v>70</v>
@@ -5839,7 +5826,7 @@
         <v>25</v>
       </c>
       <c r="D75" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E75" t="s">
         <v>3</v>
@@ -5854,19 +5841,19 @@
         <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="J75" s="1" t="str">
         <f t="shared" si="2"/>
         <v>G-Interspecific-20</v>
       </c>
       <c r="K75" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A76" s="4" t="s">
-        <v>658</v>
+      <c r="A76" s="3" t="s">
+        <v>655</v>
       </c>
       <c r="B76" t="s">
         <v>71</v>
@@ -5875,7 +5862,7 @@
         <v>25</v>
       </c>
       <c r="D76" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E76" t="s">
         <v>3</v>
@@ -5890,19 +5877,19 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="J76" s="1" t="str">
         <f t="shared" si="2"/>
         <v>G-Interspecific-20</v>
       </c>
       <c r="K76" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A77" s="4" t="s">
-        <v>659</v>
+      <c r="A77" s="3" t="s">
+        <v>656</v>
       </c>
       <c r="B77" t="s">
         <v>72</v>
@@ -5911,7 +5898,7 @@
         <v>25</v>
       </c>
       <c r="D77" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E77" t="s">
         <v>3</v>
@@ -5926,19 +5913,19 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="J77" s="1" t="str">
         <f t="shared" si="2"/>
         <v>G-Interspecific-20</v>
       </c>
       <c r="K77" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A78" s="4" t="s">
-        <v>660</v>
+      <c r="A78" s="3" t="s">
+        <v>657</v>
       </c>
       <c r="B78" t="s">
         <v>91</v>
@@ -5947,7 +5934,7 @@
         <v>25</v>
       </c>
       <c r="D78" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E78" t="s">
         <v>3</v>
@@ -5962,19 +5949,19 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="J78" s="1" t="str">
         <f t="shared" ref="J78:J109" si="3">CONCATENATE(E78,"-",F78,"-",G78)</f>
         <v>G-Interspecific-20</v>
       </c>
       <c r="K78" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A79" s="4" t="s">
-        <v>661</v>
+      <c r="A79" s="3" t="s">
+        <v>658</v>
       </c>
       <c r="B79" t="s">
         <v>92</v>
@@ -5983,7 +5970,7 @@
         <v>25</v>
       </c>
       <c r="D79" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E79" t="s">
         <v>3</v>
@@ -5998,19 +5985,19 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="J79" s="1" t="str">
         <f t="shared" si="3"/>
         <v>G-Interspecific-20</v>
       </c>
       <c r="K79" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A80" s="4" t="s">
-        <v>662</v>
+      <c r="A80" s="3" t="s">
+        <v>659</v>
       </c>
       <c r="B80" t="s">
         <v>30</v>
@@ -6019,7 +6006,7 @@
         <v>25</v>
       </c>
       <c r="D80" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E80" t="s">
         <v>3</v>
@@ -6034,19 +6021,19 @@
         <v>1</v>
       </c>
       <c r="I80" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="J80" s="1" t="str">
         <f t="shared" si="3"/>
         <v>G-Interspecific-40</v>
       </c>
       <c r="K80" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A81" s="4" t="s">
-        <v>663</v>
+      <c r="A81" s="3" t="s">
+        <v>660</v>
       </c>
       <c r="B81" t="s">
         <v>31</v>
@@ -6055,7 +6042,7 @@
         <v>25</v>
       </c>
       <c r="D81" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E81" t="s">
         <v>3</v>
@@ -6070,19 +6057,19 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="J81" s="1" t="str">
         <f t="shared" si="3"/>
         <v>G-Interspecific-40</v>
       </c>
       <c r="K81" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A82" s="4" t="s">
-        <v>664</v>
+      <c r="A82" s="3" t="s">
+        <v>661</v>
       </c>
       <c r="B82" t="s">
         <v>32</v>
@@ -6091,7 +6078,7 @@
         <v>25</v>
       </c>
       <c r="D82" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E82" t="s">
         <v>3</v>
@@ -6106,19 +6093,19 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="J82" s="1" t="str">
         <f t="shared" si="3"/>
         <v>G-Interspecific-40</v>
       </c>
       <c r="K82" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A83" s="4" t="s">
-        <v>665</v>
+      <c r="A83" s="3" t="s">
+        <v>662</v>
       </c>
       <c r="B83" t="s">
         <v>10</v>
@@ -6127,7 +6114,7 @@
         <v>2</v>
       </c>
       <c r="D83" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E83" t="s">
         <v>3</v>
@@ -6142,19 +6129,19 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="J83" s="1" t="str">
         <f t="shared" si="3"/>
         <v>G-Interspecific-40</v>
       </c>
       <c r="K83" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A84" s="4" t="s">
-        <v>666</v>
+      <c r="A84" s="3" t="s">
+        <v>663</v>
       </c>
       <c r="B84" t="s">
         <v>73</v>
@@ -6163,7 +6150,7 @@
         <v>25</v>
       </c>
       <c r="D84" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E84" t="s">
         <v>3</v>
@@ -6178,19 +6165,19 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="J84" s="1" t="str">
         <f t="shared" si="3"/>
         <v>G-Interspecific-40</v>
       </c>
       <c r="K84" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A85" s="4" t="s">
-        <v>667</v>
+      <c r="A85" s="3" t="s">
+        <v>664</v>
       </c>
       <c r="B85" t="s">
         <v>74</v>
@@ -6199,7 +6186,7 @@
         <v>25</v>
       </c>
       <c r="D85" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E85" t="s">
         <v>3</v>
@@ -6214,19 +6201,19 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="J85" s="1" t="str">
         <f t="shared" si="3"/>
         <v>G-Interspecific-40</v>
       </c>
       <c r="K85" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A86" s="4" t="s">
-        <v>668</v>
+      <c r="A86" s="3" t="s">
+        <v>665</v>
       </c>
       <c r="B86" t="s">
         <v>75</v>
@@ -6235,7 +6222,7 @@
         <v>25</v>
       </c>
       <c r="D86" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E86" t="s">
         <v>3</v>
@@ -6250,19 +6237,19 @@
         <v>1</v>
       </c>
       <c r="I86" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="J86" s="1" t="str">
         <f t="shared" si="3"/>
         <v>G-Interspecific-40</v>
       </c>
       <c r="K86" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A87" s="4" t="s">
-        <v>669</v>
+      <c r="A87" s="3" t="s">
+        <v>666</v>
       </c>
       <c r="B87" t="s">
         <v>93</v>
@@ -6271,7 +6258,7 @@
         <v>25</v>
       </c>
       <c r="D87" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E87" t="s">
         <v>3</v>
@@ -6286,19 +6273,19 @@
         <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="J87" s="1" t="str">
         <f t="shared" si="3"/>
         <v>G-Interspecific-40</v>
       </c>
       <c r="K87" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A88" s="4" t="s">
-        <v>670</v>
+      <c r="A88" s="3" t="s">
+        <v>667</v>
       </c>
       <c r="B88" t="s">
         <v>94</v>
@@ -6307,7 +6294,7 @@
         <v>25</v>
       </c>
       <c r="D88" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E88" t="s">
         <v>3</v>
@@ -6322,19 +6309,19 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="J88" s="1" t="str">
         <f t="shared" si="3"/>
         <v>G-Interspecific-40</v>
       </c>
       <c r="K88" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A89" s="4" t="s">
-        <v>671</v>
+      <c r="A89" s="3" t="s">
+        <v>668</v>
       </c>
       <c r="B89" t="s">
         <v>95</v>
@@ -6343,7 +6330,7 @@
         <v>25</v>
       </c>
       <c r="D89" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E89" t="s">
         <v>3</v>
@@ -6358,19 +6345,19 @@
         <v>2</v>
       </c>
       <c r="I89" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="J89" s="1" t="str">
         <f t="shared" si="3"/>
         <v>G-Interspecific-40</v>
       </c>
       <c r="K89" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A90" s="4" t="s">
-        <v>672</v>
+      <c r="A90" s="3" t="s">
+        <v>669</v>
       </c>
       <c r="B90" t="s">
         <v>14</v>
@@ -6379,7 +6366,7 @@
         <v>2</v>
       </c>
       <c r="D90" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E90" t="s">
         <v>12</v>
@@ -6394,19 +6381,19 @@
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="J90" s="1" t="str">
         <f t="shared" si="3"/>
         <v>GN-Intraspecific-20</v>
       </c>
       <c r="K90" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A91" s="4" t="s">
-        <v>673</v>
+      <c r="A91" s="3" t="s">
+        <v>670</v>
       </c>
       <c r="B91" t="s">
         <v>96</v>
@@ -6415,7 +6402,7 @@
         <v>25</v>
       </c>
       <c r="D91" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E91" t="s">
         <v>12</v>
@@ -6430,19 +6417,19 @@
         <v>2</v>
       </c>
       <c r="I91" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="J91" s="1" t="str">
         <f t="shared" si="3"/>
         <v>GN-Intraspecific-20</v>
       </c>
       <c r="K91" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A92" s="4" t="s">
-        <v>674</v>
+      <c r="A92" s="3" t="s">
+        <v>671</v>
       </c>
       <c r="B92" t="s">
         <v>97</v>
@@ -6451,7 +6438,7 @@
         <v>25</v>
       </c>
       <c r="D92" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E92" t="s">
         <v>12</v>
@@ -6466,19 +6453,19 @@
         <v>2</v>
       </c>
       <c r="I92" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="J92" s="1" t="str">
         <f t="shared" si="3"/>
         <v>GN-Intraspecific-20</v>
       </c>
       <c r="K92" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A93" s="4" t="s">
-        <v>675</v>
+      <c r="A93" s="3" t="s">
+        <v>672</v>
       </c>
       <c r="B93" t="s">
         <v>98</v>
@@ -6487,7 +6474,7 @@
         <v>25</v>
       </c>
       <c r="D93" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E93" t="s">
         <v>12</v>
@@ -6502,19 +6489,19 @@
         <v>2</v>
       </c>
       <c r="I93" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="J93" s="1" t="str">
         <f t="shared" si="3"/>
         <v>GN-Intraspecific-20</v>
       </c>
       <c r="K93" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A94" s="4" t="s">
-        <v>676</v>
+      <c r="A94" s="3" t="s">
+        <v>673</v>
       </c>
       <c r="B94" t="s">
         <v>33</v>
@@ -6523,7 +6510,7 @@
         <v>25</v>
       </c>
       <c r="D94" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E94" t="s">
         <v>12</v>
@@ -6538,19 +6525,19 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="J94" s="1" t="str">
         <f t="shared" si="3"/>
         <v>GN-Intraspecific-20</v>
       </c>
       <c r="K94" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A95" s="4" t="s">
-        <v>677</v>
+      <c r="A95" s="3" t="s">
+        <v>674</v>
       </c>
       <c r="B95" t="s">
         <v>34</v>
@@ -6559,7 +6546,7 @@
         <v>25</v>
       </c>
       <c r="D95" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E95" t="s">
         <v>12</v>
@@ -6574,19 +6561,19 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="J95" s="1" t="str">
         <f t="shared" si="3"/>
         <v>GN-Intraspecific-20</v>
       </c>
       <c r="K95" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A96" s="4" t="s">
-        <v>678</v>
+      <c r="A96" s="3" t="s">
+        <v>675</v>
       </c>
       <c r="B96" t="s">
         <v>35</v>
@@ -6595,7 +6582,7 @@
         <v>25</v>
       </c>
       <c r="D96" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E96" t="s">
         <v>12</v>
@@ -6610,19 +6597,19 @@
         <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="J96" s="1" t="str">
         <f t="shared" si="3"/>
         <v>GN-Intraspecific-20</v>
       </c>
       <c r="K96" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A97" s="4" t="s">
-        <v>679</v>
+      <c r="A97" s="3" t="s">
+        <v>676</v>
       </c>
       <c r="B97" t="s">
         <v>52</v>
@@ -6631,7 +6618,7 @@
         <v>25</v>
       </c>
       <c r="D97" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E97" t="s">
         <v>12</v>
@@ -6646,19 +6633,19 @@
         <v>1</v>
       </c>
       <c r="I97" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="J97" s="1" t="str">
         <f t="shared" si="3"/>
         <v>GN-Intraspecific-20</v>
       </c>
       <c r="K97" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A98" s="4" t="s">
-        <v>680</v>
+      <c r="A98" s="3" t="s">
+        <v>677</v>
       </c>
       <c r="B98" t="s">
         <v>53</v>
@@ -6667,7 +6654,7 @@
         <v>25</v>
       </c>
       <c r="D98" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E98" t="s">
         <v>12</v>
@@ -6682,19 +6669,19 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="J98" s="1" t="str">
         <f t="shared" si="3"/>
         <v>GN-Intraspecific-20</v>
       </c>
       <c r="K98" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A99" s="4" t="s">
-        <v>681</v>
+      <c r="A99" s="3" t="s">
+        <v>678</v>
       </c>
       <c r="B99" t="s">
         <v>54</v>
@@ -6703,7 +6690,7 @@
         <v>25</v>
       </c>
       <c r="D99" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E99" t="s">
         <v>12</v>
@@ -6718,19 +6705,19 @@
         <v>1</v>
       </c>
       <c r="I99" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="J99" s="1" t="str">
         <f t="shared" si="3"/>
         <v>GN-Intraspecific-20</v>
       </c>
       <c r="K99" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A100" s="4" t="s">
-        <v>682</v>
+      <c r="A100" s="3" t="s">
+        <v>679</v>
       </c>
       <c r="B100" t="s">
         <v>76</v>
@@ -6739,7 +6726,7 @@
         <v>25</v>
       </c>
       <c r="D100" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E100" t="s">
         <v>12</v>
@@ -6754,19 +6741,19 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="J100" s="1" t="str">
         <f t="shared" si="3"/>
         <v>GN-Intraspecific-20</v>
       </c>
       <c r="K100" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A101" s="4" t="s">
-        <v>683</v>
+      <c r="A101" s="3" t="s">
+        <v>680</v>
       </c>
       <c r="B101" t="s">
         <v>77</v>
@@ -6775,7 +6762,7 @@
         <v>25</v>
       </c>
       <c r="D101" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E101" t="s">
         <v>12</v>
@@ -6790,19 +6777,19 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="J101" s="1" t="str">
         <f t="shared" si="3"/>
         <v>GN-Intraspecific-20</v>
       </c>
       <c r="K101" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A102" s="4" t="s">
-        <v>684</v>
+      <c r="A102" s="3" t="s">
+        <v>681</v>
       </c>
       <c r="B102" t="s">
         <v>11</v>
@@ -6811,7 +6798,7 @@
         <v>2</v>
       </c>
       <c r="D102" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E102" t="s">
         <v>12</v>
@@ -6826,19 +6813,19 @@
         <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="J102" s="1" t="str">
         <f t="shared" si="3"/>
         <v>GN-Intraspecific-20</v>
       </c>
       <c r="K102" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A103" s="4" t="s">
-        <v>685</v>
+      <c r="A103" s="3" t="s">
+        <v>682</v>
       </c>
       <c r="B103" t="s">
         <v>78</v>
@@ -6847,7 +6834,7 @@
         <v>25</v>
       </c>
       <c r="D103" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E103" t="s">
         <v>12</v>
@@ -6862,19 +6849,19 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="J103" s="1" t="str">
         <f t="shared" si="3"/>
         <v>GN-Intraspecific-20</v>
       </c>
       <c r="K103" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A104" s="4" t="s">
-        <v>686</v>
+      <c r="A104" s="3" t="s">
+        <v>683</v>
       </c>
       <c r="B104" t="s">
         <v>13</v>
@@ -6883,7 +6870,7 @@
         <v>2</v>
       </c>
       <c r="D104" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E104" t="s">
         <v>12</v>
@@ -6898,19 +6885,19 @@
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="J104" s="1" t="str">
         <f t="shared" si="3"/>
         <v>GN-Intraspecific-20</v>
       </c>
       <c r="K104" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A105" s="4" t="s">
-        <v>687</v>
+      <c r="A105" s="3" t="s">
+        <v>684</v>
       </c>
       <c r="B105" t="s">
         <v>15</v>
@@ -6919,7 +6906,7 @@
         <v>2</v>
       </c>
       <c r="D105" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E105" t="s">
         <v>12</v>
@@ -6934,19 +6921,19 @@
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="J105" s="1" t="str">
         <f t="shared" si="3"/>
         <v>GN-Intraspecific-40</v>
       </c>
       <c r="K105" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A106" s="4" t="s">
-        <v>688</v>
+      <c r="A106" s="3" t="s">
+        <v>685</v>
       </c>
       <c r="B106" t="s">
         <v>16</v>
@@ -6955,7 +6942,7 @@
         <v>2</v>
       </c>
       <c r="D106" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E106" t="s">
         <v>12</v>
@@ -6970,19 +6957,19 @@
         <v>1</v>
       </c>
       <c r="I106" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="J106" s="1" t="str">
         <f t="shared" si="3"/>
         <v>GN-Intraspecific-40</v>
       </c>
       <c r="K106" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="107" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A107" s="4" t="s">
-        <v>689</v>
+      <c r="A107" s="3" t="s">
+        <v>686</v>
       </c>
       <c r="B107" t="s">
         <v>17</v>
@@ -6991,7 +6978,7 @@
         <v>2</v>
       </c>
       <c r="D107" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E107" t="s">
         <v>12</v>
@@ -7006,19 +6993,19 @@
         <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="J107" s="1" t="str">
         <f t="shared" si="3"/>
         <v>GN-Intraspecific-40</v>
       </c>
       <c r="K107" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A108" s="4" t="s">
-        <v>690</v>
+      <c r="A108" s="3" t="s">
+        <v>687</v>
       </c>
       <c r="B108" t="s">
         <v>36</v>
@@ -7027,7 +7014,7 @@
         <v>25</v>
       </c>
       <c r="D108" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E108" t="s">
         <v>12</v>
@@ -7042,19 +7029,19 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="J108" s="1" t="str">
         <f t="shared" si="3"/>
         <v>GN-Intraspecific-40</v>
       </c>
       <c r="K108" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A109" s="4" t="s">
-        <v>691</v>
+      <c r="A109" s="3" t="s">
+        <v>688</v>
       </c>
       <c r="B109" t="s">
         <v>37</v>
@@ -7063,7 +7050,7 @@
         <v>25</v>
       </c>
       <c r="D109" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E109" t="s">
         <v>12</v>
@@ -7078,19 +7065,19 @@
         <v>1</v>
       </c>
       <c r="I109" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="J109" s="1" t="str">
         <f t="shared" si="3"/>
         <v>GN-Intraspecific-40</v>
       </c>
       <c r="K109" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A110" s="4" t="s">
-        <v>692</v>
+      <c r="A110" s="3" t="s">
+        <v>689</v>
       </c>
       <c r="B110" t="s">
         <v>38</v>
@@ -7099,7 +7086,7 @@
         <v>25</v>
       </c>
       <c r="D110" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E110" t="s">
         <v>12</v>
@@ -7114,19 +7101,19 @@
         <v>1</v>
       </c>
       <c r="I110" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="J110" s="1" t="str">
         <f t="shared" ref="J110:J142" si="4">CONCATENATE(E110,"-",F110,"-",G110)</f>
         <v>GN-Intraspecific-40</v>
       </c>
       <c r="K110" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="111" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A111" s="4" t="s">
-        <v>693</v>
+      <c r="A111" s="3" t="s">
+        <v>690</v>
       </c>
       <c r="B111" t="s">
         <v>55</v>
@@ -7135,7 +7122,7 @@
         <v>25</v>
       </c>
       <c r="D111" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E111" t="s">
         <v>12</v>
@@ -7150,19 +7137,19 @@
         <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="J111" s="1" t="str">
         <f t="shared" si="4"/>
         <v>GN-Intraspecific-40</v>
       </c>
       <c r="K111" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="112" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A112" s="4" t="s">
-        <v>694</v>
+      <c r="A112" s="3" t="s">
+        <v>691</v>
       </c>
       <c r="B112" t="s">
         <v>56</v>
@@ -7171,7 +7158,7 @@
         <v>25</v>
       </c>
       <c r="D112" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E112" t="s">
         <v>12</v>
@@ -7186,19 +7173,19 @@
         <v>1</v>
       </c>
       <c r="I112" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="J112" s="1" t="str">
         <f t="shared" si="4"/>
         <v>GN-Intraspecific-40</v>
       </c>
       <c r="K112" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="113" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A113" s="4" t="s">
-        <v>695</v>
+      <c r="A113" s="3" t="s">
+        <v>692</v>
       </c>
       <c r="B113" t="s">
         <v>57</v>
@@ -7207,7 +7194,7 @@
         <v>25</v>
       </c>
       <c r="D113" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E113" t="s">
         <v>12</v>
@@ -7222,19 +7209,19 @@
         <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="J113" s="1" t="str">
         <f t="shared" si="4"/>
         <v>GN-Intraspecific-40</v>
       </c>
       <c r="K113" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A114" s="4" t="s">
-        <v>696</v>
+      <c r="A114" s="3" t="s">
+        <v>693</v>
       </c>
       <c r="B114" t="s">
         <v>79</v>
@@ -7243,7 +7230,7 @@
         <v>25</v>
       </c>
       <c r="D114" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E114" t="s">
         <v>12</v>
@@ -7258,19 +7245,19 @@
         <v>1</v>
       </c>
       <c r="I114" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="J114" s="1" t="str">
         <f t="shared" si="4"/>
         <v>GN-Intraspecific-40</v>
       </c>
       <c r="K114" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A115" s="4" t="s">
-        <v>697</v>
+      <c r="A115" s="3" t="s">
+        <v>694</v>
       </c>
       <c r="B115" t="s">
         <v>80</v>
@@ -7279,7 +7266,7 @@
         <v>25</v>
       </c>
       <c r="D115" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E115" t="s">
         <v>12</v>
@@ -7294,19 +7281,19 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="J115" s="1" t="str">
         <f t="shared" si="4"/>
         <v>GN-Intraspecific-40</v>
       </c>
       <c r="K115" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="116" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A116" s="4" t="s">
-        <v>698</v>
+      <c r="A116" s="3" t="s">
+        <v>695</v>
       </c>
       <c r="B116" t="s">
         <v>81</v>
@@ -7315,7 +7302,7 @@
         <v>25</v>
       </c>
       <c r="D116" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E116" t="s">
         <v>12</v>
@@ -7330,19 +7317,19 @@
         <v>1</v>
       </c>
       <c r="I116" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="J116" s="1" t="str">
         <f t="shared" si="4"/>
         <v>GN-Intraspecific-40</v>
       </c>
       <c r="K116" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A117" s="4" t="s">
-        <v>699</v>
+      <c r="A117" s="3" t="s">
+        <v>696</v>
       </c>
       <c r="B117" t="s">
         <v>99</v>
@@ -7351,7 +7338,7 @@
         <v>25</v>
       </c>
       <c r="D117" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E117" t="s">
         <v>12</v>
@@ -7366,19 +7353,19 @@
         <v>2</v>
       </c>
       <c r="I117" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="J117" s="1" t="str">
         <f t="shared" si="4"/>
         <v>GN-Interspecific-20</v>
       </c>
       <c r="K117" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="118" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A118" s="4" t="s">
-        <v>700</v>
+      <c r="A118" s="3" t="s">
+        <v>697</v>
       </c>
       <c r="B118" t="s">
         <v>100</v>
@@ -7387,7 +7374,7 @@
         <v>25</v>
       </c>
       <c r="D118" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E118" t="s">
         <v>12</v>
@@ -7402,19 +7389,19 @@
         <v>2</v>
       </c>
       <c r="I118" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="J118" s="1" t="str">
         <f t="shared" si="4"/>
         <v>GN-Interspecific-20</v>
       </c>
       <c r="K118" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A119" s="4" t="s">
-        <v>701</v>
+      <c r="A119" s="3" t="s">
+        <v>698</v>
       </c>
       <c r="B119" t="s">
         <v>18</v>
@@ -7423,7 +7410,7 @@
         <v>2</v>
       </c>
       <c r="D119" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E119" t="s">
         <v>12</v>
@@ -7438,19 +7425,19 @@
         <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="J119" s="1" t="str">
         <f t="shared" si="4"/>
         <v>GN-Interspecific-20</v>
       </c>
       <c r="K119" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A120" s="4" t="s">
-        <v>702</v>
+      <c r="A120" s="3" t="s">
+        <v>699</v>
       </c>
       <c r="B120" t="s">
         <v>39</v>
@@ -7459,7 +7446,7 @@
         <v>25</v>
       </c>
       <c r="D120" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E120" t="s">
         <v>12</v>
@@ -7474,19 +7461,19 @@
         <v>1</v>
       </c>
       <c r="I120" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="J120" s="1" t="str">
         <f t="shared" si="4"/>
         <v>GN-Interspecific-20</v>
       </c>
       <c r="K120" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="121" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A121" s="4" t="s">
-        <v>703</v>
+      <c r="A121" s="3" t="s">
+        <v>700</v>
       </c>
       <c r="B121" t="s">
         <v>40</v>
@@ -7495,7 +7482,7 @@
         <v>25</v>
       </c>
       <c r="D121" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E121" t="s">
         <v>12</v>
@@ -7510,19 +7497,19 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="J121" s="1" t="str">
         <f t="shared" si="4"/>
         <v>GN-Interspecific-20</v>
       </c>
       <c r="K121" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="122" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A122" s="4" t="s">
-        <v>704</v>
+      <c r="A122" s="3" t="s">
+        <v>701</v>
       </c>
       <c r="B122" t="s">
         <v>58</v>
@@ -7531,7 +7518,7 @@
         <v>25</v>
       </c>
       <c r="D122" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E122" t="s">
         <v>12</v>
@@ -7546,19 +7533,19 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="J122" s="1" t="str">
         <f t="shared" si="4"/>
         <v>GN-Interspecific-20</v>
       </c>
       <c r="K122" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A123" s="4" t="s">
-        <v>705</v>
+      <c r="A123" s="3" t="s">
+        <v>702</v>
       </c>
       <c r="B123" t="s">
         <v>59</v>
@@ -7567,7 +7554,7 @@
         <v>25</v>
       </c>
       <c r="D123" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E123" t="s">
         <v>12</v>
@@ -7582,19 +7569,19 @@
         <v>1</v>
       </c>
       <c r="I123" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="J123" s="1" t="str">
         <f t="shared" si="4"/>
         <v>GN-Interspecific-20</v>
       </c>
       <c r="K123" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="124" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A124" s="4" t="s">
-        <v>706</v>
+      <c r="A124" s="3" t="s">
+        <v>703</v>
       </c>
       <c r="B124" t="s">
         <v>60</v>
@@ -7603,7 +7590,7 @@
         <v>25</v>
       </c>
       <c r="D124" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E124" t="s">
         <v>12</v>
@@ -7618,19 +7605,19 @@
         <v>1</v>
       </c>
       <c r="I124" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="J124" s="1" t="str">
         <f t="shared" si="4"/>
         <v>GN-Interspecific-20</v>
       </c>
       <c r="K124" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A125" s="4" t="s">
-        <v>707</v>
+      <c r="A125" s="3" t="s">
+        <v>704</v>
       </c>
       <c r="B125" t="s">
         <v>82</v>
@@ -7639,7 +7626,7 @@
         <v>25</v>
       </c>
       <c r="D125" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E125" t="s">
         <v>12</v>
@@ -7654,19 +7641,19 @@
         <v>1</v>
       </c>
       <c r="I125" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="J125" s="1" t="str">
         <f t="shared" si="4"/>
         <v>GN-Interspecific-20</v>
       </c>
       <c r="K125" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="126" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A126" s="4" t="s">
-        <v>708</v>
+      <c r="A126" s="3" t="s">
+        <v>705</v>
       </c>
       <c r="B126" t="s">
         <v>83</v>
@@ -7675,7 +7662,7 @@
         <v>25</v>
       </c>
       <c r="D126" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E126" t="s">
         <v>12</v>
@@ -7690,19 +7677,19 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="J126" s="1" t="str">
         <f t="shared" si="4"/>
         <v>GN-Interspecific-20</v>
       </c>
       <c r="K126" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="127" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A127" s="4" t="s">
-        <v>709</v>
+      <c r="A127" s="3" t="s">
+        <v>706</v>
       </c>
       <c r="B127" t="s">
         <v>84</v>
@@ -7711,7 +7698,7 @@
         <v>25</v>
       </c>
       <c r="D127" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E127" t="s">
         <v>12</v>
@@ -7726,19 +7713,19 @@
         <v>1</v>
       </c>
       <c r="I127" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="J127" s="1" t="str">
         <f t="shared" si="4"/>
         <v>GN-Interspecific-20</v>
       </c>
       <c r="K127" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="128" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A128" s="4" t="s">
-        <v>710</v>
+      <c r="A128" s="3" t="s">
+        <v>707</v>
       </c>
       <c r="B128" t="s">
         <v>101</v>
@@ -7747,7 +7734,7 @@
         <v>25</v>
       </c>
       <c r="D128" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E128" t="s">
         <v>12</v>
@@ -7762,19 +7749,19 @@
         <v>2</v>
       </c>
       <c r="I128" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="J128" s="1" t="str">
         <f t="shared" si="4"/>
         <v>GN-Interspecific-40</v>
       </c>
       <c r="K128" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="129" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A129" s="4" t="s">
-        <v>711</v>
+      <c r="A129" s="3" t="s">
+        <v>708</v>
       </c>
       <c r="B129" t="s">
         <v>102</v>
@@ -7783,7 +7770,7 @@
         <v>25</v>
       </c>
       <c r="D129" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E129" t="s">
         <v>12</v>
@@ -7798,19 +7785,19 @@
         <v>2</v>
       </c>
       <c r="I129" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="J129" s="1" t="str">
         <f t="shared" si="4"/>
         <v>GN-Interspecific-40</v>
       </c>
       <c r="K129" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="130" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A130" s="4" t="s">
-        <v>712</v>
+      <c r="A130" s="3" t="s">
+        <v>709</v>
       </c>
       <c r="B130" t="s">
         <v>103</v>
@@ -7819,7 +7806,7 @@
         <v>25</v>
       </c>
       <c r="D130" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E130" t="s">
         <v>12</v>
@@ -7834,19 +7821,19 @@
         <v>2</v>
       </c>
       <c r="I130" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="J130" s="1" t="str">
         <f t="shared" si="4"/>
         <v>GN-Interspecific-40</v>
       </c>
       <c r="K130" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="131" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A131" s="4" t="s">
-        <v>713</v>
+      <c r="A131" s="3" t="s">
+        <v>710</v>
       </c>
       <c r="B131" t="s">
         <v>19</v>
@@ -7855,7 +7842,7 @@
         <v>2</v>
       </c>
       <c r="D131" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E131" t="s">
         <v>12</v>
@@ -7870,19 +7857,19 @@
         <v>1</v>
       </c>
       <c r="I131" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="J131" s="1" t="str">
         <f t="shared" si="4"/>
         <v>GN-Interspecific-40</v>
       </c>
       <c r="K131" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="132" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A132" s="4" t="s">
-        <v>714</v>
+      <c r="A132" s="3" t="s">
+        <v>711</v>
       </c>
       <c r="B132" t="s">
         <v>20</v>
@@ -7891,7 +7878,7 @@
         <v>2</v>
       </c>
       <c r="D132" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E132" t="s">
         <v>12</v>
@@ -7906,19 +7893,19 @@
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="J132" s="1" t="str">
         <f t="shared" si="4"/>
         <v>GN-Interspecific-40</v>
       </c>
       <c r="K132" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="133" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A133" s="4" t="s">
-        <v>715</v>
+      <c r="A133" s="3" t="s">
+        <v>712</v>
       </c>
       <c r="B133" t="s">
         <v>21</v>
@@ -7927,7 +7914,7 @@
         <v>2</v>
       </c>
       <c r="D133" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E133" t="s">
         <v>12</v>
@@ -7942,19 +7929,19 @@
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="J133" s="1" t="str">
         <f t="shared" si="4"/>
         <v>GN-Interspecific-40</v>
       </c>
       <c r="K133" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="134" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A134" s="4" t="s">
-        <v>716</v>
+      <c r="A134" s="3" t="s">
+        <v>713</v>
       </c>
       <c r="B134" t="s">
         <v>41</v>
@@ -7963,7 +7950,7 @@
         <v>25</v>
       </c>
       <c r="D134" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E134" t="s">
         <v>12</v>
@@ -7978,19 +7965,19 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="J134" s="1" t="str">
         <f t="shared" si="4"/>
         <v>GN-Interspecific-40</v>
       </c>
       <c r="K134" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="135" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A135" s="4" t="s">
-        <v>717</v>
+      <c r="A135" s="3" t="s">
+        <v>714</v>
       </c>
       <c r="B135" t="s">
         <v>42</v>
@@ -7999,7 +7986,7 @@
         <v>25</v>
       </c>
       <c r="D135" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E135" t="s">
         <v>12</v>
@@ -8014,19 +8001,19 @@
         <v>1</v>
       </c>
       <c r="I135" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="J135" s="1" t="str">
         <f t="shared" si="4"/>
         <v>GN-Interspecific-40</v>
       </c>
       <c r="K135" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="136" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A136" s="4" t="s">
-        <v>718</v>
+      <c r="A136" s="3" t="s">
+        <v>715</v>
       </c>
       <c r="B136" t="s">
         <v>43</v>
@@ -8035,7 +8022,7 @@
         <v>25</v>
       </c>
       <c r="D136" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E136" t="s">
         <v>12</v>
@@ -8050,19 +8037,19 @@
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="J136" s="1" t="str">
         <f t="shared" si="4"/>
         <v>GN-Interspecific-40</v>
       </c>
       <c r="K136" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="137" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A137" s="4" t="s">
-        <v>719</v>
+      <c r="A137" s="3" t="s">
+        <v>716</v>
       </c>
       <c r="B137" t="s">
         <v>61</v>
@@ -8071,7 +8058,7 @@
         <v>25</v>
       </c>
       <c r="D137" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E137" t="s">
         <v>12</v>
@@ -8086,19 +8073,19 @@
         <v>1</v>
       </c>
       <c r="I137" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="J137" s="1" t="str">
         <f t="shared" si="4"/>
         <v>GN-Interspecific-40</v>
       </c>
       <c r="K137" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="138" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A138" s="4" t="s">
-        <v>720</v>
+      <c r="A138" s="3" t="s">
+        <v>717</v>
       </c>
       <c r="B138" t="s">
         <v>62</v>
@@ -8107,7 +8094,7 @@
         <v>25</v>
       </c>
       <c r="D138" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E138" t="s">
         <v>12</v>
@@ -8122,19 +8109,19 @@
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="J138" s="1" t="str">
         <f t="shared" si="4"/>
         <v>GN-Interspecific-40</v>
       </c>
       <c r="K138" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="139" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A139" s="4" t="s">
-        <v>721</v>
+      <c r="A139" s="3" t="s">
+        <v>718</v>
       </c>
       <c r="B139" t="s">
         <v>63</v>
@@ -8143,7 +8130,7 @@
         <v>25</v>
       </c>
       <c r="D139" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E139" t="s">
         <v>12</v>
@@ -8158,19 +8145,19 @@
         <v>1</v>
       </c>
       <c r="I139" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="J139" s="1" t="str">
         <f t="shared" si="4"/>
         <v>GN-Interspecific-40</v>
       </c>
       <c r="K139" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="140" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A140" s="4" t="s">
-        <v>722</v>
+      <c r="A140" s="3" t="s">
+        <v>719</v>
       </c>
       <c r="B140" t="s">
         <v>85</v>
@@ -8179,7 +8166,7 @@
         <v>25</v>
       </c>
       <c r="D140" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E140" t="s">
         <v>12</v>
@@ -8194,19 +8181,19 @@
         <v>1</v>
       </c>
       <c r="I140" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="J140" s="1" t="str">
         <f t="shared" si="4"/>
         <v>GN-Interspecific-40</v>
       </c>
       <c r="K140" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="141" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A141" s="4" t="s">
-        <v>723</v>
+      <c r="A141" s="3" t="s">
+        <v>720</v>
       </c>
       <c r="B141" t="s">
         <v>86</v>
@@ -8215,7 +8202,7 @@
         <v>25</v>
       </c>
       <c r="D141" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E141" t="s">
         <v>12</v>
@@ -8230,19 +8217,19 @@
         <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="J141" s="1" t="str">
         <f t="shared" si="4"/>
         <v>GN-Interspecific-40</v>
       </c>
       <c r="K141" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="142" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A142" s="4" t="s">
-        <v>724</v>
+      <c r="A142" s="3" t="s">
+        <v>721</v>
       </c>
       <c r="B142" t="s">
         <v>87</v>
@@ -8251,7 +8238,7 @@
         <v>25</v>
       </c>
       <c r="D142" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="E142" t="s">
         <v>12</v>
@@ -8266,14 +8253,14 @@
         <v>1</v>
       </c>
       <c r="I142" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="J142" s="1" t="str">
         <f t="shared" si="4"/>
         <v>GN-Interspecific-40</v>
       </c>
       <c r="K142" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
   </sheetData>
@@ -8296,2823 +8283,2823 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="C1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D1" t="s">
-        <v>299</v>
-      </c>
-      <c r="E1" t="s">
-        <v>300</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="B2" s="2" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="C2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B3" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="D2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="C3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E3" t="s">
+        <v>299</v>
+      </c>
+      <c r="F3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B4" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D3" t="s">
-        <v>299</v>
-      </c>
-      <c r="E3" t="s">
-        <v>300</v>
-      </c>
-      <c r="F3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="C4" t="s">
+        <v>306</v>
+      </c>
+      <c r="D4" t="s">
+        <v>298</v>
+      </c>
+      <c r="E4" t="s">
+        <v>299</v>
+      </c>
+      <c r="F4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B5" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="D4" t="s">
-        <v>299</v>
-      </c>
-      <c r="E4" t="s">
-        <v>300</v>
-      </c>
-      <c r="F4" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="C5" t="s">
+        <v>308</v>
+      </c>
+      <c r="D5" t="s">
+        <v>298</v>
+      </c>
+      <c r="E5" t="s">
+        <v>299</v>
+      </c>
+      <c r="F5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B6" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="D5" t="s">
-        <v>299</v>
-      </c>
-      <c r="E5" t="s">
-        <v>300</v>
-      </c>
-      <c r="F5" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="C6" t="s">
+        <v>310</v>
+      </c>
+      <c r="D6" t="s">
+        <v>298</v>
+      </c>
+      <c r="E6" t="s">
+        <v>299</v>
+      </c>
+      <c r="F6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B7" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="D6" t="s">
-        <v>299</v>
-      </c>
-      <c r="E6" t="s">
-        <v>300</v>
-      </c>
-      <c r="F6" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="C7" t="s">
+        <v>312</v>
+      </c>
+      <c r="D7" t="s">
+        <v>298</v>
+      </c>
+      <c r="E7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B8" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="D7" t="s">
-        <v>299</v>
-      </c>
-      <c r="E7" t="s">
-        <v>300</v>
-      </c>
-      <c r="F7" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="C8" t="s">
+        <v>314</v>
+      </c>
+      <c r="D8" t="s">
+        <v>298</v>
+      </c>
+      <c r="E8" t="s">
+        <v>299</v>
+      </c>
+      <c r="F8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B9" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="D8" t="s">
-        <v>299</v>
-      </c>
-      <c r="E8" t="s">
-        <v>300</v>
-      </c>
-      <c r="F8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="C9" t="s">
+        <v>316</v>
+      </c>
+      <c r="D9" t="s">
+        <v>298</v>
+      </c>
+      <c r="E9" t="s">
+        <v>299</v>
+      </c>
+      <c r="F9" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B10" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="D9" t="s">
-        <v>299</v>
-      </c>
-      <c r="E9" t="s">
-        <v>300</v>
-      </c>
-      <c r="F9" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="C10" t="s">
+        <v>318</v>
+      </c>
+      <c r="D10" t="s">
+        <v>298</v>
+      </c>
+      <c r="E10" t="s">
+        <v>299</v>
+      </c>
+      <c r="F10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B11" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D10" t="s">
-        <v>299</v>
-      </c>
-      <c r="E10" t="s">
-        <v>300</v>
-      </c>
-      <c r="F10" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="C11" t="s">
+        <v>320</v>
+      </c>
+      <c r="D11" t="s">
+        <v>298</v>
+      </c>
+      <c r="E11" t="s">
+        <v>299</v>
+      </c>
+      <c r="F11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B12" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="D11" t="s">
-        <v>299</v>
-      </c>
-      <c r="E11" t="s">
-        <v>300</v>
-      </c>
-      <c r="F11" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="C12" t="s">
+        <v>322</v>
+      </c>
+      <c r="D12" t="s">
+        <v>298</v>
+      </c>
+      <c r="E12" t="s">
+        <v>299</v>
+      </c>
+      <c r="F12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B13" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="D12" t="s">
-        <v>299</v>
-      </c>
-      <c r="E12" t="s">
-        <v>300</v>
-      </c>
-      <c r="F12" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="C13" t="s">
+        <v>324</v>
+      </c>
+      <c r="D13" t="s">
+        <v>298</v>
+      </c>
+      <c r="E13" t="s">
+        <v>299</v>
+      </c>
+      <c r="F13" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B14" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="D13" t="s">
-        <v>299</v>
-      </c>
-      <c r="E13" t="s">
-        <v>300</v>
-      </c>
-      <c r="F13" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="C14" t="s">
+        <v>326</v>
+      </c>
+      <c r="D14" t="s">
+        <v>298</v>
+      </c>
+      <c r="E14" t="s">
+        <v>299</v>
+      </c>
+      <c r="F14" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B15" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="D14" t="s">
-        <v>299</v>
-      </c>
-      <c r="E14" t="s">
-        <v>300</v>
-      </c>
-      <c r="F14" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="C15" t="s">
+        <v>328</v>
+      </c>
+      <c r="D15" t="s">
+        <v>298</v>
+      </c>
+      <c r="E15" t="s">
+        <v>299</v>
+      </c>
+      <c r="F15" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B16" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="D15" t="s">
-        <v>299</v>
-      </c>
-      <c r="E15" t="s">
-        <v>300</v>
-      </c>
-      <c r="F15" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="C16" t="s">
+        <v>330</v>
+      </c>
+      <c r="D16" t="s">
+        <v>298</v>
+      </c>
+      <c r="E16" t="s">
+        <v>299</v>
+      </c>
+      <c r="F16" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B17" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="D16" t="s">
-        <v>299</v>
-      </c>
-      <c r="E16" t="s">
-        <v>300</v>
-      </c>
-      <c r="F16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="C17" t="s">
+        <v>332</v>
+      </c>
+      <c r="D17" t="s">
+        <v>298</v>
+      </c>
+      <c r="E17" t="s">
+        <v>299</v>
+      </c>
+      <c r="F17" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B18" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="D17" t="s">
-        <v>299</v>
-      </c>
-      <c r="E17" t="s">
-        <v>300</v>
-      </c>
-      <c r="F17" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="C18" t="s">
+        <v>334</v>
+      </c>
+      <c r="D18" t="s">
+        <v>298</v>
+      </c>
+      <c r="E18" t="s">
+        <v>299</v>
+      </c>
+      <c r="F18" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B19" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="D18" t="s">
-        <v>299</v>
-      </c>
-      <c r="E18" t="s">
-        <v>300</v>
-      </c>
-      <c r="F18" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="C19" t="s">
+        <v>336</v>
+      </c>
+      <c r="D19" t="s">
+        <v>298</v>
+      </c>
+      <c r="E19" t="s">
+        <v>299</v>
+      </c>
+      <c r="F19" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B20" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="D19" t="s">
-        <v>299</v>
-      </c>
-      <c r="E19" t="s">
-        <v>300</v>
-      </c>
-      <c r="F19" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+      <c r="C20" t="s">
+        <v>338</v>
+      </c>
+      <c r="D20" t="s">
+        <v>298</v>
+      </c>
+      <c r="E20" t="s">
+        <v>299</v>
+      </c>
+      <c r="F20" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B21" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="D20" t="s">
-        <v>299</v>
-      </c>
-      <c r="E20" t="s">
-        <v>300</v>
-      </c>
-      <c r="F20" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+      <c r="C21" t="s">
+        <v>340</v>
+      </c>
+      <c r="D21" t="s">
+        <v>298</v>
+      </c>
+      <c r="E21" t="s">
+        <v>299</v>
+      </c>
+      <c r="F21" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B22" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="D21" t="s">
-        <v>299</v>
-      </c>
-      <c r="E21" t="s">
-        <v>300</v>
-      </c>
-      <c r="F21" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+      <c r="C22" t="s">
+        <v>342</v>
+      </c>
+      <c r="D22" t="s">
+        <v>298</v>
+      </c>
+      <c r="E22" t="s">
+        <v>299</v>
+      </c>
+      <c r="F22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B23" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="D22" t="s">
-        <v>299</v>
-      </c>
-      <c r="E22" t="s">
-        <v>300</v>
-      </c>
-      <c r="F22" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+      <c r="C23" t="s">
+        <v>344</v>
+      </c>
+      <c r="D23" t="s">
+        <v>298</v>
+      </c>
+      <c r="E23" t="s">
+        <v>299</v>
+      </c>
+      <c r="F23" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B24" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="D23" t="s">
-        <v>299</v>
-      </c>
-      <c r="E23" t="s">
-        <v>300</v>
-      </c>
-      <c r="F23" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+      <c r="C24" t="s">
+        <v>346</v>
+      </c>
+      <c r="D24" t="s">
+        <v>298</v>
+      </c>
+      <c r="E24" t="s">
+        <v>299</v>
+      </c>
+      <c r="F24" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B25" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="D24" t="s">
-        <v>299</v>
-      </c>
-      <c r="E24" t="s">
-        <v>300</v>
-      </c>
-      <c r="F24" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+      <c r="C25" t="s">
+        <v>348</v>
+      </c>
+      <c r="D25" t="s">
+        <v>298</v>
+      </c>
+      <c r="E25" t="s">
+        <v>299</v>
+      </c>
+      <c r="F25" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B26" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="D25" t="s">
-        <v>299</v>
-      </c>
-      <c r="E25" t="s">
-        <v>300</v>
-      </c>
-      <c r="F25" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+      <c r="C26" t="s">
+        <v>350</v>
+      </c>
+      <c r="D26" t="s">
+        <v>298</v>
+      </c>
+      <c r="E26" t="s">
+        <v>299</v>
+      </c>
+      <c r="F26" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B27" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D26" t="s">
-        <v>299</v>
-      </c>
-      <c r="E26" t="s">
-        <v>300</v>
-      </c>
-      <c r="F26" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+      <c r="C27" t="s">
+        <v>352</v>
+      </c>
+      <c r="D27" t="s">
+        <v>298</v>
+      </c>
+      <c r="E27" t="s">
+        <v>299</v>
+      </c>
+      <c r="F27" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B28" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="D27" t="s">
-        <v>299</v>
-      </c>
-      <c r="E27" t="s">
-        <v>300</v>
-      </c>
-      <c r="F27" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
+      <c r="C28" t="s">
+        <v>354</v>
+      </c>
+      <c r="D28" t="s">
+        <v>298</v>
+      </c>
+      <c r="E28" t="s">
+        <v>299</v>
+      </c>
+      <c r="F28" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B29" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="D28" t="s">
-        <v>299</v>
-      </c>
-      <c r="E28" t="s">
-        <v>300</v>
-      </c>
-      <c r="F28" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
+      <c r="C29" t="s">
+        <v>356</v>
+      </c>
+      <c r="D29" t="s">
+        <v>298</v>
+      </c>
+      <c r="E29" t="s">
+        <v>299</v>
+      </c>
+      <c r="F29" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B30" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="D29" t="s">
-        <v>299</v>
-      </c>
-      <c r="E29" t="s">
-        <v>300</v>
-      </c>
-      <c r="F29" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
+      <c r="C30" t="s">
+        <v>358</v>
+      </c>
+      <c r="D30" t="s">
+        <v>298</v>
+      </c>
+      <c r="E30" t="s">
+        <v>299</v>
+      </c>
+      <c r="F30" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B31" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="D30" t="s">
-        <v>299</v>
-      </c>
-      <c r="E30" t="s">
-        <v>300</v>
-      </c>
-      <c r="F30" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
+      <c r="C31" t="s">
+        <v>360</v>
+      </c>
+      <c r="D31" t="s">
+        <v>298</v>
+      </c>
+      <c r="E31" t="s">
+        <v>299</v>
+      </c>
+      <c r="F31" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B32" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="D31" t="s">
-        <v>299</v>
-      </c>
-      <c r="E31" t="s">
-        <v>300</v>
-      </c>
-      <c r="F31" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
+      <c r="C32" t="s">
+        <v>362</v>
+      </c>
+      <c r="D32" t="s">
+        <v>298</v>
+      </c>
+      <c r="E32" t="s">
+        <v>299</v>
+      </c>
+      <c r="F32" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B33" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="D32" t="s">
-        <v>299</v>
-      </c>
-      <c r="E32" t="s">
-        <v>300</v>
-      </c>
-      <c r="F32" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
+      <c r="C33" t="s">
+        <v>364</v>
+      </c>
+      <c r="D33" t="s">
+        <v>298</v>
+      </c>
+      <c r="E33" t="s">
+        <v>299</v>
+      </c>
+      <c r="F33" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B34" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="D33" t="s">
-        <v>299</v>
-      </c>
-      <c r="E33" t="s">
-        <v>300</v>
-      </c>
-      <c r="F33" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
+      <c r="C34" t="s">
+        <v>366</v>
+      </c>
+      <c r="D34" t="s">
+        <v>298</v>
+      </c>
+      <c r="E34" t="s">
+        <v>299</v>
+      </c>
+      <c r="F34" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B35" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="D34" t="s">
-        <v>299</v>
-      </c>
-      <c r="E34" t="s">
-        <v>300</v>
-      </c>
-      <c r="F34" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
+      <c r="C35" t="s">
+        <v>368</v>
+      </c>
+      <c r="D35" t="s">
+        <v>298</v>
+      </c>
+      <c r="E35" t="s">
+        <v>299</v>
+      </c>
+      <c r="F35" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B36" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="D35" t="s">
-        <v>299</v>
-      </c>
-      <c r="E35" t="s">
-        <v>300</v>
-      </c>
-      <c r="F35" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
+      <c r="C36" t="s">
+        <v>370</v>
+      </c>
+      <c r="D36" t="s">
+        <v>298</v>
+      </c>
+      <c r="E36" t="s">
+        <v>299</v>
+      </c>
+      <c r="F36" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="B37" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D36" t="s">
-        <v>299</v>
-      </c>
-      <c r="E36" t="s">
-        <v>300</v>
-      </c>
-      <c r="F36" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
+      <c r="C37" t="s">
+        <v>372</v>
+      </c>
+      <c r="D37" t="s">
+        <v>298</v>
+      </c>
+      <c r="E37" t="s">
+        <v>299</v>
+      </c>
+      <c r="F37" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B38" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="D37" t="s">
-        <v>299</v>
-      </c>
-      <c r="E37" t="s">
-        <v>300</v>
-      </c>
-      <c r="F37" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
+      <c r="C38" t="s">
+        <v>374</v>
+      </c>
+      <c r="D38" t="s">
+        <v>298</v>
+      </c>
+      <c r="E38" t="s">
+        <v>299</v>
+      </c>
+      <c r="F38" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="B39" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="D38" t="s">
-        <v>299</v>
-      </c>
-      <c r="E38" t="s">
-        <v>300</v>
-      </c>
-      <c r="F38" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
+      <c r="C39" t="s">
+        <v>376</v>
+      </c>
+      <c r="D39" t="s">
+        <v>298</v>
+      </c>
+      <c r="E39" t="s">
+        <v>299</v>
+      </c>
+      <c r="F39" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="B40" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="D39" t="s">
-        <v>299</v>
-      </c>
-      <c r="E39" t="s">
-        <v>300</v>
-      </c>
-      <c r="F39" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
+      <c r="C40" t="s">
+        <v>378</v>
+      </c>
+      <c r="D40" t="s">
+        <v>298</v>
+      </c>
+      <c r="E40" t="s">
+        <v>299</v>
+      </c>
+      <c r="F40" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="B41" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="D40" t="s">
-        <v>299</v>
-      </c>
-      <c r="E40" t="s">
-        <v>300</v>
-      </c>
-      <c r="F40" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
+      <c r="C41" t="s">
+        <v>380</v>
+      </c>
+      <c r="D41" t="s">
+        <v>298</v>
+      </c>
+      <c r="E41" t="s">
+        <v>299</v>
+      </c>
+      <c r="F41" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="B42" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="D41" t="s">
-        <v>299</v>
-      </c>
-      <c r="E41" t="s">
-        <v>300</v>
-      </c>
-      <c r="F41" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
+      <c r="C42" t="s">
+        <v>382</v>
+      </c>
+      <c r="D42" t="s">
+        <v>298</v>
+      </c>
+      <c r="E42" t="s">
+        <v>299</v>
+      </c>
+      <c r="F42" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="B43" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="D42" t="s">
-        <v>299</v>
-      </c>
-      <c r="E42" t="s">
-        <v>300</v>
-      </c>
-      <c r="F42" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
+      <c r="C43" t="s">
+        <v>384</v>
+      </c>
+      <c r="D43" t="s">
+        <v>298</v>
+      </c>
+      <c r="E43" t="s">
+        <v>299</v>
+      </c>
+      <c r="F43" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="B44" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="D43" t="s">
-        <v>299</v>
-      </c>
-      <c r="E43" t="s">
-        <v>300</v>
-      </c>
-      <c r="F43" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
+      <c r="C44" t="s">
+        <v>386</v>
+      </c>
+      <c r="D44" t="s">
+        <v>298</v>
+      </c>
+      <c r="E44" t="s">
+        <v>299</v>
+      </c>
+      <c r="F44" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="B45" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="D44" t="s">
-        <v>299</v>
-      </c>
-      <c r="E44" t="s">
-        <v>300</v>
-      </c>
-      <c r="F44" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
+      <c r="C45" t="s">
+        <v>388</v>
+      </c>
+      <c r="D45" t="s">
+        <v>298</v>
+      </c>
+      <c r="E45" t="s">
+        <v>299</v>
+      </c>
+      <c r="F45" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="B46" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="D45" t="s">
-        <v>299</v>
-      </c>
-      <c r="E45" t="s">
-        <v>300</v>
-      </c>
-      <c r="F45" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
+      <c r="C46" t="s">
+        <v>390</v>
+      </c>
+      <c r="D46" t="s">
+        <v>298</v>
+      </c>
+      <c r="E46" t="s">
+        <v>299</v>
+      </c>
+      <c r="F46" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="B47" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="D46" t="s">
-        <v>299</v>
-      </c>
-      <c r="E46" t="s">
-        <v>300</v>
-      </c>
-      <c r="F46" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
+      <c r="C47" t="s">
+        <v>392</v>
+      </c>
+      <c r="D47" t="s">
+        <v>298</v>
+      </c>
+      <c r="E47" t="s">
+        <v>299</v>
+      </c>
+      <c r="F47" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="B48" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="D47" t="s">
-        <v>299</v>
-      </c>
-      <c r="E47" t="s">
-        <v>300</v>
-      </c>
-      <c r="F47" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
+      <c r="C48" t="s">
+        <v>394</v>
+      </c>
+      <c r="D48" t="s">
+        <v>298</v>
+      </c>
+      <c r="E48" t="s">
+        <v>299</v>
+      </c>
+      <c r="F48" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="B49" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="D48" t="s">
-        <v>299</v>
-      </c>
-      <c r="E48" t="s">
-        <v>300</v>
-      </c>
-      <c r="F48" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
+      <c r="C49" t="s">
+        <v>396</v>
+      </c>
+      <c r="D49" t="s">
+        <v>298</v>
+      </c>
+      <c r="E49" t="s">
+        <v>299</v>
+      </c>
+      <c r="F49" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="B50" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="D49" t="s">
-        <v>299</v>
-      </c>
-      <c r="E49" t="s">
-        <v>300</v>
-      </c>
-      <c r="F49" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
+      <c r="C50" t="s">
+        <v>398</v>
+      </c>
+      <c r="D50" t="s">
+        <v>298</v>
+      </c>
+      <c r="E50" t="s">
+        <v>299</v>
+      </c>
+      <c r="F50" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="B51" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="D50" t="s">
-        <v>299</v>
-      </c>
-      <c r="E50" t="s">
-        <v>300</v>
-      </c>
-      <c r="F50" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
+      <c r="C51" t="s">
+        <v>400</v>
+      </c>
+      <c r="D51" t="s">
+        <v>298</v>
+      </c>
+      <c r="E51" t="s">
+        <v>299</v>
+      </c>
+      <c r="F51" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="B52" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="D51" t="s">
-        <v>299</v>
-      </c>
-      <c r="E51" t="s">
-        <v>300</v>
-      </c>
-      <c r="F51" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
+      <c r="C52" t="s">
+        <v>402</v>
+      </c>
+      <c r="D52" t="s">
+        <v>298</v>
+      </c>
+      <c r="E52" t="s">
+        <v>299</v>
+      </c>
+      <c r="F52" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="B53" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="D52" t="s">
-        <v>299</v>
-      </c>
-      <c r="E52" t="s">
-        <v>300</v>
-      </c>
-      <c r="F52" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
+      <c r="C53" t="s">
+        <v>404</v>
+      </c>
+      <c r="D53" t="s">
+        <v>298</v>
+      </c>
+      <c r="E53" t="s">
+        <v>299</v>
+      </c>
+      <c r="F53" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="B54" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="D53" t="s">
-        <v>299</v>
-      </c>
-      <c r="E53" t="s">
-        <v>300</v>
-      </c>
-      <c r="F53" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
+      <c r="C54" t="s">
+        <v>406</v>
+      </c>
+      <c r="D54" t="s">
+        <v>298</v>
+      </c>
+      <c r="E54" t="s">
+        <v>299</v>
+      </c>
+      <c r="F54" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="B55" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="D54" t="s">
-        <v>299</v>
-      </c>
-      <c r="E54" t="s">
-        <v>300</v>
-      </c>
-      <c r="F54" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
+      <c r="C55" t="s">
+        <v>408</v>
+      </c>
+      <c r="D55" t="s">
+        <v>298</v>
+      </c>
+      <c r="E55" t="s">
+        <v>299</v>
+      </c>
+      <c r="F55" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="B56" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="D55" t="s">
-        <v>299</v>
-      </c>
-      <c r="E55" t="s">
-        <v>300</v>
-      </c>
-      <c r="F55" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
+      <c r="C56" t="s">
+        <v>410</v>
+      </c>
+      <c r="D56" t="s">
+        <v>298</v>
+      </c>
+      <c r="E56" t="s">
+        <v>299</v>
+      </c>
+      <c r="F56" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="B57" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="D56" t="s">
-        <v>299</v>
-      </c>
-      <c r="E56" t="s">
-        <v>300</v>
-      </c>
-      <c r="F56" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
+      <c r="C57" t="s">
+        <v>412</v>
+      </c>
+      <c r="D57" t="s">
+        <v>298</v>
+      </c>
+      <c r="E57" t="s">
+        <v>299</v>
+      </c>
+      <c r="F57" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="B58" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="D57" t="s">
-        <v>299</v>
-      </c>
-      <c r="E57" t="s">
-        <v>300</v>
-      </c>
-      <c r="F57" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
+      <c r="C58" t="s">
+        <v>414</v>
+      </c>
+      <c r="D58" t="s">
+        <v>298</v>
+      </c>
+      <c r="E58" t="s">
+        <v>299</v>
+      </c>
+      <c r="F58" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="B59" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="D58" t="s">
-        <v>299</v>
-      </c>
-      <c r="E58" t="s">
-        <v>300</v>
-      </c>
-      <c r="F58" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
+      <c r="C59" t="s">
+        <v>416</v>
+      </c>
+      <c r="D59" t="s">
+        <v>298</v>
+      </c>
+      <c r="E59" t="s">
+        <v>299</v>
+      </c>
+      <c r="F59" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="B60" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="D59" t="s">
-        <v>299</v>
-      </c>
-      <c r="E59" t="s">
-        <v>300</v>
-      </c>
-      <c r="F59" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="3" t="s">
+      <c r="C60" t="s">
+        <v>418</v>
+      </c>
+      <c r="D60" t="s">
+        <v>298</v>
+      </c>
+      <c r="E60" t="s">
+        <v>299</v>
+      </c>
+      <c r="F60" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="B61" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="D60" t="s">
-        <v>299</v>
-      </c>
-      <c r="E60" t="s">
-        <v>300</v>
-      </c>
-      <c r="F60" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
+      <c r="C61" t="s">
+        <v>420</v>
+      </c>
+      <c r="D61" t="s">
+        <v>298</v>
+      </c>
+      <c r="E61" t="s">
+        <v>299</v>
+      </c>
+      <c r="F61" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="B62" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="D61" t="s">
-        <v>299</v>
-      </c>
-      <c r="E61" t="s">
-        <v>300</v>
-      </c>
-      <c r="F61" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
+      <c r="C62" t="s">
+        <v>422</v>
+      </c>
+      <c r="D62" t="s">
+        <v>298</v>
+      </c>
+      <c r="E62" t="s">
+        <v>299</v>
+      </c>
+      <c r="F62" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="B63" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="D62" t="s">
-        <v>299</v>
-      </c>
-      <c r="E62" t="s">
-        <v>300</v>
-      </c>
-      <c r="F62" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
+      <c r="C63" t="s">
+        <v>424</v>
+      </c>
+      <c r="D63" t="s">
+        <v>298</v>
+      </c>
+      <c r="E63" t="s">
+        <v>299</v>
+      </c>
+      <c r="F63" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="B64" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="D63" t="s">
-        <v>299</v>
-      </c>
-      <c r="E63" t="s">
-        <v>300</v>
-      </c>
-      <c r="F63" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="3" t="s">
+      <c r="C64" t="s">
+        <v>426</v>
+      </c>
+      <c r="D64" t="s">
+        <v>298</v>
+      </c>
+      <c r="E64" t="s">
+        <v>299</v>
+      </c>
+      <c r="F64" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="B65" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="D64" t="s">
-        <v>299</v>
-      </c>
-      <c r="E64" t="s">
-        <v>300</v>
-      </c>
-      <c r="F64" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="3" t="s">
+      <c r="C65" t="s">
+        <v>428</v>
+      </c>
+      <c r="D65" t="s">
+        <v>298</v>
+      </c>
+      <c r="E65" t="s">
+        <v>299</v>
+      </c>
+      <c r="F65" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="B66" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="D65" t="s">
-        <v>299</v>
-      </c>
-      <c r="E65" t="s">
-        <v>300</v>
-      </c>
-      <c r="F65" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="3" t="s">
+      <c r="C66" t="s">
+        <v>430</v>
+      </c>
+      <c r="D66" t="s">
+        <v>298</v>
+      </c>
+      <c r="E66" t="s">
+        <v>299</v>
+      </c>
+      <c r="F66" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B66" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="B67" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="D66" t="s">
-        <v>299</v>
-      </c>
-      <c r="E66" t="s">
-        <v>300</v>
-      </c>
-      <c r="F66" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="3" t="s">
+      <c r="C67" t="s">
+        <v>432</v>
+      </c>
+      <c r="D67" t="s">
+        <v>298</v>
+      </c>
+      <c r="E67" t="s">
+        <v>299</v>
+      </c>
+      <c r="F67" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="B68" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="D67" t="s">
-        <v>299</v>
-      </c>
-      <c r="E67" t="s">
-        <v>300</v>
-      </c>
-      <c r="F67" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="3" t="s">
+      <c r="C68" t="s">
+        <v>434</v>
+      </c>
+      <c r="D68" t="s">
+        <v>298</v>
+      </c>
+      <c r="E68" t="s">
+        <v>299</v>
+      </c>
+      <c r="F68" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B68" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="B69" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="D68" t="s">
-        <v>299</v>
-      </c>
-      <c r="E68" t="s">
-        <v>300</v>
-      </c>
-      <c r="F68" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A69" s="3" t="s">
+      <c r="C69" t="s">
+        <v>436</v>
+      </c>
+      <c r="D69" t="s">
+        <v>298</v>
+      </c>
+      <c r="E69" t="s">
+        <v>299</v>
+      </c>
+      <c r="F69" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B69" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="B70" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="D69" t="s">
-        <v>299</v>
-      </c>
-      <c r="E69" t="s">
-        <v>300</v>
-      </c>
-      <c r="F69" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A70" s="3" t="s">
+      <c r="C70" t="s">
+        <v>438</v>
+      </c>
+      <c r="D70" t="s">
+        <v>298</v>
+      </c>
+      <c r="E70" t="s">
+        <v>299</v>
+      </c>
+      <c r="F70" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B70" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="B71" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="D70" t="s">
-        <v>299</v>
-      </c>
-      <c r="E70" t="s">
-        <v>300</v>
-      </c>
-      <c r="F70" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A71" s="3" t="s">
+      <c r="C71" t="s">
+        <v>440</v>
+      </c>
+      <c r="D71" t="s">
+        <v>298</v>
+      </c>
+      <c r="E71" t="s">
+        <v>299</v>
+      </c>
+      <c r="F71" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B71" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="B72" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="D71" t="s">
-        <v>299</v>
-      </c>
-      <c r="E71" t="s">
-        <v>300</v>
-      </c>
-      <c r="F71" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A72" s="3" t="s">
+      <c r="C72" t="s">
+        <v>442</v>
+      </c>
+      <c r="D72" t="s">
+        <v>298</v>
+      </c>
+      <c r="E72" t="s">
+        <v>299</v>
+      </c>
+      <c r="F72" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B72" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="B73" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="D72" t="s">
-        <v>299</v>
-      </c>
-      <c r="E72" t="s">
-        <v>300</v>
-      </c>
-      <c r="F72" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="s">
+      <c r="C73" t="s">
+        <v>444</v>
+      </c>
+      <c r="D73" t="s">
+        <v>298</v>
+      </c>
+      <c r="E73" t="s">
+        <v>299</v>
+      </c>
+      <c r="F73" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B73" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="B74" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="D73" t="s">
-        <v>299</v>
-      </c>
-      <c r="E73" t="s">
-        <v>300</v>
-      </c>
-      <c r="F73" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A74" s="3" t="s">
+      <c r="C74" t="s">
+        <v>446</v>
+      </c>
+      <c r="D74" t="s">
+        <v>298</v>
+      </c>
+      <c r="E74" t="s">
+        <v>299</v>
+      </c>
+      <c r="F74" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B74" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="B75" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="D74" t="s">
-        <v>299</v>
-      </c>
-      <c r="E74" t="s">
-        <v>300</v>
-      </c>
-      <c r="F74" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A75" s="3" t="s">
+      <c r="C75" t="s">
+        <v>448</v>
+      </c>
+      <c r="D75" t="s">
+        <v>298</v>
+      </c>
+      <c r="E75" t="s">
+        <v>299</v>
+      </c>
+      <c r="F75" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B75" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="B76" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="D75" t="s">
-        <v>299</v>
-      </c>
-      <c r="E75" t="s">
-        <v>300</v>
-      </c>
-      <c r="F75" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A76" s="3" t="s">
+      <c r="C76" t="s">
+        <v>450</v>
+      </c>
+      <c r="D76" t="s">
+        <v>298</v>
+      </c>
+      <c r="E76" t="s">
+        <v>299</v>
+      </c>
+      <c r="F76" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B76" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="B77" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="D76" t="s">
-        <v>299</v>
-      </c>
-      <c r="E76" t="s">
-        <v>300</v>
-      </c>
-      <c r="F76" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A77" s="3" t="s">
+      <c r="C77" t="s">
+        <v>452</v>
+      </c>
+      <c r="D77" t="s">
+        <v>298</v>
+      </c>
+      <c r="E77" t="s">
+        <v>299</v>
+      </c>
+      <c r="F77" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B77" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="B78" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="D77" t="s">
-        <v>299</v>
-      </c>
-      <c r="E77" t="s">
-        <v>300</v>
-      </c>
-      <c r="F77" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A78" s="3" t="s">
+      <c r="C78" t="s">
+        <v>454</v>
+      </c>
+      <c r="D78" t="s">
+        <v>298</v>
+      </c>
+      <c r="E78" t="s">
+        <v>299</v>
+      </c>
+      <c r="F78" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B78" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="B79" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="D78" t="s">
-        <v>299</v>
-      </c>
-      <c r="E78" t="s">
-        <v>300</v>
-      </c>
-      <c r="F78" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A79" s="3" t="s">
+      <c r="C79" t="s">
+        <v>456</v>
+      </c>
+      <c r="D79" t="s">
+        <v>298</v>
+      </c>
+      <c r="E79" t="s">
+        <v>299</v>
+      </c>
+      <c r="F79" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B79" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="B80" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="D79" t="s">
-        <v>299</v>
-      </c>
-      <c r="E79" t="s">
-        <v>300</v>
-      </c>
-      <c r="F79" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A80" s="3" t="s">
+      <c r="C80" t="s">
+        <v>458</v>
+      </c>
+      <c r="D80" t="s">
+        <v>298</v>
+      </c>
+      <c r="E80" t="s">
+        <v>299</v>
+      </c>
+      <c r="F80" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B80" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="C80" t="s">
+      <c r="B81" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="D80" t="s">
-        <v>299</v>
-      </c>
-      <c r="E80" t="s">
-        <v>300</v>
-      </c>
-      <c r="F80" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A81" s="3" t="s">
+      <c r="C81" t="s">
+        <v>460</v>
+      </c>
+      <c r="D81" t="s">
+        <v>298</v>
+      </c>
+      <c r="E81" t="s">
+        <v>299</v>
+      </c>
+      <c r="F81" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B81" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="B82" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="D81" t="s">
-        <v>299</v>
-      </c>
-      <c r="E81" t="s">
-        <v>300</v>
-      </c>
-      <c r="F81" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A82" s="3" t="s">
+      <c r="C82" t="s">
+        <v>462</v>
+      </c>
+      <c r="D82" t="s">
+        <v>298</v>
+      </c>
+      <c r="E82" t="s">
+        <v>299</v>
+      </c>
+      <c r="F82" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B82" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="C82" t="s">
+      <c r="B83" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="D82" t="s">
-        <v>299</v>
-      </c>
-      <c r="E82" t="s">
-        <v>300</v>
-      </c>
-      <c r="F82" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A83" s="3" t="s">
+      <c r="C83" t="s">
+        <v>464</v>
+      </c>
+      <c r="D83" t="s">
+        <v>298</v>
+      </c>
+      <c r="E83" t="s">
+        <v>299</v>
+      </c>
+      <c r="F83" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B83" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="C83" t="s">
+      <c r="B84" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="D83" t="s">
-        <v>299</v>
-      </c>
-      <c r="E83" t="s">
-        <v>300</v>
-      </c>
-      <c r="F83" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A84" s="3" t="s">
+      <c r="C84" t="s">
+        <v>466</v>
+      </c>
+      <c r="D84" t="s">
+        <v>298</v>
+      </c>
+      <c r="E84" t="s">
+        <v>299</v>
+      </c>
+      <c r="F84" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B84" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="B85" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="D84" t="s">
-        <v>299</v>
-      </c>
-      <c r="E84" t="s">
-        <v>300</v>
-      </c>
-      <c r="F84" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A85" s="3" t="s">
+      <c r="C85" t="s">
+        <v>468</v>
+      </c>
+      <c r="D85" t="s">
+        <v>298</v>
+      </c>
+      <c r="E85" t="s">
+        <v>299</v>
+      </c>
+      <c r="F85" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B85" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="C85" t="s">
+      <c r="B86" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="D85" t="s">
-        <v>299</v>
-      </c>
-      <c r="E85" t="s">
-        <v>300</v>
-      </c>
-      <c r="F85" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A86" s="3" t="s">
+      <c r="C86" t="s">
+        <v>470</v>
+      </c>
+      <c r="D86" t="s">
+        <v>298</v>
+      </c>
+      <c r="E86" t="s">
+        <v>299</v>
+      </c>
+      <c r="F86" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B86" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="C86" t="s">
+      <c r="B87" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="D86" t="s">
-        <v>299</v>
-      </c>
-      <c r="E86" t="s">
-        <v>300</v>
-      </c>
-      <c r="F86" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A87" s="3" t="s">
+      <c r="C87" t="s">
+        <v>472</v>
+      </c>
+      <c r="D87" t="s">
+        <v>298</v>
+      </c>
+      <c r="E87" t="s">
+        <v>299</v>
+      </c>
+      <c r="F87" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B87" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="C87" t="s">
+      <c r="B88" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="D87" t="s">
-        <v>299</v>
-      </c>
-      <c r="E87" t="s">
-        <v>300</v>
-      </c>
-      <c r="F87" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A88" s="3" t="s">
+      <c r="C88" t="s">
+        <v>474</v>
+      </c>
+      <c r="D88" t="s">
+        <v>298</v>
+      </c>
+      <c r="E88" t="s">
+        <v>299</v>
+      </c>
+      <c r="F88" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B88" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="C88" t="s">
+      <c r="B89" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="D88" t="s">
-        <v>299</v>
-      </c>
-      <c r="E88" t="s">
-        <v>300</v>
-      </c>
-      <c r="F88" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A89" s="3" t="s">
+      <c r="C89" t="s">
+        <v>476</v>
+      </c>
+      <c r="D89" t="s">
+        <v>298</v>
+      </c>
+      <c r="E89" t="s">
+        <v>299</v>
+      </c>
+      <c r="F89" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B89" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="C89" t="s">
+      <c r="B90" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="D89" t="s">
-        <v>299</v>
-      </c>
-      <c r="E89" t="s">
-        <v>300</v>
-      </c>
-      <c r="F89" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A90" s="3" t="s">
+      <c r="C90" t="s">
+        <v>478</v>
+      </c>
+      <c r="D90" t="s">
+        <v>298</v>
+      </c>
+      <c r="E90" t="s">
+        <v>299</v>
+      </c>
+      <c r="F90" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B90" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C90" t="s">
+      <c r="B91" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="D90" t="s">
-        <v>299</v>
-      </c>
-      <c r="E90" t="s">
-        <v>300</v>
-      </c>
-      <c r="F90" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A91" s="3" t="s">
+      <c r="C91" t="s">
+        <v>480</v>
+      </c>
+      <c r="D91" t="s">
+        <v>298</v>
+      </c>
+      <c r="E91" t="s">
+        <v>299</v>
+      </c>
+      <c r="F91" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B91" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="C91" t="s">
+      <c r="B92" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="D91" t="s">
-        <v>299</v>
-      </c>
-      <c r="E91" t="s">
-        <v>300</v>
-      </c>
-      <c r="F91" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A92" s="3" t="s">
+      <c r="C92" t="s">
+        <v>482</v>
+      </c>
+      <c r="D92" t="s">
+        <v>298</v>
+      </c>
+      <c r="E92" t="s">
+        <v>299</v>
+      </c>
+      <c r="F92" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B92" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="C92" t="s">
+      <c r="B93" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="D92" t="s">
-        <v>299</v>
-      </c>
-      <c r="E92" t="s">
-        <v>300</v>
-      </c>
-      <c r="F92" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A93" s="3" t="s">
+      <c r="C93" t="s">
+        <v>484</v>
+      </c>
+      <c r="D93" t="s">
+        <v>298</v>
+      </c>
+      <c r="E93" t="s">
+        <v>299</v>
+      </c>
+      <c r="F93" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B93" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="C93" t="s">
+      <c r="B94" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="D93" t="s">
-        <v>299</v>
-      </c>
-      <c r="E93" t="s">
-        <v>300</v>
-      </c>
-      <c r="F93" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A94" s="3" t="s">
+      <c r="C94" t="s">
+        <v>486</v>
+      </c>
+      <c r="D94" t="s">
+        <v>298</v>
+      </c>
+      <c r="E94" t="s">
+        <v>299</v>
+      </c>
+      <c r="F94" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B94" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="C94" t="s">
+      <c r="B95" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="D94" t="s">
-        <v>299</v>
-      </c>
-      <c r="E94" t="s">
-        <v>300</v>
-      </c>
-      <c r="F94" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A95" s="3" t="s">
+      <c r="C95" t="s">
+        <v>488</v>
+      </c>
+      <c r="D95" t="s">
+        <v>298</v>
+      </c>
+      <c r="E95" t="s">
+        <v>299</v>
+      </c>
+      <c r="F95" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B95" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="C95" t="s">
+      <c r="B96" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="D95" t="s">
-        <v>299</v>
-      </c>
-      <c r="E95" t="s">
-        <v>300</v>
-      </c>
-      <c r="F95" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A96" s="3" t="s">
+      <c r="C96" t="s">
+        <v>490</v>
+      </c>
+      <c r="D96" t="s">
+        <v>298</v>
+      </c>
+      <c r="E96" t="s">
+        <v>299</v>
+      </c>
+      <c r="F96" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B96" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="C96" t="s">
+      <c r="B97" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="D96" t="s">
-        <v>299</v>
-      </c>
-      <c r="E96" t="s">
-        <v>300</v>
-      </c>
-      <c r="F96" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A97" s="3" t="s">
+      <c r="C97" t="s">
+        <v>492</v>
+      </c>
+      <c r="D97" t="s">
+        <v>298</v>
+      </c>
+      <c r="E97" t="s">
+        <v>299</v>
+      </c>
+      <c r="F97" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B97" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="C97" t="s">
+      <c r="B98" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="D97" t="s">
-        <v>299</v>
-      </c>
-      <c r="E97" t="s">
-        <v>300</v>
-      </c>
-      <c r="F97" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A98" s="3" t="s">
+      <c r="C98" t="s">
+        <v>494</v>
+      </c>
+      <c r="D98" t="s">
+        <v>298</v>
+      </c>
+      <c r="E98" t="s">
+        <v>299</v>
+      </c>
+      <c r="F98" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B98" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="C98" t="s">
+      <c r="B99" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="D98" t="s">
-        <v>299</v>
-      </c>
-      <c r="E98" t="s">
-        <v>300</v>
-      </c>
-      <c r="F98" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A99" s="3" t="s">
+      <c r="C99" t="s">
+        <v>496</v>
+      </c>
+      <c r="D99" t="s">
+        <v>298</v>
+      </c>
+      <c r="E99" t="s">
+        <v>299</v>
+      </c>
+      <c r="F99" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B99" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="C99" t="s">
+      <c r="B100" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="D99" t="s">
-        <v>299</v>
-      </c>
-      <c r="E99" t="s">
-        <v>300</v>
-      </c>
-      <c r="F99" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A100" s="3" t="s">
+      <c r="C100" t="s">
+        <v>498</v>
+      </c>
+      <c r="D100" t="s">
+        <v>298</v>
+      </c>
+      <c r="E100" t="s">
+        <v>299</v>
+      </c>
+      <c r="F100" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B100" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="C100" t="s">
+      <c r="B101" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="D100" t="s">
-        <v>299</v>
-      </c>
-      <c r="E100" t="s">
-        <v>300</v>
-      </c>
-      <c r="F100" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A101" s="3" t="s">
+      <c r="C101" t="s">
+        <v>500</v>
+      </c>
+      <c r="D101" t="s">
+        <v>298</v>
+      </c>
+      <c r="E101" t="s">
+        <v>299</v>
+      </c>
+      <c r="F101" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B101" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="C101" t="s">
+      <c r="B102" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="D101" t="s">
-        <v>299</v>
-      </c>
-      <c r="E101" t="s">
-        <v>300</v>
-      </c>
-      <c r="F101" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A102" s="3" t="s">
+      <c r="C102" t="s">
+        <v>502</v>
+      </c>
+      <c r="D102" t="s">
+        <v>298</v>
+      </c>
+      <c r="E102" t="s">
+        <v>299</v>
+      </c>
+      <c r="F102" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B102" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="C102" t="s">
+      <c r="B103" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="D102" t="s">
-        <v>299</v>
-      </c>
-      <c r="E102" t="s">
-        <v>300</v>
-      </c>
-      <c r="F102" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A103" s="3" t="s">
+      <c r="C103" t="s">
+        <v>504</v>
+      </c>
+      <c r="D103" t="s">
+        <v>298</v>
+      </c>
+      <c r="E103" t="s">
+        <v>299</v>
+      </c>
+      <c r="F103" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B103" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="C103" t="s">
+      <c r="B104" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="D103" t="s">
-        <v>299</v>
-      </c>
-      <c r="E103" t="s">
-        <v>300</v>
-      </c>
-      <c r="F103" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A104" s="3" t="s">
+      <c r="C104" t="s">
+        <v>506</v>
+      </c>
+      <c r="D104" t="s">
+        <v>298</v>
+      </c>
+      <c r="E104" t="s">
+        <v>299</v>
+      </c>
+      <c r="F104" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B104" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="C104" t="s">
+      <c r="B105" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="D104" t="s">
-        <v>299</v>
-      </c>
-      <c r="E104" t="s">
-        <v>300</v>
-      </c>
-      <c r="F104" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A105" s="3" t="s">
+      <c r="C105" t="s">
+        <v>508</v>
+      </c>
+      <c r="D105" t="s">
+        <v>298</v>
+      </c>
+      <c r="E105" t="s">
+        <v>299</v>
+      </c>
+      <c r="F105" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B105" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="C105" t="s">
+      <c r="B106" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="D105" t="s">
-        <v>299</v>
-      </c>
-      <c r="E105" t="s">
-        <v>300</v>
-      </c>
-      <c r="F105" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A106" s="3" t="s">
+      <c r="C106" t="s">
+        <v>510</v>
+      </c>
+      <c r="D106" t="s">
+        <v>298</v>
+      </c>
+      <c r="E106" t="s">
+        <v>299</v>
+      </c>
+      <c r="F106" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B106" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="C106" t="s">
+      <c r="B107" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="D106" t="s">
-        <v>299</v>
-      </c>
-      <c r="E106" t="s">
-        <v>300</v>
-      </c>
-      <c r="F106" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A107" s="3" t="s">
+      <c r="C107" t="s">
+        <v>512</v>
+      </c>
+      <c r="D107" t="s">
+        <v>298</v>
+      </c>
+      <c r="E107" t="s">
+        <v>299</v>
+      </c>
+      <c r="F107" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B107" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="C107" t="s">
+      <c r="B108" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="D107" t="s">
-        <v>299</v>
-      </c>
-      <c r="E107" t="s">
-        <v>300</v>
-      </c>
-      <c r="F107" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A108" s="3" t="s">
+      <c r="C108" t="s">
+        <v>514</v>
+      </c>
+      <c r="D108" t="s">
+        <v>298</v>
+      </c>
+      <c r="E108" t="s">
+        <v>299</v>
+      </c>
+      <c r="F108" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B108" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="C108" t="s">
+      <c r="B109" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="D108" t="s">
-        <v>299</v>
-      </c>
-      <c r="E108" t="s">
-        <v>300</v>
-      </c>
-      <c r="F108" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A109" s="3" t="s">
+      <c r="C109" t="s">
+        <v>516</v>
+      </c>
+      <c r="D109" t="s">
+        <v>298</v>
+      </c>
+      <c r="E109" t="s">
+        <v>299</v>
+      </c>
+      <c r="F109" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B109" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="C109" t="s">
+      <c r="B110" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="D109" t="s">
-        <v>299</v>
-      </c>
-      <c r="E109" t="s">
-        <v>300</v>
-      </c>
-      <c r="F109" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A110" s="3" t="s">
+      <c r="C110" t="s">
+        <v>518</v>
+      </c>
+      <c r="D110" t="s">
+        <v>298</v>
+      </c>
+      <c r="E110" t="s">
+        <v>299</v>
+      </c>
+      <c r="F110" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B110" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="C110" t="s">
+      <c r="B111" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="D110" t="s">
-        <v>299</v>
-      </c>
-      <c r="E110" t="s">
-        <v>300</v>
-      </c>
-      <c r="F110" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A111" s="3" t="s">
+      <c r="C111" t="s">
+        <v>520</v>
+      </c>
+      <c r="D111" t="s">
+        <v>298</v>
+      </c>
+      <c r="E111" t="s">
+        <v>299</v>
+      </c>
+      <c r="F111" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B111" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="C111" t="s">
+      <c r="B112" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="D111" t="s">
-        <v>299</v>
-      </c>
-      <c r="E111" t="s">
-        <v>300</v>
-      </c>
-      <c r="F111" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A112" s="3" t="s">
+      <c r="C112" t="s">
+        <v>522</v>
+      </c>
+      <c r="D112" t="s">
+        <v>298</v>
+      </c>
+      <c r="E112" t="s">
+        <v>299</v>
+      </c>
+      <c r="F112" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B112" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="C112" t="s">
+      <c r="B113" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="D112" t="s">
-        <v>299</v>
-      </c>
-      <c r="E112" t="s">
-        <v>300</v>
-      </c>
-      <c r="F112" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A113" s="3" t="s">
+      <c r="C113" t="s">
+        <v>524</v>
+      </c>
+      <c r="D113" t="s">
+        <v>298</v>
+      </c>
+      <c r="E113" t="s">
+        <v>299</v>
+      </c>
+      <c r="F113" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B113" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="C113" t="s">
+      <c r="B114" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="D113" t="s">
-        <v>299</v>
-      </c>
-      <c r="E113" t="s">
-        <v>300</v>
-      </c>
-      <c r="F113" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A114" s="3" t="s">
+      <c r="C114" t="s">
+        <v>526</v>
+      </c>
+      <c r="D114" t="s">
+        <v>298</v>
+      </c>
+      <c r="E114" t="s">
+        <v>299</v>
+      </c>
+      <c r="F114" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B114" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="C114" t="s">
+      <c r="B115" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="D114" t="s">
-        <v>299</v>
-      </c>
-      <c r="E114" t="s">
-        <v>300</v>
-      </c>
-      <c r="F114" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A115" s="3" t="s">
+      <c r="C115" t="s">
+        <v>528</v>
+      </c>
+      <c r="D115" t="s">
+        <v>298</v>
+      </c>
+      <c r="E115" t="s">
+        <v>299</v>
+      </c>
+      <c r="F115" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A116" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B115" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="C115" t="s">
+      <c r="B116" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="D115" t="s">
-        <v>299</v>
-      </c>
-      <c r="E115" t="s">
-        <v>300</v>
-      </c>
-      <c r="F115" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A116" s="3" t="s">
+      <c r="C116" t="s">
+        <v>530</v>
+      </c>
+      <c r="D116" t="s">
+        <v>298</v>
+      </c>
+      <c r="E116" t="s">
+        <v>299</v>
+      </c>
+      <c r="F116" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B116" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="C116" t="s">
+      <c r="B117" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="D116" t="s">
-        <v>299</v>
-      </c>
-      <c r="E116" t="s">
-        <v>300</v>
-      </c>
-      <c r="F116" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A117" s="3" t="s">
+      <c r="C117" t="s">
+        <v>532</v>
+      </c>
+      <c r="D117" t="s">
+        <v>298</v>
+      </c>
+      <c r="E117" t="s">
+        <v>299</v>
+      </c>
+      <c r="F117" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B117" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="C117" t="s">
+      <c r="B118" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="D117" t="s">
-        <v>299</v>
-      </c>
-      <c r="E117" t="s">
-        <v>300</v>
-      </c>
-      <c r="F117" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A118" s="3" t="s">
+      <c r="C118" t="s">
+        <v>534</v>
+      </c>
+      <c r="D118" t="s">
+        <v>298</v>
+      </c>
+      <c r="E118" t="s">
+        <v>299</v>
+      </c>
+      <c r="F118" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B118" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="C118" t="s">
+      <c r="B119" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="D118" t="s">
-        <v>299</v>
-      </c>
-      <c r="E118" t="s">
-        <v>300</v>
-      </c>
-      <c r="F118" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A119" s="3" t="s">
+      <c r="C119" t="s">
+        <v>536</v>
+      </c>
+      <c r="D119" t="s">
+        <v>298</v>
+      </c>
+      <c r="E119" t="s">
+        <v>299</v>
+      </c>
+      <c r="F119" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A120" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B119" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="C119" t="s">
+      <c r="B120" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="D119" t="s">
-        <v>299</v>
-      </c>
-      <c r="E119" t="s">
-        <v>300</v>
-      </c>
-      <c r="F119" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A120" s="3" t="s">
+      <c r="C120" t="s">
+        <v>538</v>
+      </c>
+      <c r="D120" t="s">
+        <v>298</v>
+      </c>
+      <c r="E120" t="s">
+        <v>299</v>
+      </c>
+      <c r="F120" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A121" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B120" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="C120" t="s">
+      <c r="B121" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="D120" t="s">
-        <v>299</v>
-      </c>
-      <c r="E120" t="s">
-        <v>300</v>
-      </c>
-      <c r="F120" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A121" s="3" t="s">
+      <c r="C121" t="s">
+        <v>540</v>
+      </c>
+      <c r="D121" t="s">
+        <v>298</v>
+      </c>
+      <c r="E121" t="s">
+        <v>299</v>
+      </c>
+      <c r="F121" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A122" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B121" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="C121" t="s">
+      <c r="B122" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="D121" t="s">
-        <v>299</v>
-      </c>
-      <c r="E121" t="s">
-        <v>300</v>
-      </c>
-      <c r="F121" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A122" s="3" t="s">
+      <c r="C122" t="s">
+        <v>542</v>
+      </c>
+      <c r="D122" t="s">
+        <v>298</v>
+      </c>
+      <c r="E122" t="s">
+        <v>299</v>
+      </c>
+      <c r="F122" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A123" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B122" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="C122" t="s">
+      <c r="B123" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="D122" t="s">
-        <v>299</v>
-      </c>
-      <c r="E122" t="s">
-        <v>300</v>
-      </c>
-      <c r="F122" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A123" s="3" t="s">
+      <c r="C123" t="s">
+        <v>544</v>
+      </c>
+      <c r="D123" t="s">
+        <v>298</v>
+      </c>
+      <c r="E123" t="s">
+        <v>299</v>
+      </c>
+      <c r="F123" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A124" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B123" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="C123" t="s">
+      <c r="B124" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="D123" t="s">
-        <v>299</v>
-      </c>
-      <c r="E123" t="s">
-        <v>300</v>
-      </c>
-      <c r="F123" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A124" s="3" t="s">
+      <c r="C124" t="s">
+        <v>546</v>
+      </c>
+      <c r="D124" t="s">
+        <v>298</v>
+      </c>
+      <c r="E124" t="s">
+        <v>299</v>
+      </c>
+      <c r="F124" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B124" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="C124" t="s">
+      <c r="B125" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="D124" t="s">
-        <v>299</v>
-      </c>
-      <c r="E124" t="s">
-        <v>300</v>
-      </c>
-      <c r="F124" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A125" s="3" t="s">
+      <c r="C125" t="s">
+        <v>548</v>
+      </c>
+      <c r="D125" t="s">
+        <v>298</v>
+      </c>
+      <c r="E125" t="s">
+        <v>299</v>
+      </c>
+      <c r="F125" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B125" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="C125" t="s">
+      <c r="B126" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="D125" t="s">
-        <v>299</v>
-      </c>
-      <c r="E125" t="s">
-        <v>300</v>
-      </c>
-      <c r="F125" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A126" s="3" t="s">
+      <c r="C126" t="s">
+        <v>550</v>
+      </c>
+      <c r="D126" t="s">
+        <v>298</v>
+      </c>
+      <c r="E126" t="s">
+        <v>299</v>
+      </c>
+      <c r="F126" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B126" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="C126" t="s">
+      <c r="B127" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="D126" t="s">
-        <v>299</v>
-      </c>
-      <c r="E126" t="s">
-        <v>300</v>
-      </c>
-      <c r="F126" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A127" s="3" t="s">
+      <c r="C127" t="s">
+        <v>552</v>
+      </c>
+      <c r="D127" t="s">
+        <v>298</v>
+      </c>
+      <c r="E127" t="s">
+        <v>299</v>
+      </c>
+      <c r="F127" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A128" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B127" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="C127" t="s">
+      <c r="B128" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="D127" t="s">
-        <v>299</v>
-      </c>
-      <c r="E127" t="s">
-        <v>300</v>
-      </c>
-      <c r="F127" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A128" s="3" t="s">
+      <c r="C128" t="s">
+        <v>554</v>
+      </c>
+      <c r="D128" t="s">
+        <v>298</v>
+      </c>
+      <c r="E128" t="s">
+        <v>299</v>
+      </c>
+      <c r="F128" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B128" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="C128" t="s">
+      <c r="B129" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="D128" t="s">
-        <v>299</v>
-      </c>
-      <c r="E128" t="s">
-        <v>300</v>
-      </c>
-      <c r="F128" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A129" s="3" t="s">
+      <c r="C129" t="s">
+        <v>556</v>
+      </c>
+      <c r="D129" t="s">
+        <v>298</v>
+      </c>
+      <c r="E129" t="s">
+        <v>299</v>
+      </c>
+      <c r="F129" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A130" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B129" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="C129" t="s">
+      <c r="B130" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="D129" t="s">
-        <v>299</v>
-      </c>
-      <c r="E129" t="s">
-        <v>300</v>
-      </c>
-      <c r="F129" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A130" s="3" t="s">
+      <c r="C130" t="s">
+        <v>558</v>
+      </c>
+      <c r="D130" t="s">
+        <v>298</v>
+      </c>
+      <c r="E130" t="s">
+        <v>299</v>
+      </c>
+      <c r="F130" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B130" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="C130" t="s">
+      <c r="B131" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="D130" t="s">
-        <v>299</v>
-      </c>
-      <c r="E130" t="s">
-        <v>300</v>
-      </c>
-      <c r="F130" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A131" s="3" t="s">
+      <c r="C131" t="s">
+        <v>560</v>
+      </c>
+      <c r="D131" t="s">
+        <v>298</v>
+      </c>
+      <c r="E131" t="s">
+        <v>299</v>
+      </c>
+      <c r="F131" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A132" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B131" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C131" t="s">
+      <c r="B132" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="D131" t="s">
-        <v>299</v>
-      </c>
-      <c r="E131" t="s">
-        <v>300</v>
-      </c>
-      <c r="F131" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A132" s="3" t="s">
+      <c r="C132" t="s">
+        <v>562</v>
+      </c>
+      <c r="D132" t="s">
+        <v>298</v>
+      </c>
+      <c r="E132" t="s">
+        <v>299</v>
+      </c>
+      <c r="F132" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A133" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="B132" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="C132" t="s">
+      <c r="B133" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="D132" t="s">
-        <v>299</v>
-      </c>
-      <c r="E132" t="s">
-        <v>300</v>
-      </c>
-      <c r="F132" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A133" s="3" t="s">
+      <c r="C133" t="s">
+        <v>564</v>
+      </c>
+      <c r="D133" t="s">
+        <v>298</v>
+      </c>
+      <c r="E133" t="s">
+        <v>299</v>
+      </c>
+      <c r="F133" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A134" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B133" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="C133" t="s">
+      <c r="B134" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="D133" t="s">
-        <v>299</v>
-      </c>
-      <c r="E133" t="s">
-        <v>300</v>
-      </c>
-      <c r="F133" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A134" s="3" t="s">
+      <c r="C134" t="s">
+        <v>566</v>
+      </c>
+      <c r="D134" t="s">
+        <v>298</v>
+      </c>
+      <c r="E134" t="s">
+        <v>299</v>
+      </c>
+      <c r="F134" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A135" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B134" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="C134" t="s">
+      <c r="B135" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="D134" t="s">
-        <v>299</v>
-      </c>
-      <c r="E134" t="s">
-        <v>300</v>
-      </c>
-      <c r="F134" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A135" s="3" t="s">
+      <c r="C135" t="s">
+        <v>568</v>
+      </c>
+      <c r="D135" t="s">
+        <v>298</v>
+      </c>
+      <c r="E135" t="s">
+        <v>299</v>
+      </c>
+      <c r="F135" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A136" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B135" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="C135" t="s">
+      <c r="B136" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="D135" t="s">
-        <v>299</v>
-      </c>
-      <c r="E135" t="s">
-        <v>300</v>
-      </c>
-      <c r="F135" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A136" s="3" t="s">
+      <c r="C136" t="s">
+        <v>570</v>
+      </c>
+      <c r="D136" t="s">
+        <v>298</v>
+      </c>
+      <c r="E136" t="s">
+        <v>299</v>
+      </c>
+      <c r="F136" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A137" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B136" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="C136" t="s">
+      <c r="B137" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="D136" t="s">
-        <v>299</v>
-      </c>
-      <c r="E136" t="s">
-        <v>300</v>
-      </c>
-      <c r="F136" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A137" s="3" t="s">
+      <c r="C137" t="s">
+        <v>572</v>
+      </c>
+      <c r="D137" t="s">
+        <v>298</v>
+      </c>
+      <c r="E137" t="s">
+        <v>299</v>
+      </c>
+      <c r="F137" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A138" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B137" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="C137" t="s">
+      <c r="B138" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="D137" t="s">
-        <v>299</v>
-      </c>
-      <c r="E137" t="s">
-        <v>300</v>
-      </c>
-      <c r="F137" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A138" s="3" t="s">
+      <c r="C138" t="s">
+        <v>574</v>
+      </c>
+      <c r="D138" t="s">
+        <v>298</v>
+      </c>
+      <c r="E138" t="s">
+        <v>299</v>
+      </c>
+      <c r="F138" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A139" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B138" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="C138" t="s">
+      <c r="B139" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="D138" t="s">
-        <v>299</v>
-      </c>
-      <c r="E138" t="s">
-        <v>300</v>
-      </c>
-      <c r="F138" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A139" s="3" t="s">
+      <c r="C139" t="s">
+        <v>576</v>
+      </c>
+      <c r="D139" t="s">
+        <v>298</v>
+      </c>
+      <c r="E139" t="s">
+        <v>299</v>
+      </c>
+      <c r="F139" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A140" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B139" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="C139" t="s">
+      <c r="B140" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="D139" t="s">
-        <v>299</v>
-      </c>
-      <c r="E139" t="s">
-        <v>300</v>
-      </c>
-      <c r="F139" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A140" s="3" t="s">
+      <c r="C140" t="s">
+        <v>578</v>
+      </c>
+      <c r="D140" t="s">
+        <v>298</v>
+      </c>
+      <c r="E140" t="s">
+        <v>299</v>
+      </c>
+      <c r="F140" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A141" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B140" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="C140" t="s">
+      <c r="B141" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="D140" t="s">
-        <v>299</v>
-      </c>
-      <c r="E140" t="s">
-        <v>300</v>
-      </c>
-      <c r="F140" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A141" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="B141" s="3" t="s">
+      <c r="C141" t="s">
         <v>580</v>
       </c>
-      <c r="C141" t="s">
-        <v>581</v>
-      </c>
       <c r="D141" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E141" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F141" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/Metadata/Metadata.xlsx
+++ b/Metadata/Metadata.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jholmes5/Desktop/hpcbio-git/caceres-16S-mosquito-2022Sept/Metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF3C7B4-2376-B642-9055-4EC48B8DDA7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D25B3EE-3C07-8045-9C75-A4FA3782D2A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28620" yWindow="500" windowWidth="21860" windowHeight="19380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8380" yWindow="760" windowWidth="21860" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="filenames" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1997" uniqueCount="749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="323">
   <si>
     <t>SampleID</t>
   </si>
@@ -499,1284 +498,6 @@
   </si>
   <si>
     <t>Env_Comp_Den</t>
-  </si>
-  <si>
-    <t>16s-I-G-M-20-108_S204_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-I-G-M-20-117_S213_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-I-G-M-20-127_S223_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-I-G-M-20-136_S232_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-I-G-M-20-146_S242_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-I-G-M-40-109_S205_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-I-G-M-40-118_S214_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-I-G-M-40-128_S224_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-I-G-M-40-137_S233_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-I-G-M-40-147_S243_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-I-G-MS-20-110_S206_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-I-G-MS-20-119_S215_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-I-G-MS-20-129_S225_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-I-G-MS-20-138_S234_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-I-G-MS-20-148_S244_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-I-G-MS-40-111_S207_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-I-G-MS-40-120_S216_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-I-G-MS-40-139_S235_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-I-G-MS-40-149_S245_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-I-GN-M-20-113_S209_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-I-GN-M-20-123_S219_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-I-GN-M-20-132_S228_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-I-GN-M-20-142_S238_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-I-GN-M-20-152_S248_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-I-GN-M-40-114_S210_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-I-GN-M-40-124_S220_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-I-GN-M-40-133_S229_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-I-GN-M-40-143_S239_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-I-GN-MS-20-115_S211_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-I-GN-MS-20-125_S221_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-I-GN-MS-20-134_S230_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-I-GN-MS-20-144_S240_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-I-GN-MS-20-153_S249_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-I-GN-MS-40-116_S212_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-I-GN-MS-40-126_S222_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-I-GN-MS-40-135_S231_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-I-GN-MS-40-145_S241_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-I-GN-MS-40-154_S250_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-I-GN-STOCK-158_S254_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-I-GN-STOCK-159_S255_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-I-GN-STOCK-160_S256_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-I-G-STOCK-155_S251_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-I-G-STOCK-156_S252_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-I-G-STOCK-157_S253_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-G-M-20-18_S114_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-G-M-20-19_S115_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-G-M-20-1_S97_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-G-M-20-41_S137_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-G-M-20-42_S138_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-G-M-20-43_S139_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-G-M-20-64_S160_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-G-M-20-65_S161_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-G-M-20-66_S162_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-G-M-20-90_S186_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-G-M-40-20_S116_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-G-M-40-21_S117_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-G-M-40-22_S118_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-G-M-40-2_S98_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-G-M-40-3_S99_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-G-M-40-44_S140_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-G-M-40-45_S141_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-G-M-40-46_S142_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-G-M-40-4_S100_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-G-M-40-67_S163_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-G-M-40-68_S164_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-G-M-40-69_S165_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-G-M-40-91_S187_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-G-M-40-92_S188_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-G-MS-20-23_S119_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-G-MS-20-24_S120_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-G-MS-20-47_S143_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-G-MS-20-48_S144_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-G-MS-20-5_S101_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-G-MS-20-70_S166_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-G-MS-20-71_S167_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-G-MS-20-72_S168_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-G-MS-20-93_S189_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-G-MS-20-94_S190_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-G-MS-40-25_S121_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-G-MS-40-26_S122_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-G-MS-40-27_S123_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-G-MS-40-6_S102_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-G-MS-40-73_S169_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-G-MS-40-74_S170_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-G-MS-40-75_S171_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-G-MS-40-95_S191_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-G-MS-40-96_S192_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-G-MS-40-97_S193_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-GN-M-20-100_S196_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-GN-M-20-101_S197_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-GN-M-20-102_S198_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-GN-M-20-10_S106_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-GN-M-20-30_S126_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-GN-M-20-31_S127_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-GN-M-20-32_S128_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-GN-M-20-52_S148_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-GN-M-20-53_S149_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-GN-M-20-54_S150_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-GN-M-20-78_S174_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-GN-M-20-79_S175_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-GN-M-20-80_S176_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-GN-M-20-8_S104_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-GN-M-20-9_S105_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-GN-M-40-11_S107_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-GN-M-40-12_S108_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-GN-M-40-13_S109_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-GN-M-40-33_S129_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-GN-M-40-34_S130_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-GN-M-40-35_S131_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-GN-M-40-55_S151_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-GN-M-40-56_S152_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-GN-M-40-57_S153_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-GN-M-40-81_S177_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-GN-M-40-82_S178_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-GN-M-40-83_S179_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-GN-MS-20-103_S199_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-GN-MS-20-104_S200_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-GN-MS-20-14_S110_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-GN-MS-20-36_S132_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-GN-MS-20-37_S133_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-GN-MS-20-58_S154_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-GN-MS-20-59_S155_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-GN-MS-20-60_S156_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-GN-MS-20-84_S180_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-GN-MS-20-85_S181_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-GN-MS-20-86_S182_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-GN-MS-40-105_S201_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-GN-MS-40-106_S202_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-GN-MS-40-107_S203_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-GN-MS-40-15_S111_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-GN-MS-40-16_S112_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-GN-MS-40-17_S113_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-GN-MS-40-38_S134_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-GN-MS-40-39_S135_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-GN-MS-40-40_S136_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-GN-MS-40-61_S157_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-GN-MS-40-62_S158_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-GN-MS-40-63_S159_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-GN-MS-40-87_S183_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-GN-MS-40-88_S184_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-L-GN-MS-40-89_S185_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-I-G-M-20-108</t>
-  </si>
-  <si>
-    <t>S204</t>
-  </si>
-  <si>
-    <t>L001</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>001.fastq.gz</t>
-  </si>
-  <si>
-    <t>16s-I-G-M-20-117</t>
-  </si>
-  <si>
-    <t>S213</t>
-  </si>
-  <si>
-    <t>16s-I-G-M-20-127</t>
-  </si>
-  <si>
-    <t>S223</t>
-  </si>
-  <si>
-    <t>16s-I-G-M-20-136</t>
-  </si>
-  <si>
-    <t>S232</t>
-  </si>
-  <si>
-    <t>16s-I-G-M-20-146</t>
-  </si>
-  <si>
-    <t>S242</t>
-  </si>
-  <si>
-    <t>16s-I-G-M-40-109</t>
-  </si>
-  <si>
-    <t>S205</t>
-  </si>
-  <si>
-    <t>16s-I-G-M-40-118</t>
-  </si>
-  <si>
-    <t>S214</t>
-  </si>
-  <si>
-    <t>16s-I-G-M-40-128</t>
-  </si>
-  <si>
-    <t>S224</t>
-  </si>
-  <si>
-    <t>16s-I-G-M-40-137</t>
-  </si>
-  <si>
-    <t>S233</t>
-  </si>
-  <si>
-    <t>16s-I-G-M-40-147</t>
-  </si>
-  <si>
-    <t>S243</t>
-  </si>
-  <si>
-    <t>16s-I-G-MS-20-110</t>
-  </si>
-  <si>
-    <t>S206</t>
-  </si>
-  <si>
-    <t>16s-I-G-MS-20-119</t>
-  </si>
-  <si>
-    <t>S215</t>
-  </si>
-  <si>
-    <t>16s-I-G-MS-20-129</t>
-  </si>
-  <si>
-    <t>S225</t>
-  </si>
-  <si>
-    <t>16s-I-G-MS-20-138</t>
-  </si>
-  <si>
-    <t>S234</t>
-  </si>
-  <si>
-    <t>16s-I-G-MS-20-148</t>
-  </si>
-  <si>
-    <t>S244</t>
-  </si>
-  <si>
-    <t>16s-I-G-MS-40-111</t>
-  </si>
-  <si>
-    <t>S207</t>
-  </si>
-  <si>
-    <t>16s-I-G-MS-40-120</t>
-  </si>
-  <si>
-    <t>S216</t>
-  </si>
-  <si>
-    <t>16s-I-G-MS-40-139</t>
-  </si>
-  <si>
-    <t>S235</t>
-  </si>
-  <si>
-    <t>16s-I-G-MS-40-149</t>
-  </si>
-  <si>
-    <t>S245</t>
-  </si>
-  <si>
-    <t>16s-I-GN-M-20-113</t>
-  </si>
-  <si>
-    <t>S209</t>
-  </si>
-  <si>
-    <t>16s-I-GN-M-20-123</t>
-  </si>
-  <si>
-    <t>S219</t>
-  </si>
-  <si>
-    <t>16s-I-GN-M-20-132</t>
-  </si>
-  <si>
-    <t>S228</t>
-  </si>
-  <si>
-    <t>16s-I-GN-M-20-142</t>
-  </si>
-  <si>
-    <t>S238</t>
-  </si>
-  <si>
-    <t>16s-I-GN-M-20-152</t>
-  </si>
-  <si>
-    <t>S248</t>
-  </si>
-  <si>
-    <t>16s-I-GN-M-40-114</t>
-  </si>
-  <si>
-    <t>S210</t>
-  </si>
-  <si>
-    <t>16s-I-GN-M-40-124</t>
-  </si>
-  <si>
-    <t>S220</t>
-  </si>
-  <si>
-    <t>16s-I-GN-M-40-133</t>
-  </si>
-  <si>
-    <t>S229</t>
-  </si>
-  <si>
-    <t>16s-I-GN-M-40-143</t>
-  </si>
-  <si>
-    <t>S239</t>
-  </si>
-  <si>
-    <t>16s-I-GN-MS-20-115</t>
-  </si>
-  <si>
-    <t>S211</t>
-  </si>
-  <si>
-    <t>16s-I-GN-MS-20-125</t>
-  </si>
-  <si>
-    <t>S221</t>
-  </si>
-  <si>
-    <t>16s-I-GN-MS-20-134</t>
-  </si>
-  <si>
-    <t>S230</t>
-  </si>
-  <si>
-    <t>16s-I-GN-MS-20-144</t>
-  </si>
-  <si>
-    <t>S240</t>
-  </si>
-  <si>
-    <t>16s-I-GN-MS-20-153</t>
-  </si>
-  <si>
-    <t>S249</t>
-  </si>
-  <si>
-    <t>16s-I-GN-MS-40-116</t>
-  </si>
-  <si>
-    <t>S212</t>
-  </si>
-  <si>
-    <t>16s-I-GN-MS-40-126</t>
-  </si>
-  <si>
-    <t>S222</t>
-  </si>
-  <si>
-    <t>16s-I-GN-MS-40-135</t>
-  </si>
-  <si>
-    <t>S231</t>
-  </si>
-  <si>
-    <t>16s-I-GN-MS-40-145</t>
-  </si>
-  <si>
-    <t>S241</t>
-  </si>
-  <si>
-    <t>16s-I-GN-MS-40-154</t>
-  </si>
-  <si>
-    <t>S250</t>
-  </si>
-  <si>
-    <t>16s-I-GN-STOCK-158</t>
-  </si>
-  <si>
-    <t>S254</t>
-  </si>
-  <si>
-    <t>16s-I-GN-STOCK-159</t>
-  </si>
-  <si>
-    <t>S255</t>
-  </si>
-  <si>
-    <t>16s-I-GN-STOCK-160</t>
-  </si>
-  <si>
-    <t>S256</t>
-  </si>
-  <si>
-    <t>16s-I-G-STOCK-155</t>
-  </si>
-  <si>
-    <t>S251</t>
-  </si>
-  <si>
-    <t>16s-I-G-STOCK-156</t>
-  </si>
-  <si>
-    <t>S252</t>
-  </si>
-  <si>
-    <t>16s-I-G-STOCK-157</t>
-  </si>
-  <si>
-    <t>S253</t>
-  </si>
-  <si>
-    <t>16s-L-G-M-20-18</t>
-  </si>
-  <si>
-    <t>S114</t>
-  </si>
-  <si>
-    <t>16s-L-G-M-20-19</t>
-  </si>
-  <si>
-    <t>S115</t>
-  </si>
-  <si>
-    <t>16s-L-G-M-20-1</t>
-  </si>
-  <si>
-    <t>S97</t>
-  </si>
-  <si>
-    <t>16s-L-G-M-20-41</t>
-  </si>
-  <si>
-    <t>S137</t>
-  </si>
-  <si>
-    <t>16s-L-G-M-20-42</t>
-  </si>
-  <si>
-    <t>S138</t>
-  </si>
-  <si>
-    <t>16s-L-G-M-20-43</t>
-  </si>
-  <si>
-    <t>S139</t>
-  </si>
-  <si>
-    <t>16s-L-G-M-20-64</t>
-  </si>
-  <si>
-    <t>S160</t>
-  </si>
-  <si>
-    <t>16s-L-G-M-20-65</t>
-  </si>
-  <si>
-    <t>S161</t>
-  </si>
-  <si>
-    <t>16s-L-G-M-20-66</t>
-  </si>
-  <si>
-    <t>S162</t>
-  </si>
-  <si>
-    <t>16s-L-G-M-20-90</t>
-  </si>
-  <si>
-    <t>S186</t>
-  </si>
-  <si>
-    <t>16s-L-G-M-40-20</t>
-  </si>
-  <si>
-    <t>S116</t>
-  </si>
-  <si>
-    <t>16s-L-G-M-40-21</t>
-  </si>
-  <si>
-    <t>S117</t>
-  </si>
-  <si>
-    <t>16s-L-G-M-40-22</t>
-  </si>
-  <si>
-    <t>S118</t>
-  </si>
-  <si>
-    <t>16s-L-G-M-40-2</t>
-  </si>
-  <si>
-    <t>S98</t>
-  </si>
-  <si>
-    <t>16s-L-G-M-40-3</t>
-  </si>
-  <si>
-    <t>S99</t>
-  </si>
-  <si>
-    <t>16s-L-G-M-40-44</t>
-  </si>
-  <si>
-    <t>S140</t>
-  </si>
-  <si>
-    <t>16s-L-G-M-40-45</t>
-  </si>
-  <si>
-    <t>S141</t>
-  </si>
-  <si>
-    <t>16s-L-G-M-40-46</t>
-  </si>
-  <si>
-    <t>S142</t>
-  </si>
-  <si>
-    <t>16s-L-G-M-40-4</t>
-  </si>
-  <si>
-    <t>S100</t>
-  </si>
-  <si>
-    <t>16s-L-G-M-40-67</t>
-  </si>
-  <si>
-    <t>S163</t>
-  </si>
-  <si>
-    <t>16s-L-G-M-40-68</t>
-  </si>
-  <si>
-    <t>S164</t>
-  </si>
-  <si>
-    <t>16s-L-G-M-40-69</t>
-  </si>
-  <si>
-    <t>S165</t>
-  </si>
-  <si>
-    <t>16s-L-G-M-40-91</t>
-  </si>
-  <si>
-    <t>S187</t>
-  </si>
-  <si>
-    <t>16s-L-G-M-40-92</t>
-  </si>
-  <si>
-    <t>S188</t>
-  </si>
-  <si>
-    <t>16s-L-G-MS-20-23</t>
-  </si>
-  <si>
-    <t>S119</t>
-  </si>
-  <si>
-    <t>16s-L-G-MS-20-24</t>
-  </si>
-  <si>
-    <t>S120</t>
-  </si>
-  <si>
-    <t>16s-L-G-MS-20-47</t>
-  </si>
-  <si>
-    <t>S143</t>
-  </si>
-  <si>
-    <t>16s-L-G-MS-20-48</t>
-  </si>
-  <si>
-    <t>S144</t>
-  </si>
-  <si>
-    <t>16s-L-G-MS-20-5</t>
-  </si>
-  <si>
-    <t>S101</t>
-  </si>
-  <si>
-    <t>16s-L-G-MS-20-70</t>
-  </si>
-  <si>
-    <t>S166</t>
-  </si>
-  <si>
-    <t>16s-L-G-MS-20-71</t>
-  </si>
-  <si>
-    <t>S167</t>
-  </si>
-  <si>
-    <t>16s-L-G-MS-20-72</t>
-  </si>
-  <si>
-    <t>S168</t>
-  </si>
-  <si>
-    <t>16s-L-G-MS-20-93</t>
-  </si>
-  <si>
-    <t>S189</t>
-  </si>
-  <si>
-    <t>16s-L-G-MS-20-94</t>
-  </si>
-  <si>
-    <t>S190</t>
-  </si>
-  <si>
-    <t>16s-L-G-MS-40-25</t>
-  </si>
-  <si>
-    <t>S121</t>
-  </si>
-  <si>
-    <t>16s-L-G-MS-40-26</t>
-  </si>
-  <si>
-    <t>S122</t>
-  </si>
-  <si>
-    <t>16s-L-G-MS-40-27</t>
-  </si>
-  <si>
-    <t>S123</t>
-  </si>
-  <si>
-    <t>16s-L-G-MS-40-6</t>
-  </si>
-  <si>
-    <t>S102</t>
-  </si>
-  <si>
-    <t>16s-L-G-MS-40-73</t>
-  </si>
-  <si>
-    <t>S169</t>
-  </si>
-  <si>
-    <t>16s-L-G-MS-40-74</t>
-  </si>
-  <si>
-    <t>S170</t>
-  </si>
-  <si>
-    <t>16s-L-G-MS-40-75</t>
-  </si>
-  <si>
-    <t>S171</t>
-  </si>
-  <si>
-    <t>16s-L-G-MS-40-95</t>
-  </si>
-  <si>
-    <t>S191</t>
-  </si>
-  <si>
-    <t>16s-L-G-MS-40-96</t>
-  </si>
-  <si>
-    <t>S192</t>
-  </si>
-  <si>
-    <t>16s-L-G-MS-40-97</t>
-  </si>
-  <si>
-    <t>S193</t>
-  </si>
-  <si>
-    <t>16s-L-GN-M-20-100</t>
-  </si>
-  <si>
-    <t>S196</t>
-  </si>
-  <si>
-    <t>16s-L-GN-M-20-101</t>
-  </si>
-  <si>
-    <t>S197</t>
-  </si>
-  <si>
-    <t>16s-L-GN-M-20-102</t>
-  </si>
-  <si>
-    <t>S198</t>
-  </si>
-  <si>
-    <t>16s-L-GN-M-20-10</t>
-  </si>
-  <si>
-    <t>S106</t>
-  </si>
-  <si>
-    <t>16s-L-GN-M-20-30</t>
-  </si>
-  <si>
-    <t>S126</t>
-  </si>
-  <si>
-    <t>16s-L-GN-M-20-31</t>
-  </si>
-  <si>
-    <t>S127</t>
-  </si>
-  <si>
-    <t>16s-L-GN-M-20-32</t>
-  </si>
-  <si>
-    <t>S128</t>
-  </si>
-  <si>
-    <t>16s-L-GN-M-20-52</t>
-  </si>
-  <si>
-    <t>S148</t>
-  </si>
-  <si>
-    <t>16s-L-GN-M-20-53</t>
-  </si>
-  <si>
-    <t>S149</t>
-  </si>
-  <si>
-    <t>16s-L-GN-M-20-54</t>
-  </si>
-  <si>
-    <t>S150</t>
-  </si>
-  <si>
-    <t>16s-L-GN-M-20-78</t>
-  </si>
-  <si>
-    <t>S174</t>
-  </si>
-  <si>
-    <t>16s-L-GN-M-20-79</t>
-  </si>
-  <si>
-    <t>S175</t>
-  </si>
-  <si>
-    <t>16s-L-GN-M-20-80</t>
-  </si>
-  <si>
-    <t>S176</t>
-  </si>
-  <si>
-    <t>16s-L-GN-M-20-8</t>
-  </si>
-  <si>
-    <t>S104</t>
-  </si>
-  <si>
-    <t>16s-L-GN-M-20-9</t>
-  </si>
-  <si>
-    <t>S105</t>
-  </si>
-  <si>
-    <t>16s-L-GN-M-40-11</t>
-  </si>
-  <si>
-    <t>S107</t>
-  </si>
-  <si>
-    <t>16s-L-GN-M-40-12</t>
-  </si>
-  <si>
-    <t>S108</t>
-  </si>
-  <si>
-    <t>16s-L-GN-M-40-13</t>
-  </si>
-  <si>
-    <t>S109</t>
-  </si>
-  <si>
-    <t>16s-L-GN-M-40-33</t>
-  </si>
-  <si>
-    <t>S129</t>
-  </si>
-  <si>
-    <t>16s-L-GN-M-40-34</t>
-  </si>
-  <si>
-    <t>S130</t>
-  </si>
-  <si>
-    <t>16s-L-GN-M-40-35</t>
-  </si>
-  <si>
-    <t>S131</t>
-  </si>
-  <si>
-    <t>16s-L-GN-M-40-55</t>
-  </si>
-  <si>
-    <t>S151</t>
-  </si>
-  <si>
-    <t>16s-L-GN-M-40-56</t>
-  </si>
-  <si>
-    <t>S152</t>
-  </si>
-  <si>
-    <t>16s-L-GN-M-40-57</t>
-  </si>
-  <si>
-    <t>S153</t>
-  </si>
-  <si>
-    <t>16s-L-GN-M-40-81</t>
-  </si>
-  <si>
-    <t>S177</t>
-  </si>
-  <si>
-    <t>16s-L-GN-M-40-82</t>
-  </si>
-  <si>
-    <t>S178</t>
-  </si>
-  <si>
-    <t>16s-L-GN-M-40-83</t>
-  </si>
-  <si>
-    <t>S179</t>
-  </si>
-  <si>
-    <t>16s-L-GN-MS-20-103</t>
-  </si>
-  <si>
-    <t>S199</t>
-  </si>
-  <si>
-    <t>16s-L-GN-MS-20-104</t>
-  </si>
-  <si>
-    <t>S200</t>
-  </si>
-  <si>
-    <t>16s-L-GN-MS-20-14</t>
-  </si>
-  <si>
-    <t>S110</t>
-  </si>
-  <si>
-    <t>16s-L-GN-MS-20-36</t>
-  </si>
-  <si>
-    <t>S132</t>
-  </si>
-  <si>
-    <t>16s-L-GN-MS-20-37</t>
-  </si>
-  <si>
-    <t>S133</t>
-  </si>
-  <si>
-    <t>16s-L-GN-MS-20-58</t>
-  </si>
-  <si>
-    <t>S154</t>
-  </si>
-  <si>
-    <t>16s-L-GN-MS-20-59</t>
-  </si>
-  <si>
-    <t>S155</t>
-  </si>
-  <si>
-    <t>16s-L-GN-MS-20-60</t>
-  </si>
-  <si>
-    <t>S156</t>
-  </si>
-  <si>
-    <t>16s-L-GN-MS-20-84</t>
-  </si>
-  <si>
-    <t>S180</t>
-  </si>
-  <si>
-    <t>16s-L-GN-MS-20-85</t>
-  </si>
-  <si>
-    <t>S181</t>
-  </si>
-  <si>
-    <t>16s-L-GN-MS-20-86</t>
-  </si>
-  <si>
-    <t>S182</t>
-  </si>
-  <si>
-    <t>16s-L-GN-MS-40-105</t>
-  </si>
-  <si>
-    <t>S201</t>
-  </si>
-  <si>
-    <t>16s-L-GN-MS-40-106</t>
-  </si>
-  <si>
-    <t>S202</t>
-  </si>
-  <si>
-    <t>16s-L-GN-MS-40-107</t>
-  </si>
-  <si>
-    <t>S203</t>
-  </si>
-  <si>
-    <t>16s-L-GN-MS-40-15</t>
-  </si>
-  <si>
-    <t>S111</t>
-  </si>
-  <si>
-    <t>16s-L-GN-MS-40-16</t>
-  </si>
-  <si>
-    <t>S112</t>
-  </si>
-  <si>
-    <t>16s-L-GN-MS-40-17</t>
-  </si>
-  <si>
-    <t>S113</t>
-  </si>
-  <si>
-    <t>16s-L-GN-MS-40-38</t>
-  </si>
-  <si>
-    <t>S134</t>
-  </si>
-  <si>
-    <t>16s-L-GN-MS-40-39</t>
-  </si>
-  <si>
-    <t>S135</t>
-  </si>
-  <si>
-    <t>16s-L-GN-MS-40-40</t>
-  </si>
-  <si>
-    <t>S136</t>
-  </si>
-  <si>
-    <t>16s-L-GN-MS-40-61</t>
-  </si>
-  <si>
-    <t>S157</t>
-  </si>
-  <si>
-    <t>16s-L-GN-MS-40-62</t>
-  </si>
-  <si>
-    <t>S158</t>
-  </si>
-  <si>
-    <t>16s-L-GN-MS-40-63</t>
-  </si>
-  <si>
-    <t>S159</t>
-  </si>
-  <si>
-    <t>16s-L-GN-MS-40-87</t>
-  </si>
-  <si>
-    <t>S183</t>
-  </si>
-  <si>
-    <t>16s-L-GN-MS-40-88</t>
-  </si>
-  <si>
-    <t>S184</t>
-  </si>
-  <si>
-    <t>16s-L-GN-MS-40-89</t>
-  </si>
-  <si>
-    <t>S185</t>
   </si>
   <si>
     <t>16s-I-G-M-20-108_S204_L001</t>
@@ -2287,7 +1008,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2421,12 +1142,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FFFC2118"/>
-      <name val="Monaco"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="13"/>
@@ -2777,13 +1492,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3142,7 +1856,7 @@
   <dimension ref="A1:K142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3163,13 +1877,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>722</v>
+        <v>296</v>
       </c>
       <c r="C1" t="s">
         <v>150</v>
       </c>
       <c r="D1" t="s">
-        <v>742</v>
+        <v>316</v>
       </c>
       <c r="E1" t="s">
         <v>151</v>
@@ -3184,18 +1898,18 @@
         <v>149</v>
       </c>
       <c r="I1" t="s">
-        <v>723</v>
+        <v>297</v>
       </c>
       <c r="J1" t="s">
         <v>154</v>
       </c>
       <c r="K1" t="s">
-        <v>743</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>581</v>
+      <c r="A2" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="B2" t="s">
         <v>104</v>
@@ -3219,19 +1933,19 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>724</v>
+        <v>298</v>
       </c>
       <c r="J2" s="1" t="str">
         <f t="shared" ref="J2:J20" si="0">CONCATENATE(E2,"-",F2,"-",G2)</f>
         <v>G-Intraspecific-20</v>
       </c>
       <c r="K2" t="s">
-        <v>744</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>582</v>
+      <c r="A3" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="B3" t="s">
         <v>113</v>
@@ -3255,19 +1969,19 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>724</v>
+        <v>298</v>
       </c>
       <c r="J3" s="1" t="str">
         <f t="shared" si="0"/>
         <v>G-Intraspecific-20</v>
       </c>
       <c r="K3" t="s">
-        <v>744</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>583</v>
+      <c r="A4" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="B4" t="s">
         <v>121</v>
@@ -3291,19 +2005,19 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>724</v>
+        <v>298</v>
       </c>
       <c r="J4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>G-Intraspecific-20</v>
       </c>
       <c r="K4" t="s">
-        <v>744</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>584</v>
+      <c r="A5" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="B5" t="s">
         <v>128</v>
@@ -3327,19 +2041,19 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>724</v>
+        <v>298</v>
       </c>
       <c r="J5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>G-Intraspecific-20</v>
       </c>
       <c r="K5" t="s">
-        <v>744</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>585</v>
+      <c r="A6" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="B6" t="s">
         <v>136</v>
@@ -3363,19 +2077,19 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>724</v>
+        <v>298</v>
       </c>
       <c r="J6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>G-Intraspecific-20</v>
       </c>
       <c r="K6" t="s">
-        <v>744</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>586</v>
+      <c r="A7" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="B7" t="s">
         <v>106</v>
@@ -3399,19 +2113,19 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>725</v>
+        <v>299</v>
       </c>
       <c r="J7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>G-Intraspecific-40</v>
       </c>
       <c r="K7" t="s">
-        <v>744</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>587</v>
+      <c r="A8" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="B8" t="s">
         <v>114</v>
@@ -3435,19 +2149,19 @@
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>725</v>
+        <v>299</v>
       </c>
       <c r="J8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>G-Intraspecific-40</v>
       </c>
       <c r="K8" t="s">
-        <v>744</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>588</v>
+      <c r="A9" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="B9" t="s">
         <v>122</v>
@@ -3471,19 +2185,19 @@
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>725</v>
+        <v>299</v>
       </c>
       <c r="J9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>G-Intraspecific-40</v>
       </c>
       <c r="K9" t="s">
-        <v>744</v>
+        <v>318</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>589</v>
+      <c r="A10" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="B10" t="s">
         <v>129</v>
@@ -3507,19 +2221,19 @@
         <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>725</v>
+        <v>299</v>
       </c>
       <c r="J10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>G-Intraspecific-40</v>
       </c>
       <c r="K10" t="s">
-        <v>744</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>590</v>
+      <c r="A11" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="B11" t="s">
         <v>137</v>
@@ -3543,19 +2257,19 @@
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>725</v>
+        <v>299</v>
       </c>
       <c r="J11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>G-Intraspecific-40</v>
       </c>
       <c r="K11" t="s">
-        <v>744</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>591</v>
+      <c r="A12" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="B12" t="s">
         <v>107</v>
@@ -3579,19 +2293,19 @@
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>726</v>
+        <v>300</v>
       </c>
       <c r="J12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>G-Interspecific-20</v>
       </c>
       <c r="K12" t="s">
-        <v>744</v>
+        <v>318</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>592</v>
+      <c r="A13" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="B13" t="s">
         <v>115</v>
@@ -3615,19 +2329,19 @@
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>726</v>
+        <v>300</v>
       </c>
       <c r="J13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>G-Interspecific-20</v>
       </c>
       <c r="K13" t="s">
-        <v>744</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>593</v>
+      <c r="A14" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="B14" t="s">
         <v>123</v>
@@ -3651,19 +2365,19 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>726</v>
+        <v>300</v>
       </c>
       <c r="J14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>G-Interspecific-20</v>
       </c>
       <c r="K14" t="s">
-        <v>744</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>594</v>
+      <c r="A15" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="B15" t="s">
         <v>130</v>
@@ -3687,19 +2401,19 @@
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>726</v>
+        <v>300</v>
       </c>
       <c r="J15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>G-Interspecific-20</v>
       </c>
       <c r="K15" t="s">
-        <v>744</v>
+        <v>318</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>595</v>
+      <c r="A16" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="B16" t="s">
         <v>138</v>
@@ -3723,19 +2437,19 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>726</v>
+        <v>300</v>
       </c>
       <c r="J16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>G-Interspecific-20</v>
       </c>
       <c r="K16" t="s">
-        <v>744</v>
+        <v>318</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>596</v>
+      <c r="A17" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="B17" t="s">
         <v>108</v>
@@ -3759,19 +2473,19 @@
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>727</v>
+        <v>301</v>
       </c>
       <c r="J17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>G-Interspecific-40</v>
       </c>
       <c r="K17" t="s">
-        <v>744</v>
+        <v>318</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>597</v>
+      <c r="A18" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="B18" t="s">
         <v>116</v>
@@ -3795,19 +2509,19 @@
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>727</v>
+        <v>301</v>
       </c>
       <c r="J18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>G-Interspecific-40</v>
       </c>
       <c r="K18" t="s">
-        <v>744</v>
+        <v>318</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>598</v>
+      <c r="A19" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="B19" t="s">
         <v>131</v>
@@ -3831,19 +2545,19 @@
         <v>2</v>
       </c>
       <c r="I19" t="s">
-        <v>727</v>
+        <v>301</v>
       </c>
       <c r="J19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>G-Interspecific-40</v>
       </c>
       <c r="K19" t="s">
-        <v>744</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>599</v>
+      <c r="A20" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="B20" t="s">
         <v>139</v>
@@ -3867,19 +2581,19 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>727</v>
+        <v>301</v>
       </c>
       <c r="J20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>G-Interspecific-40</v>
       </c>
       <c r="K20" t="s">
-        <v>744</v>
+        <v>318</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>600</v>
+      <c r="A21" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="B21" t="s">
         <v>143</v>
@@ -3888,33 +2602,33 @@
         <v>105</v>
       </c>
       <c r="D21" t="s">
-        <v>748</v>
+        <v>322</v>
       </c>
       <c r="E21" t="s">
         <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>748</v>
+        <v>322</v>
       </c>
       <c r="G21" t="s">
-        <v>748</v>
+        <v>322</v>
       </c>
       <c r="H21">
         <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>728</v>
+        <v>302</v>
       </c>
       <c r="J21" t="s">
-        <v>748</v>
+        <v>322</v>
       </c>
       <c r="K21" t="s">
-        <v>744</v>
+        <v>318</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>601</v>
+      <c r="A22" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="B22" t="s">
         <v>144</v>
@@ -3923,33 +2637,33 @@
         <v>105</v>
       </c>
       <c r="D22" t="s">
-        <v>748</v>
+        <v>322</v>
       </c>
       <c r="E22" t="s">
         <v>3</v>
       </c>
       <c r="F22" t="s">
-        <v>748</v>
+        <v>322</v>
       </c>
       <c r="G22" t="s">
-        <v>748</v>
+        <v>322</v>
       </c>
       <c r="H22">
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>728</v>
+        <v>302</v>
       </c>
       <c r="J22" t="s">
-        <v>748</v>
+        <v>322</v>
       </c>
       <c r="K22" t="s">
-        <v>744</v>
+        <v>318</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>602</v>
+      <c r="A23" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="B23" t="s">
         <v>145</v>
@@ -3958,33 +2672,33 @@
         <v>105</v>
       </c>
       <c r="D23" t="s">
-        <v>748</v>
+        <v>322</v>
       </c>
       <c r="E23" t="s">
         <v>3</v>
       </c>
       <c r="F23" t="s">
-        <v>748</v>
+        <v>322</v>
       </c>
       <c r="G23" t="s">
-        <v>748</v>
+        <v>322</v>
       </c>
       <c r="H23">
         <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>728</v>
+        <v>302</v>
       </c>
       <c r="J23" t="s">
-        <v>748</v>
+        <v>322</v>
       </c>
       <c r="K23" t="s">
-        <v>744</v>
+        <v>318</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>603</v>
+      <c r="A24" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="B24" t="s">
         <v>109</v>
@@ -4008,19 +2722,19 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>729</v>
+        <v>303</v>
       </c>
       <c r="J24" s="1" t="str">
         <f t="shared" ref="J24:J42" si="1">CONCATENATE(E24,"-",F24,"-",G24)</f>
         <v>GN-Intraspecific-20</v>
       </c>
       <c r="K24" t="s">
-        <v>745</v>
+        <v>319</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>604</v>
+      <c r="A25" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="B25" t="s">
         <v>117</v>
@@ -4044,19 +2758,19 @@
         <v>2</v>
       </c>
       <c r="I25" t="s">
-        <v>729</v>
+        <v>303</v>
       </c>
       <c r="J25" s="1" t="str">
         <f t="shared" si="1"/>
         <v>GN-Intraspecific-20</v>
       </c>
       <c r="K25" t="s">
-        <v>745</v>
+        <v>319</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>605</v>
+      <c r="A26" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="B26" t="s">
         <v>124</v>
@@ -4080,19 +2794,19 @@
         <v>2</v>
       </c>
       <c r="I26" t="s">
-        <v>729</v>
+        <v>303</v>
       </c>
       <c r="J26" s="1" t="str">
         <f t="shared" si="1"/>
         <v>GN-Intraspecific-20</v>
       </c>
       <c r="K26" t="s">
-        <v>745</v>
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>606</v>
+      <c r="A27" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="B27" t="s">
         <v>132</v>
@@ -4116,19 +2830,19 @@
         <v>2</v>
       </c>
       <c r="I27" t="s">
-        <v>729</v>
+        <v>303</v>
       </c>
       <c r="J27" s="1" t="str">
         <f t="shared" si="1"/>
         <v>GN-Intraspecific-20</v>
       </c>
       <c r="K27" t="s">
-        <v>745</v>
+        <v>319</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>607</v>
+      <c r="A28" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="B28" t="s">
         <v>140</v>
@@ -4152,19 +2866,19 @@
         <v>2</v>
       </c>
       <c r="I28" t="s">
-        <v>729</v>
+        <v>303</v>
       </c>
       <c r="J28" s="1" t="str">
         <f t="shared" si="1"/>
         <v>GN-Intraspecific-20</v>
       </c>
       <c r="K28" t="s">
-        <v>745</v>
+        <v>319</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>608</v>
+      <c r="A29" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="B29" t="s">
         <v>110</v>
@@ -4188,19 +2902,19 @@
         <v>2</v>
       </c>
       <c r="I29" t="s">
-        <v>730</v>
+        <v>304</v>
       </c>
       <c r="J29" s="1" t="str">
         <f t="shared" si="1"/>
         <v>GN-Intraspecific-40</v>
       </c>
       <c r="K29" t="s">
-        <v>745</v>
+        <v>319</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>609</v>
+      <c r="A30" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="B30" t="s">
         <v>118</v>
@@ -4224,19 +2938,19 @@
         <v>2</v>
       </c>
       <c r="I30" t="s">
-        <v>730</v>
+        <v>304</v>
       </c>
       <c r="J30" s="1" t="str">
         <f t="shared" si="1"/>
         <v>GN-Intraspecific-40</v>
       </c>
       <c r="K30" t="s">
-        <v>745</v>
+        <v>319</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>610</v>
+      <c r="A31" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="B31" t="s">
         <v>125</v>
@@ -4260,19 +2974,19 @@
         <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>730</v>
+        <v>304</v>
       </c>
       <c r="J31" s="1" t="str">
         <f t="shared" si="1"/>
         <v>GN-Intraspecific-40</v>
       </c>
       <c r="K31" t="s">
-        <v>745</v>
+        <v>319</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>611</v>
+      <c r="A32" s="2" t="s">
+        <v>185</v>
       </c>
       <c r="B32" t="s">
         <v>133</v>
@@ -4296,19 +3010,19 @@
         <v>2</v>
       </c>
       <c r="I32" t="s">
-        <v>730</v>
+        <v>304</v>
       </c>
       <c r="J32" s="1" t="str">
         <f t="shared" si="1"/>
         <v>GN-Intraspecific-40</v>
       </c>
       <c r="K32" t="s">
-        <v>745</v>
+        <v>319</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>612</v>
+      <c r="A33" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="B33" t="s">
         <v>111</v>
@@ -4332,19 +3046,19 @@
         <v>2</v>
       </c>
       <c r="I33" t="s">
-        <v>731</v>
+        <v>305</v>
       </c>
       <c r="J33" s="1" t="str">
         <f t="shared" si="1"/>
         <v>GN-Interspecific-20</v>
       </c>
       <c r="K33" t="s">
-        <v>745</v>
+        <v>319</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>613</v>
+      <c r="A34" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="B34" t="s">
         <v>119</v>
@@ -4368,19 +3082,19 @@
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>731</v>
+        <v>305</v>
       </c>
       <c r="J34" s="1" t="str">
         <f t="shared" si="1"/>
         <v>GN-Interspecific-20</v>
       </c>
       <c r="K34" t="s">
-        <v>745</v>
+        <v>319</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>614</v>
+      <c r="A35" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="B35" t="s">
         <v>126</v>
@@ -4404,19 +3118,19 @@
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>731</v>
+        <v>305</v>
       </c>
       <c r="J35" s="1" t="str">
         <f t="shared" si="1"/>
         <v>GN-Interspecific-20</v>
       </c>
       <c r="K35" t="s">
-        <v>745</v>
+        <v>319</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>615</v>
+      <c r="A36" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="B36" t="s">
         <v>134</v>
@@ -4440,19 +3154,19 @@
         <v>2</v>
       </c>
       <c r="I36" t="s">
-        <v>731</v>
+        <v>305</v>
       </c>
       <c r="J36" s="1" t="str">
         <f t="shared" si="1"/>
         <v>GN-Interspecific-20</v>
       </c>
       <c r="K36" t="s">
-        <v>745</v>
+        <v>319</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>616</v>
+      <c r="A37" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="B37" t="s">
         <v>141</v>
@@ -4476,19 +3190,19 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>731</v>
+        <v>305</v>
       </c>
       <c r="J37" s="1" t="str">
         <f t="shared" si="1"/>
         <v>GN-Interspecific-20</v>
       </c>
       <c r="K37" t="s">
-        <v>745</v>
+        <v>319</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>617</v>
+      <c r="A38" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="B38" t="s">
         <v>112</v>
@@ -4512,19 +3226,19 @@
         <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>732</v>
+        <v>306</v>
       </c>
       <c r="J38" s="1" t="str">
         <f t="shared" si="1"/>
         <v>GN-Interspecific-40</v>
       </c>
       <c r="K38" t="s">
-        <v>745</v>
+        <v>319</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>618</v>
+      <c r="A39" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="B39" t="s">
         <v>120</v>
@@ -4548,19 +3262,19 @@
         <v>2</v>
       </c>
       <c r="I39" t="s">
-        <v>732</v>
+        <v>306</v>
       </c>
       <c r="J39" s="1" t="str">
         <f t="shared" si="1"/>
         <v>GN-Interspecific-40</v>
       </c>
       <c r="K39" t="s">
-        <v>745</v>
+        <v>319</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>619</v>
+      <c r="A40" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="B40" t="s">
         <v>127</v>
@@ -4584,19 +3298,19 @@
         <v>2</v>
       </c>
       <c r="I40" t="s">
-        <v>732</v>
+        <v>306</v>
       </c>
       <c r="J40" s="1" t="str">
         <f t="shared" si="1"/>
         <v>GN-Interspecific-40</v>
       </c>
       <c r="K40" t="s">
-        <v>745</v>
+        <v>319</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
-        <v>620</v>
+      <c r="A41" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="B41" t="s">
         <v>135</v>
@@ -4620,19 +3334,19 @@
         <v>2</v>
       </c>
       <c r="I41" t="s">
-        <v>732</v>
+        <v>306</v>
       </c>
       <c r="J41" s="1" t="str">
         <f t="shared" si="1"/>
         <v>GN-Interspecific-40</v>
       </c>
       <c r="K41" t="s">
-        <v>745</v>
+        <v>319</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>621</v>
+      <c r="A42" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="B42" t="s">
         <v>142</v>
@@ -4656,19 +3370,19 @@
         <v>2</v>
       </c>
       <c r="I42" t="s">
-        <v>732</v>
+        <v>306</v>
       </c>
       <c r="J42" s="1" t="str">
         <f t="shared" si="1"/>
         <v>GN-Interspecific-40</v>
       </c>
       <c r="K42" t="s">
-        <v>745</v>
+        <v>319</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>622</v>
+      <c r="A43" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="B43" t="s">
         <v>146</v>
@@ -4677,33 +3391,33 @@
         <v>105</v>
       </c>
       <c r="D43" t="s">
-        <v>748</v>
+        <v>322</v>
       </c>
       <c r="E43" t="s">
         <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>748</v>
+        <v>322</v>
       </c>
       <c r="G43" t="s">
-        <v>748</v>
+        <v>322</v>
       </c>
       <c r="H43">
         <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>733</v>
+        <v>307</v>
       </c>
       <c r="J43" t="s">
-        <v>748</v>
+        <v>322</v>
       </c>
       <c r="K43" t="s">
-        <v>745</v>
+        <v>319</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
-        <v>623</v>
+      <c r="A44" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="B44" t="s">
         <v>147</v>
@@ -4712,33 +3426,33 @@
         <v>105</v>
       </c>
       <c r="D44" t="s">
-        <v>748</v>
+        <v>322</v>
       </c>
       <c r="E44" t="s">
         <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>748</v>
+        <v>322</v>
       </c>
       <c r="G44" t="s">
-        <v>748</v>
+        <v>322</v>
       </c>
       <c r="H44">
         <v>2</v>
       </c>
       <c r="I44" t="s">
-        <v>733</v>
+        <v>307</v>
       </c>
       <c r="J44" t="s">
-        <v>748</v>
+        <v>322</v>
       </c>
       <c r="K44" t="s">
-        <v>745</v>
+        <v>319</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
-        <v>624</v>
+      <c r="A45" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="B45" t="s">
         <v>148</v>
@@ -4747,33 +3461,33 @@
         <v>105</v>
       </c>
       <c r="D45" t="s">
-        <v>748</v>
+        <v>322</v>
       </c>
       <c r="E45" t="s">
         <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>748</v>
+        <v>322</v>
       </c>
       <c r="G45" t="s">
-        <v>748</v>
+        <v>322</v>
       </c>
       <c r="H45">
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>733</v>
+        <v>307</v>
       </c>
       <c r="J45" t="s">
-        <v>748</v>
+        <v>322</v>
       </c>
       <c r="K45" t="s">
-        <v>745</v>
+        <v>319</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
-        <v>625</v>
+      <c r="A46" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="B46" t="s">
         <v>1</v>
@@ -4797,19 +3511,19 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>734</v>
+        <v>308</v>
       </c>
       <c r="J46" s="1" t="str">
         <f t="shared" ref="J46:J77" si="2">CONCATENATE(E46,"-",F46,"-",G46)</f>
         <v>G-Intraspecific-20</v>
       </c>
       <c r="K46" t="s">
-        <v>746</v>
+        <v>320</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
-        <v>626</v>
+      <c r="A47" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="B47" t="s">
         <v>22</v>
@@ -4833,19 +3547,19 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>734</v>
+        <v>308</v>
       </c>
       <c r="J47" s="1" t="str">
         <f t="shared" si="2"/>
         <v>G-Intraspecific-20</v>
       </c>
       <c r="K47" t="s">
-        <v>746</v>
+        <v>320</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
-        <v>627</v>
+      <c r="A48" s="2" t="s">
+        <v>201</v>
       </c>
       <c r="B48" t="s">
         <v>23</v>
@@ -4869,19 +3583,19 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>734</v>
+        <v>308</v>
       </c>
       <c r="J48" s="1" t="str">
         <f t="shared" si="2"/>
         <v>G-Intraspecific-20</v>
       </c>
       <c r="K48" t="s">
-        <v>746</v>
+        <v>320</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
-        <v>628</v>
+      <c r="A49" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="B49" t="s">
         <v>44</v>
@@ -4905,19 +3619,19 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>734</v>
+        <v>308</v>
       </c>
       <c r="J49" s="1" t="str">
         <f t="shared" si="2"/>
         <v>G-Intraspecific-20</v>
       </c>
       <c r="K49" t="s">
-        <v>746</v>
+        <v>320</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
-        <v>629</v>
+      <c r="A50" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="B50" t="s">
         <v>45</v>
@@ -4941,19 +3655,19 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>734</v>
+        <v>308</v>
       </c>
       <c r="J50" s="1" t="str">
         <f t="shared" si="2"/>
         <v>G-Intraspecific-20</v>
       </c>
       <c r="K50" t="s">
-        <v>746</v>
+        <v>320</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
-        <v>630</v>
+      <c r="A51" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="B51" t="s">
         <v>46</v>
@@ -4977,19 +3691,19 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>734</v>
+        <v>308</v>
       </c>
       <c r="J51" s="1" t="str">
         <f t="shared" si="2"/>
         <v>G-Intraspecific-20</v>
       </c>
       <c r="K51" t="s">
-        <v>746</v>
+        <v>320</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
-        <v>631</v>
+      <c r="A52" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="B52" t="s">
         <v>64</v>
@@ -5013,19 +3727,19 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>734</v>
+        <v>308</v>
       </c>
       <c r="J52" s="1" t="str">
         <f t="shared" si="2"/>
         <v>G-Intraspecific-20</v>
       </c>
       <c r="K52" t="s">
-        <v>746</v>
+        <v>320</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
-        <v>632</v>
+      <c r="A53" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="B53" t="s">
         <v>65</v>
@@ -5049,19 +3763,19 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>734</v>
+        <v>308</v>
       </c>
       <c r="J53" s="1" t="str">
         <f t="shared" si="2"/>
         <v>G-Intraspecific-20</v>
       </c>
       <c r="K53" t="s">
-        <v>746</v>
+        <v>320</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
-        <v>633</v>
+      <c r="A54" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="B54" t="s">
         <v>66</v>
@@ -5085,19 +3799,19 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>734</v>
+        <v>308</v>
       </c>
       <c r="J54" s="1" t="str">
         <f t="shared" si="2"/>
         <v>G-Intraspecific-20</v>
       </c>
       <c r="K54" t="s">
-        <v>746</v>
+        <v>320</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
-        <v>634</v>
+      <c r="A55" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="B55" t="s">
         <v>88</v>
@@ -5121,19 +3835,19 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>734</v>
+        <v>308</v>
       </c>
       <c r="J55" s="1" t="str">
         <f t="shared" si="2"/>
         <v>G-Intraspecific-20</v>
       </c>
       <c r="K55" t="s">
-        <v>746</v>
+        <v>320</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
-        <v>635</v>
+      <c r="A56" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="B56" t="s">
         <v>5</v>
@@ -5157,19 +3871,19 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>735</v>
+        <v>309</v>
       </c>
       <c r="J56" s="1" t="str">
         <f t="shared" si="2"/>
         <v>G-Intraspecific-40</v>
       </c>
       <c r="K56" t="s">
-        <v>746</v>
+        <v>320</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
-        <v>636</v>
+      <c r="A57" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="B57" t="s">
         <v>24</v>
@@ -5193,19 +3907,19 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>735</v>
+        <v>309</v>
       </c>
       <c r="J57" s="1" t="str">
         <f t="shared" si="2"/>
         <v>G-Intraspecific-40</v>
       </c>
       <c r="K57" t="s">
-        <v>746</v>
+        <v>320</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
-        <v>637</v>
+      <c r="A58" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="B58" t="s">
         <v>26</v>
@@ -5229,19 +3943,19 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>735</v>
+        <v>309</v>
       </c>
       <c r="J58" s="1" t="str">
         <f t="shared" si="2"/>
         <v>G-Intraspecific-40</v>
       </c>
       <c r="K58" t="s">
-        <v>746</v>
+        <v>320</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
-        <v>638</v>
+      <c r="A59" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="B59" t="s">
         <v>27</v>
@@ -5265,19 +3979,19 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>735</v>
+        <v>309</v>
       </c>
       <c r="J59" s="1" t="str">
         <f t="shared" si="2"/>
         <v>G-Intraspecific-40</v>
       </c>
       <c r="K59" t="s">
-        <v>746</v>
+        <v>320</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="3" t="s">
-        <v>639</v>
+      <c r="A60" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="B60" t="s">
         <v>6</v>
@@ -5301,19 +4015,19 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>735</v>
+        <v>309</v>
       </c>
       <c r="J60" s="1" t="str">
         <f t="shared" si="2"/>
         <v>G-Intraspecific-40</v>
       </c>
       <c r="K60" t="s">
-        <v>746</v>
+        <v>320</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
-        <v>640</v>
+      <c r="A61" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="B61" t="s">
         <v>7</v>
@@ -5337,19 +4051,19 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>735</v>
+        <v>309</v>
       </c>
       <c r="J61" s="1" t="str">
         <f t="shared" si="2"/>
         <v>G-Intraspecific-40</v>
       </c>
       <c r="K61" t="s">
-        <v>746</v>
+        <v>320</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
-        <v>641</v>
+      <c r="A62" s="2" t="s">
+        <v>215</v>
       </c>
       <c r="B62" t="s">
         <v>47</v>
@@ -5373,19 +4087,19 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>735</v>
+        <v>309</v>
       </c>
       <c r="J62" s="1" t="str">
         <f t="shared" si="2"/>
         <v>G-Intraspecific-40</v>
       </c>
       <c r="K62" t="s">
-        <v>746</v>
+        <v>320</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
-        <v>642</v>
+      <c r="A63" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="B63" t="s">
         <v>48</v>
@@ -5409,19 +4123,19 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>735</v>
+        <v>309</v>
       </c>
       <c r="J63" s="1" t="str">
         <f t="shared" si="2"/>
         <v>G-Intraspecific-40</v>
       </c>
       <c r="K63" t="s">
-        <v>746</v>
+        <v>320</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="3" t="s">
-        <v>643</v>
+      <c r="A64" s="2" t="s">
+        <v>217</v>
       </c>
       <c r="B64" t="s">
         <v>49</v>
@@ -5445,19 +4159,19 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>735</v>
+        <v>309</v>
       </c>
       <c r="J64" s="1" t="str">
         <f t="shared" si="2"/>
         <v>G-Intraspecific-40</v>
       </c>
       <c r="K64" t="s">
-        <v>746</v>
+        <v>320</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="3" t="s">
-        <v>644</v>
+      <c r="A65" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="B65" t="s">
         <v>67</v>
@@ -5481,19 +4195,19 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>735</v>
+        <v>309</v>
       </c>
       <c r="J65" s="1" t="str">
         <f t="shared" si="2"/>
         <v>G-Intraspecific-40</v>
       </c>
       <c r="K65" t="s">
-        <v>746</v>
+        <v>320</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="3" t="s">
-        <v>645</v>
+      <c r="A66" s="2" t="s">
+        <v>219</v>
       </c>
       <c r="B66" t="s">
         <v>68</v>
@@ -5517,19 +4231,19 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>735</v>
+        <v>309</v>
       </c>
       <c r="J66" s="1" t="str">
         <f t="shared" si="2"/>
         <v>G-Intraspecific-40</v>
       </c>
       <c r="K66" t="s">
-        <v>746</v>
+        <v>320</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="3" t="s">
-        <v>646</v>
+      <c r="A67" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="B67" t="s">
         <v>69</v>
@@ -5553,19 +4267,19 @@
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>735</v>
+        <v>309</v>
       </c>
       <c r="J67" s="1" t="str">
         <f t="shared" si="2"/>
         <v>G-Intraspecific-40</v>
       </c>
       <c r="K67" t="s">
-        <v>746</v>
+        <v>320</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="3" t="s">
-        <v>647</v>
+      <c r="A68" s="2" t="s">
+        <v>221</v>
       </c>
       <c r="B68" t="s">
         <v>89</v>
@@ -5589,19 +4303,19 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>735</v>
+        <v>309</v>
       </c>
       <c r="J68" s="1" t="str">
         <f t="shared" si="2"/>
         <v>G-Intraspecific-40</v>
       </c>
       <c r="K68" t="s">
-        <v>746</v>
+        <v>320</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A69" s="3" t="s">
-        <v>648</v>
+      <c r="A69" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="B69" t="s">
         <v>90</v>
@@ -5625,19 +4339,19 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>735</v>
+        <v>309</v>
       </c>
       <c r="J69" s="1" t="str">
         <f t="shared" si="2"/>
         <v>G-Intraspecific-40</v>
       </c>
       <c r="K69" t="s">
-        <v>746</v>
+        <v>320</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A70" s="3" t="s">
-        <v>649</v>
+      <c r="A70" s="2" t="s">
+        <v>223</v>
       </c>
       <c r="B70" t="s">
         <v>28</v>
@@ -5661,19 +4375,19 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>736</v>
+        <v>310</v>
       </c>
       <c r="J70" s="1" t="str">
         <f t="shared" si="2"/>
         <v>G-Interspecific-20</v>
       </c>
       <c r="K70" t="s">
-        <v>746</v>
+        <v>320</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A71" s="3" t="s">
-        <v>650</v>
+      <c r="A71" s="2" t="s">
+        <v>224</v>
       </c>
       <c r="B71" t="s">
         <v>29</v>
@@ -5697,19 +4411,19 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>736</v>
+        <v>310</v>
       </c>
       <c r="J71" s="1" t="str">
         <f t="shared" si="2"/>
         <v>G-Interspecific-20</v>
       </c>
       <c r="K71" t="s">
-        <v>746</v>
+        <v>320</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A72" s="3" t="s">
-        <v>651</v>
+      <c r="A72" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="B72" t="s">
         <v>50</v>
@@ -5733,19 +4447,19 @@
         <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>736</v>
+        <v>310</v>
       </c>
       <c r="J72" s="1" t="str">
         <f t="shared" si="2"/>
         <v>G-Interspecific-20</v>
       </c>
       <c r="K72" t="s">
-        <v>746</v>
+        <v>320</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="s">
-        <v>652</v>
+      <c r="A73" s="2" t="s">
+        <v>226</v>
       </c>
       <c r="B73" t="s">
         <v>51</v>
@@ -5769,19 +4483,19 @@
         <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>736</v>
+        <v>310</v>
       </c>
       <c r="J73" s="1" t="str">
         <f t="shared" si="2"/>
         <v>G-Interspecific-20</v>
       </c>
       <c r="K73" t="s">
-        <v>746</v>
+        <v>320</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A74" s="3" t="s">
-        <v>653</v>
+      <c r="A74" s="2" t="s">
+        <v>227</v>
       </c>
       <c r="B74" t="s">
         <v>8</v>
@@ -5805,19 +4519,19 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>736</v>
+        <v>310</v>
       </c>
       <c r="J74" s="1" t="str">
         <f t="shared" si="2"/>
         <v>G-Interspecific-20</v>
       </c>
       <c r="K74" t="s">
-        <v>746</v>
+        <v>320</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A75" s="3" t="s">
-        <v>654</v>
+      <c r="A75" s="2" t="s">
+        <v>228</v>
       </c>
       <c r="B75" t="s">
         <v>70</v>
@@ -5841,19 +4555,19 @@
         <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>736</v>
+        <v>310</v>
       </c>
       <c r="J75" s="1" t="str">
         <f t="shared" si="2"/>
         <v>G-Interspecific-20</v>
       </c>
       <c r="K75" t="s">
-        <v>746</v>
+        <v>320</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A76" s="3" t="s">
-        <v>655</v>
+      <c r="A76" s="2" t="s">
+        <v>229</v>
       </c>
       <c r="B76" t="s">
         <v>71</v>
@@ -5877,19 +4591,19 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>736</v>
+        <v>310</v>
       </c>
       <c r="J76" s="1" t="str">
         <f t="shared" si="2"/>
         <v>G-Interspecific-20</v>
       </c>
       <c r="K76" t="s">
-        <v>746</v>
+        <v>320</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A77" s="3" t="s">
-        <v>656</v>
+      <c r="A77" s="2" t="s">
+        <v>230</v>
       </c>
       <c r="B77" t="s">
         <v>72</v>
@@ -5913,19 +4627,19 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>736</v>
+        <v>310</v>
       </c>
       <c r="J77" s="1" t="str">
         <f t="shared" si="2"/>
         <v>G-Interspecific-20</v>
       </c>
       <c r="K77" t="s">
-        <v>746</v>
+        <v>320</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A78" s="3" t="s">
-        <v>657</v>
+      <c r="A78" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="B78" t="s">
         <v>91</v>
@@ -5949,19 +4663,19 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>736</v>
+        <v>310</v>
       </c>
       <c r="J78" s="1" t="str">
         <f t="shared" ref="J78:J109" si="3">CONCATENATE(E78,"-",F78,"-",G78)</f>
         <v>G-Interspecific-20</v>
       </c>
       <c r="K78" t="s">
-        <v>746</v>
+        <v>320</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A79" s="3" t="s">
-        <v>658</v>
+      <c r="A79" s="2" t="s">
+        <v>232</v>
       </c>
       <c r="B79" t="s">
         <v>92</v>
@@ -5985,19 +4699,19 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>736</v>
+        <v>310</v>
       </c>
       <c r="J79" s="1" t="str">
         <f t="shared" si="3"/>
         <v>G-Interspecific-20</v>
       </c>
       <c r="K79" t="s">
-        <v>746</v>
+        <v>320</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A80" s="3" t="s">
-        <v>659</v>
+      <c r="A80" s="2" t="s">
+        <v>233</v>
       </c>
       <c r="B80" t="s">
         <v>30</v>
@@ -6021,19 +4735,19 @@
         <v>1</v>
       </c>
       <c r="I80" t="s">
-        <v>737</v>
+        <v>311</v>
       </c>
       <c r="J80" s="1" t="str">
         <f t="shared" si="3"/>
         <v>G-Interspecific-40</v>
       </c>
       <c r="K80" t="s">
-        <v>746</v>
+        <v>320</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A81" s="3" t="s">
-        <v>660</v>
+      <c r="A81" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="B81" t="s">
         <v>31</v>
@@ -6057,19 +4771,19 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>737</v>
+        <v>311</v>
       </c>
       <c r="J81" s="1" t="str">
         <f t="shared" si="3"/>
         <v>G-Interspecific-40</v>
       </c>
       <c r="K81" t="s">
-        <v>746</v>
+        <v>320</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A82" s="3" t="s">
-        <v>661</v>
+      <c r="A82" s="2" t="s">
+        <v>235</v>
       </c>
       <c r="B82" t="s">
         <v>32</v>
@@ -6093,19 +4807,19 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>737</v>
+        <v>311</v>
       </c>
       <c r="J82" s="1" t="str">
         <f t="shared" si="3"/>
         <v>G-Interspecific-40</v>
       </c>
       <c r="K82" t="s">
-        <v>746</v>
+        <v>320</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A83" s="3" t="s">
-        <v>662</v>
+      <c r="A83" s="2" t="s">
+        <v>236</v>
       </c>
       <c r="B83" t="s">
         <v>10</v>
@@ -6129,19 +4843,19 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>737</v>
+        <v>311</v>
       </c>
       <c r="J83" s="1" t="str">
         <f t="shared" si="3"/>
         <v>G-Interspecific-40</v>
       </c>
       <c r="K83" t="s">
-        <v>746</v>
+        <v>320</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A84" s="3" t="s">
-        <v>663</v>
+      <c r="A84" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="B84" t="s">
         <v>73</v>
@@ -6165,19 +4879,19 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>737</v>
+        <v>311</v>
       </c>
       <c r="J84" s="1" t="str">
         <f t="shared" si="3"/>
         <v>G-Interspecific-40</v>
       </c>
       <c r="K84" t="s">
-        <v>746</v>
+        <v>320</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A85" s="3" t="s">
-        <v>664</v>
+      <c r="A85" s="2" t="s">
+        <v>238</v>
       </c>
       <c r="B85" t="s">
         <v>74</v>
@@ -6201,19 +4915,19 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>737</v>
+        <v>311</v>
       </c>
       <c r="J85" s="1" t="str">
         <f t="shared" si="3"/>
         <v>G-Interspecific-40</v>
       </c>
       <c r="K85" t="s">
-        <v>746</v>
+        <v>320</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A86" s="3" t="s">
-        <v>665</v>
+      <c r="A86" s="2" t="s">
+        <v>239</v>
       </c>
       <c r="B86" t="s">
         <v>75</v>
@@ -6237,19 +4951,19 @@
         <v>1</v>
       </c>
       <c r="I86" t="s">
-        <v>737</v>
+        <v>311</v>
       </c>
       <c r="J86" s="1" t="str">
         <f t="shared" si="3"/>
         <v>G-Interspecific-40</v>
       </c>
       <c r="K86" t="s">
-        <v>746</v>
+        <v>320</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A87" s="3" t="s">
-        <v>666</v>
+      <c r="A87" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="B87" t="s">
         <v>93</v>
@@ -6273,19 +4987,19 @@
         <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>737</v>
+        <v>311</v>
       </c>
       <c r="J87" s="1" t="str">
         <f t="shared" si="3"/>
         <v>G-Interspecific-40</v>
       </c>
       <c r="K87" t="s">
-        <v>746</v>
+        <v>320</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A88" s="3" t="s">
-        <v>667</v>
+      <c r="A88" s="2" t="s">
+        <v>241</v>
       </c>
       <c r="B88" t="s">
         <v>94</v>
@@ -6309,19 +5023,19 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>737</v>
+        <v>311</v>
       </c>
       <c r="J88" s="1" t="str">
         <f t="shared" si="3"/>
         <v>G-Interspecific-40</v>
       </c>
       <c r="K88" t="s">
-        <v>746</v>
+        <v>320</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A89" s="3" t="s">
-        <v>668</v>
+      <c r="A89" s="2" t="s">
+        <v>242</v>
       </c>
       <c r="B89" t="s">
         <v>95</v>
@@ -6345,19 +5059,19 @@
         <v>2</v>
       </c>
       <c r="I89" t="s">
-        <v>737</v>
+        <v>311</v>
       </c>
       <c r="J89" s="1" t="str">
         <f t="shared" si="3"/>
         <v>G-Interspecific-40</v>
       </c>
       <c r="K89" t="s">
-        <v>746</v>
+        <v>320</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A90" s="3" t="s">
-        <v>669</v>
+      <c r="A90" s="2" t="s">
+        <v>243</v>
       </c>
       <c r="B90" t="s">
         <v>14</v>
@@ -6381,19 +5095,19 @@
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>738</v>
+        <v>312</v>
       </c>
       <c r="J90" s="1" t="str">
         <f t="shared" si="3"/>
         <v>GN-Intraspecific-20</v>
       </c>
       <c r="K90" t="s">
-        <v>747</v>
+        <v>321</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A91" s="3" t="s">
-        <v>670</v>
+      <c r="A91" s="2" t="s">
+        <v>244</v>
       </c>
       <c r="B91" t="s">
         <v>96</v>
@@ -6417,19 +5131,19 @@
         <v>2</v>
       </c>
       <c r="I91" t="s">
-        <v>738</v>
+        <v>312</v>
       </c>
       <c r="J91" s="1" t="str">
         <f t="shared" si="3"/>
         <v>GN-Intraspecific-20</v>
       </c>
       <c r="K91" t="s">
-        <v>747</v>
+        <v>321</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A92" s="3" t="s">
-        <v>671</v>
+      <c r="A92" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="B92" t="s">
         <v>97</v>
@@ -6453,19 +5167,19 @@
         <v>2</v>
       </c>
       <c r="I92" t="s">
-        <v>738</v>
+        <v>312</v>
       </c>
       <c r="J92" s="1" t="str">
         <f t="shared" si="3"/>
         <v>GN-Intraspecific-20</v>
       </c>
       <c r="K92" t="s">
-        <v>747</v>
+        <v>321</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A93" s="3" t="s">
-        <v>672</v>
+      <c r="A93" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="B93" t="s">
         <v>98</v>
@@ -6489,19 +5203,19 @@
         <v>2</v>
       </c>
       <c r="I93" t="s">
-        <v>738</v>
+        <v>312</v>
       </c>
       <c r="J93" s="1" t="str">
         <f t="shared" si="3"/>
         <v>GN-Intraspecific-20</v>
       </c>
       <c r="K93" t="s">
-        <v>747</v>
+        <v>321</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A94" s="3" t="s">
-        <v>673</v>
+      <c r="A94" s="2" t="s">
+        <v>247</v>
       </c>
       <c r="B94" t="s">
         <v>33</v>
@@ -6525,19 +5239,19 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>738</v>
+        <v>312</v>
       </c>
       <c r="J94" s="1" t="str">
         <f t="shared" si="3"/>
         <v>GN-Intraspecific-20</v>
       </c>
       <c r="K94" t="s">
-        <v>747</v>
+        <v>321</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A95" s="3" t="s">
-        <v>674</v>
+      <c r="A95" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="B95" t="s">
         <v>34</v>
@@ -6561,19 +5275,19 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>738</v>
+        <v>312</v>
       </c>
       <c r="J95" s="1" t="str">
         <f t="shared" si="3"/>
         <v>GN-Intraspecific-20</v>
       </c>
       <c r="K95" t="s">
-        <v>747</v>
+        <v>321</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A96" s="3" t="s">
-        <v>675</v>
+      <c r="A96" s="2" t="s">
+        <v>249</v>
       </c>
       <c r="B96" t="s">
         <v>35</v>
@@ -6597,19 +5311,19 @@
         <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>738</v>
+        <v>312</v>
       </c>
       <c r="J96" s="1" t="str">
         <f t="shared" si="3"/>
         <v>GN-Intraspecific-20</v>
       </c>
       <c r="K96" t="s">
-        <v>747</v>
+        <v>321</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A97" s="3" t="s">
-        <v>676</v>
+      <c r="A97" s="2" t="s">
+        <v>250</v>
       </c>
       <c r="B97" t="s">
         <v>52</v>
@@ -6633,19 +5347,19 @@
         <v>1</v>
       </c>
       <c r="I97" t="s">
-        <v>738</v>
+        <v>312</v>
       </c>
       <c r="J97" s="1" t="str">
         <f t="shared" si="3"/>
         <v>GN-Intraspecific-20</v>
       </c>
       <c r="K97" t="s">
-        <v>747</v>
+        <v>321</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A98" s="3" t="s">
-        <v>677</v>
+      <c r="A98" s="2" t="s">
+        <v>251</v>
       </c>
       <c r="B98" t="s">
         <v>53</v>
@@ -6669,19 +5383,19 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>738</v>
+        <v>312</v>
       </c>
       <c r="J98" s="1" t="str">
         <f t="shared" si="3"/>
         <v>GN-Intraspecific-20</v>
       </c>
       <c r="K98" t="s">
-        <v>747</v>
+        <v>321</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A99" s="3" t="s">
-        <v>678</v>
+      <c r="A99" s="2" t="s">
+        <v>252</v>
       </c>
       <c r="B99" t="s">
         <v>54</v>
@@ -6705,19 +5419,19 @@
         <v>1</v>
       </c>
       <c r="I99" t="s">
-        <v>738</v>
+        <v>312</v>
       </c>
       <c r="J99" s="1" t="str">
         <f t="shared" si="3"/>
         <v>GN-Intraspecific-20</v>
       </c>
       <c r="K99" t="s">
-        <v>747</v>
+        <v>321</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A100" s="3" t="s">
-        <v>679</v>
+      <c r="A100" s="2" t="s">
+        <v>253</v>
       </c>
       <c r="B100" t="s">
         <v>76</v>
@@ -6741,19 +5455,19 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>738</v>
+        <v>312</v>
       </c>
       <c r="J100" s="1" t="str">
         <f t="shared" si="3"/>
         <v>GN-Intraspecific-20</v>
       </c>
       <c r="K100" t="s">
-        <v>747</v>
+        <v>321</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A101" s="3" t="s">
-        <v>680</v>
+      <c r="A101" s="2" t="s">
+        <v>254</v>
       </c>
       <c r="B101" t="s">
         <v>77</v>
@@ -6777,19 +5491,19 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>738</v>
+        <v>312</v>
       </c>
       <c r="J101" s="1" t="str">
         <f t="shared" si="3"/>
         <v>GN-Intraspecific-20</v>
       </c>
       <c r="K101" t="s">
-        <v>747</v>
+        <v>321</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A102" s="3" t="s">
-        <v>681</v>
+      <c r="A102" s="2" t="s">
+        <v>255</v>
       </c>
       <c r="B102" t="s">
         <v>11</v>
@@ -6813,19 +5527,19 @@
         <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>738</v>
+        <v>312</v>
       </c>
       <c r="J102" s="1" t="str">
         <f t="shared" si="3"/>
         <v>GN-Intraspecific-20</v>
       </c>
       <c r="K102" t="s">
-        <v>747</v>
+        <v>321</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A103" s="3" t="s">
-        <v>682</v>
+      <c r="A103" s="2" t="s">
+        <v>256</v>
       </c>
       <c r="B103" t="s">
         <v>78</v>
@@ -6849,19 +5563,19 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>738</v>
+        <v>312</v>
       </c>
       <c r="J103" s="1" t="str">
         <f t="shared" si="3"/>
         <v>GN-Intraspecific-20</v>
       </c>
       <c r="K103" t="s">
-        <v>747</v>
+        <v>321</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A104" s="3" t="s">
-        <v>683</v>
+      <c r="A104" s="2" t="s">
+        <v>257</v>
       </c>
       <c r="B104" t="s">
         <v>13</v>
@@ -6885,19 +5599,19 @@
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>738</v>
+        <v>312</v>
       </c>
       <c r="J104" s="1" t="str">
         <f t="shared" si="3"/>
         <v>GN-Intraspecific-20</v>
       </c>
       <c r="K104" t="s">
-        <v>747</v>
+        <v>321</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A105" s="3" t="s">
-        <v>684</v>
+      <c r="A105" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="B105" t="s">
         <v>15</v>
@@ -6921,19 +5635,19 @@
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>739</v>
+        <v>313</v>
       </c>
       <c r="J105" s="1" t="str">
         <f t="shared" si="3"/>
         <v>GN-Intraspecific-40</v>
       </c>
       <c r="K105" t="s">
-        <v>747</v>
+        <v>321</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A106" s="3" t="s">
-        <v>685</v>
+      <c r="A106" s="2" t="s">
+        <v>259</v>
       </c>
       <c r="B106" t="s">
         <v>16</v>
@@ -6957,19 +5671,19 @@
         <v>1</v>
       </c>
       <c r="I106" t="s">
-        <v>739</v>
+        <v>313</v>
       </c>
       <c r="J106" s="1" t="str">
         <f t="shared" si="3"/>
         <v>GN-Intraspecific-40</v>
       </c>
       <c r="K106" t="s">
-        <v>747</v>
+        <v>321</v>
       </c>
     </row>
     <row r="107" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A107" s="3" t="s">
-        <v>686</v>
+      <c r="A107" s="2" t="s">
+        <v>260</v>
       </c>
       <c r="B107" t="s">
         <v>17</v>
@@ -6993,19 +5707,19 @@
         <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>739</v>
+        <v>313</v>
       </c>
       <c r="J107" s="1" t="str">
         <f t="shared" si="3"/>
         <v>GN-Intraspecific-40</v>
       </c>
       <c r="K107" t="s">
-        <v>747</v>
+        <v>321</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A108" s="3" t="s">
-        <v>687</v>
+      <c r="A108" s="2" t="s">
+        <v>261</v>
       </c>
       <c r="B108" t="s">
         <v>36</v>
@@ -7029,19 +5743,19 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>739</v>
+        <v>313</v>
       </c>
       <c r="J108" s="1" t="str">
         <f t="shared" si="3"/>
         <v>GN-Intraspecific-40</v>
       </c>
       <c r="K108" t="s">
-        <v>747</v>
+        <v>321</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A109" s="3" t="s">
-        <v>688</v>
+      <c r="A109" s="2" t="s">
+        <v>262</v>
       </c>
       <c r="B109" t="s">
         <v>37</v>
@@ -7065,19 +5779,19 @@
         <v>1</v>
       </c>
       <c r="I109" t="s">
-        <v>739</v>
+        <v>313</v>
       </c>
       <c r="J109" s="1" t="str">
         <f t="shared" si="3"/>
         <v>GN-Intraspecific-40</v>
       </c>
       <c r="K109" t="s">
-        <v>747</v>
+        <v>321</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A110" s="3" t="s">
-        <v>689</v>
+      <c r="A110" s="2" t="s">
+        <v>263</v>
       </c>
       <c r="B110" t="s">
         <v>38</v>
@@ -7101,19 +5815,19 @@
         <v>1</v>
       </c>
       <c r="I110" t="s">
-        <v>739</v>
+        <v>313</v>
       </c>
       <c r="J110" s="1" t="str">
         <f t="shared" ref="J110:J142" si="4">CONCATENATE(E110,"-",F110,"-",G110)</f>
         <v>GN-Intraspecific-40</v>
       </c>
       <c r="K110" t="s">
-        <v>747</v>
+        <v>321</v>
       </c>
     </row>
     <row r="111" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A111" s="3" t="s">
-        <v>690</v>
+      <c r="A111" s="2" t="s">
+        <v>264</v>
       </c>
       <c r="B111" t="s">
         <v>55</v>
@@ -7137,19 +5851,19 @@
         <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>739</v>
+        <v>313</v>
       </c>
       <c r="J111" s="1" t="str">
         <f t="shared" si="4"/>
         <v>GN-Intraspecific-40</v>
       </c>
       <c r="K111" t="s">
-        <v>747</v>
+        <v>321</v>
       </c>
     </row>
     <row r="112" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A112" s="3" t="s">
-        <v>691</v>
+      <c r="A112" s="2" t="s">
+        <v>265</v>
       </c>
       <c r="B112" t="s">
         <v>56</v>
@@ -7173,19 +5887,19 @@
         <v>1</v>
       </c>
       <c r="I112" t="s">
-        <v>739</v>
+        <v>313</v>
       </c>
       <c r="J112" s="1" t="str">
         <f t="shared" si="4"/>
         <v>GN-Intraspecific-40</v>
       </c>
       <c r="K112" t="s">
-        <v>747</v>
+        <v>321</v>
       </c>
     </row>
     <row r="113" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A113" s="3" t="s">
-        <v>692</v>
+      <c r="A113" s="2" t="s">
+        <v>266</v>
       </c>
       <c r="B113" t="s">
         <v>57</v>
@@ -7209,19 +5923,19 @@
         <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>739</v>
+        <v>313</v>
       </c>
       <c r="J113" s="1" t="str">
         <f t="shared" si="4"/>
         <v>GN-Intraspecific-40</v>
       </c>
       <c r="K113" t="s">
-        <v>747</v>
+        <v>321</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A114" s="3" t="s">
-        <v>693</v>
+      <c r="A114" s="2" t="s">
+        <v>267</v>
       </c>
       <c r="B114" t="s">
         <v>79</v>
@@ -7245,19 +5959,19 @@
         <v>1</v>
       </c>
       <c r="I114" t="s">
-        <v>739</v>
+        <v>313</v>
       </c>
       <c r="J114" s="1" t="str">
         <f t="shared" si="4"/>
         <v>GN-Intraspecific-40</v>
       </c>
       <c r="K114" t="s">
-        <v>747</v>
+        <v>321</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A115" s="3" t="s">
-        <v>694</v>
+      <c r="A115" s="2" t="s">
+        <v>268</v>
       </c>
       <c r="B115" t="s">
         <v>80</v>
@@ -7281,19 +5995,19 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>739</v>
+        <v>313</v>
       </c>
       <c r="J115" s="1" t="str">
         <f t="shared" si="4"/>
         <v>GN-Intraspecific-40</v>
       </c>
       <c r="K115" t="s">
-        <v>747</v>
+        <v>321</v>
       </c>
     </row>
     <row r="116" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A116" s="3" t="s">
-        <v>695</v>
+      <c r="A116" s="2" t="s">
+        <v>269</v>
       </c>
       <c r="B116" t="s">
         <v>81</v>
@@ -7317,19 +6031,19 @@
         <v>1</v>
       </c>
       <c r="I116" t="s">
-        <v>739</v>
+        <v>313</v>
       </c>
       <c r="J116" s="1" t="str">
         <f t="shared" si="4"/>
         <v>GN-Intraspecific-40</v>
       </c>
       <c r="K116" t="s">
-        <v>747</v>
+        <v>321</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A117" s="3" t="s">
-        <v>696</v>
+      <c r="A117" s="2" t="s">
+        <v>270</v>
       </c>
       <c r="B117" t="s">
         <v>99</v>
@@ -7353,19 +6067,19 @@
         <v>2</v>
       </c>
       <c r="I117" t="s">
-        <v>740</v>
+        <v>314</v>
       </c>
       <c r="J117" s="1" t="str">
         <f t="shared" si="4"/>
         <v>GN-Interspecific-20</v>
       </c>
       <c r="K117" t="s">
-        <v>747</v>
+        <v>321</v>
       </c>
     </row>
     <row r="118" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A118" s="3" t="s">
-        <v>697</v>
+      <c r="A118" s="2" t="s">
+        <v>271</v>
       </c>
       <c r="B118" t="s">
         <v>100</v>
@@ -7389,19 +6103,19 @@
         <v>2</v>
       </c>
       <c r="I118" t="s">
-        <v>740</v>
+        <v>314</v>
       </c>
       <c r="J118" s="1" t="str">
         <f t="shared" si="4"/>
         <v>GN-Interspecific-20</v>
       </c>
       <c r="K118" t="s">
-        <v>747</v>
+        <v>321</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A119" s="3" t="s">
-        <v>698</v>
+      <c r="A119" s="2" t="s">
+        <v>272</v>
       </c>
       <c r="B119" t="s">
         <v>18</v>
@@ -7425,19 +6139,19 @@
         <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>740</v>
+        <v>314</v>
       </c>
       <c r="J119" s="1" t="str">
         <f t="shared" si="4"/>
         <v>GN-Interspecific-20</v>
       </c>
       <c r="K119" t="s">
-        <v>747</v>
+        <v>321</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A120" s="3" t="s">
-        <v>699</v>
+      <c r="A120" s="2" t="s">
+        <v>273</v>
       </c>
       <c r="B120" t="s">
         <v>39</v>
@@ -7461,19 +6175,19 @@
         <v>1</v>
       </c>
       <c r="I120" t="s">
-        <v>740</v>
+        <v>314</v>
       </c>
       <c r="J120" s="1" t="str">
         <f t="shared" si="4"/>
         <v>GN-Interspecific-20</v>
       </c>
       <c r="K120" t="s">
-        <v>747</v>
+        <v>321</v>
       </c>
     </row>
     <row r="121" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A121" s="3" t="s">
-        <v>700</v>
+      <c r="A121" s="2" t="s">
+        <v>274</v>
       </c>
       <c r="B121" t="s">
         <v>40</v>
@@ -7497,19 +6211,19 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>740</v>
+        <v>314</v>
       </c>
       <c r="J121" s="1" t="str">
         <f t="shared" si="4"/>
         <v>GN-Interspecific-20</v>
       </c>
       <c r="K121" t="s">
-        <v>747</v>
+        <v>321</v>
       </c>
     </row>
     <row r="122" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A122" s="3" t="s">
-        <v>701</v>
+      <c r="A122" s="2" t="s">
+        <v>275</v>
       </c>
       <c r="B122" t="s">
         <v>58</v>
@@ -7533,19 +6247,19 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>740</v>
+        <v>314</v>
       </c>
       <c r="J122" s="1" t="str">
         <f t="shared" si="4"/>
         <v>GN-Interspecific-20</v>
       </c>
       <c r="K122" t="s">
-        <v>747</v>
+        <v>321</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A123" s="3" t="s">
-        <v>702</v>
+      <c r="A123" s="2" t="s">
+        <v>276</v>
       </c>
       <c r="B123" t="s">
         <v>59</v>
@@ -7569,19 +6283,19 @@
         <v>1</v>
       </c>
       <c r="I123" t="s">
-        <v>740</v>
+        <v>314</v>
       </c>
       <c r="J123" s="1" t="str">
         <f t="shared" si="4"/>
         <v>GN-Interspecific-20</v>
       </c>
       <c r="K123" t="s">
-        <v>747</v>
+        <v>321</v>
       </c>
     </row>
     <row r="124" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A124" s="3" t="s">
-        <v>703</v>
+      <c r="A124" s="2" t="s">
+        <v>277</v>
       </c>
       <c r="B124" t="s">
         <v>60</v>
@@ -7605,19 +6319,19 @@
         <v>1</v>
       </c>
       <c r="I124" t="s">
-        <v>740</v>
+        <v>314</v>
       </c>
       <c r="J124" s="1" t="str">
         <f t="shared" si="4"/>
         <v>GN-Interspecific-20</v>
       </c>
       <c r="K124" t="s">
-        <v>747</v>
+        <v>321</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A125" s="3" t="s">
-        <v>704</v>
+      <c r="A125" s="2" t="s">
+        <v>278</v>
       </c>
       <c r="B125" t="s">
         <v>82</v>
@@ -7641,19 +6355,19 @@
         <v>1</v>
       </c>
       <c r="I125" t="s">
-        <v>740</v>
+        <v>314</v>
       </c>
       <c r="J125" s="1" t="str">
         <f t="shared" si="4"/>
         <v>GN-Interspecific-20</v>
       </c>
       <c r="K125" t="s">
-        <v>747</v>
+        <v>321</v>
       </c>
     </row>
     <row r="126" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A126" s="3" t="s">
-        <v>705</v>
+      <c r="A126" s="2" t="s">
+        <v>279</v>
       </c>
       <c r="B126" t="s">
         <v>83</v>
@@ -7677,19 +6391,19 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>740</v>
+        <v>314</v>
       </c>
       <c r="J126" s="1" t="str">
         <f t="shared" si="4"/>
         <v>GN-Interspecific-20</v>
       </c>
       <c r="K126" t="s">
-        <v>747</v>
+        <v>321</v>
       </c>
     </row>
     <row r="127" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A127" s="3" t="s">
-        <v>706</v>
+      <c r="A127" s="2" t="s">
+        <v>280</v>
       </c>
       <c r="B127" t="s">
         <v>84</v>
@@ -7713,19 +6427,19 @@
         <v>1</v>
       </c>
       <c r="I127" t="s">
-        <v>740</v>
+        <v>314</v>
       </c>
       <c r="J127" s="1" t="str">
         <f t="shared" si="4"/>
         <v>GN-Interspecific-20</v>
       </c>
       <c r="K127" t="s">
-        <v>747</v>
+        <v>321</v>
       </c>
     </row>
     <row r="128" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A128" s="3" t="s">
-        <v>707</v>
+      <c r="A128" s="2" t="s">
+        <v>281</v>
       </c>
       <c r="B128" t="s">
         <v>101</v>
@@ -7749,19 +6463,19 @@
         <v>2</v>
       </c>
       <c r="I128" t="s">
-        <v>741</v>
+        <v>315</v>
       </c>
       <c r="J128" s="1" t="str">
         <f t="shared" si="4"/>
         <v>GN-Interspecific-40</v>
       </c>
       <c r="K128" t="s">
-        <v>747</v>
+        <v>321</v>
       </c>
     </row>
     <row r="129" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A129" s="3" t="s">
-        <v>708</v>
+      <c r="A129" s="2" t="s">
+        <v>282</v>
       </c>
       <c r="B129" t="s">
         <v>102</v>
@@ -7785,19 +6499,19 @@
         <v>2</v>
       </c>
       <c r="I129" t="s">
-        <v>741</v>
+        <v>315</v>
       </c>
       <c r="J129" s="1" t="str">
         <f t="shared" si="4"/>
         <v>GN-Interspecific-40</v>
       </c>
       <c r="K129" t="s">
-        <v>747</v>
+        <v>321</v>
       </c>
     </row>
     <row r="130" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A130" s="3" t="s">
-        <v>709</v>
+      <c r="A130" s="2" t="s">
+        <v>283</v>
       </c>
       <c r="B130" t="s">
         <v>103</v>
@@ -7821,19 +6535,19 @@
         <v>2</v>
       </c>
       <c r="I130" t="s">
-        <v>741</v>
+        <v>315</v>
       </c>
       <c r="J130" s="1" t="str">
         <f t="shared" si="4"/>
         <v>GN-Interspecific-40</v>
       </c>
       <c r="K130" t="s">
-        <v>747</v>
+        <v>321</v>
       </c>
     </row>
     <row r="131" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A131" s="3" t="s">
-        <v>710</v>
+      <c r="A131" s="2" t="s">
+        <v>284</v>
       </c>
       <c r="B131" t="s">
         <v>19</v>
@@ -7857,19 +6571,19 @@
         <v>1</v>
       </c>
       <c r="I131" t="s">
-        <v>741</v>
+        <v>315</v>
       </c>
       <c r="J131" s="1" t="str">
         <f t="shared" si="4"/>
         <v>GN-Interspecific-40</v>
       </c>
       <c r="K131" t="s">
-        <v>747</v>
+        <v>321</v>
       </c>
     </row>
     <row r="132" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A132" s="3" t="s">
-        <v>711</v>
+      <c r="A132" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="B132" t="s">
         <v>20</v>
@@ -7893,19 +6607,19 @@
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>741</v>
+        <v>315</v>
       </c>
       <c r="J132" s="1" t="str">
         <f t="shared" si="4"/>
         <v>GN-Interspecific-40</v>
       </c>
       <c r="K132" t="s">
-        <v>747</v>
+        <v>321</v>
       </c>
     </row>
     <row r="133" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A133" s="3" t="s">
-        <v>712</v>
+      <c r="A133" s="2" t="s">
+        <v>286</v>
       </c>
       <c r="B133" t="s">
         <v>21</v>
@@ -7929,19 +6643,19 @@
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>741</v>
+        <v>315</v>
       </c>
       <c r="J133" s="1" t="str">
         <f t="shared" si="4"/>
         <v>GN-Interspecific-40</v>
       </c>
       <c r="K133" t="s">
-        <v>747</v>
+        <v>321</v>
       </c>
     </row>
     <row r="134" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A134" s="3" t="s">
-        <v>713</v>
+      <c r="A134" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="B134" t="s">
         <v>41</v>
@@ -7965,19 +6679,19 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>741</v>
+        <v>315</v>
       </c>
       <c r="J134" s="1" t="str">
         <f t="shared" si="4"/>
         <v>GN-Interspecific-40</v>
       </c>
       <c r="K134" t="s">
-        <v>747</v>
+        <v>321</v>
       </c>
     </row>
     <row r="135" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A135" s="3" t="s">
-        <v>714</v>
+      <c r="A135" s="2" t="s">
+        <v>288</v>
       </c>
       <c r="B135" t="s">
         <v>42</v>
@@ -8001,19 +6715,19 @@
         <v>1</v>
       </c>
       <c r="I135" t="s">
-        <v>741</v>
+        <v>315</v>
       </c>
       <c r="J135" s="1" t="str">
         <f t="shared" si="4"/>
         <v>GN-Interspecific-40</v>
       </c>
       <c r="K135" t="s">
-        <v>747</v>
+        <v>321</v>
       </c>
     </row>
     <row r="136" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A136" s="3" t="s">
-        <v>715</v>
+      <c r="A136" s="2" t="s">
+        <v>289</v>
       </c>
       <c r="B136" t="s">
         <v>43</v>
@@ -8037,19 +6751,19 @@
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>741</v>
+        <v>315</v>
       </c>
       <c r="J136" s="1" t="str">
         <f t="shared" si="4"/>
         <v>GN-Interspecific-40</v>
       </c>
       <c r="K136" t="s">
-        <v>747</v>
+        <v>321</v>
       </c>
     </row>
     <row r="137" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A137" s="3" t="s">
-        <v>716</v>
+      <c r="A137" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="B137" t="s">
         <v>61</v>
@@ -8073,19 +6787,19 @@
         <v>1</v>
       </c>
       <c r="I137" t="s">
-        <v>741</v>
+        <v>315</v>
       </c>
       <c r="J137" s="1" t="str">
         <f t="shared" si="4"/>
         <v>GN-Interspecific-40</v>
       </c>
       <c r="K137" t="s">
-        <v>747</v>
+        <v>321</v>
       </c>
     </row>
     <row r="138" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A138" s="3" t="s">
-        <v>717</v>
+      <c r="A138" s="2" t="s">
+        <v>291</v>
       </c>
       <c r="B138" t="s">
         <v>62</v>
@@ -8109,19 +6823,19 @@
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>741</v>
+        <v>315</v>
       </c>
       <c r="J138" s="1" t="str">
         <f t="shared" si="4"/>
         <v>GN-Interspecific-40</v>
       </c>
       <c r="K138" t="s">
-        <v>747</v>
+        <v>321</v>
       </c>
     </row>
     <row r="139" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A139" s="3" t="s">
-        <v>718</v>
+      <c r="A139" s="2" t="s">
+        <v>292</v>
       </c>
       <c r="B139" t="s">
         <v>63</v>
@@ -8145,19 +6859,19 @@
         <v>1</v>
       </c>
       <c r="I139" t="s">
-        <v>741</v>
+        <v>315</v>
       </c>
       <c r="J139" s="1" t="str">
         <f t="shared" si="4"/>
         <v>GN-Interspecific-40</v>
       </c>
       <c r="K139" t="s">
-        <v>747</v>
+        <v>321</v>
       </c>
     </row>
     <row r="140" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A140" s="3" t="s">
-        <v>719</v>
+      <c r="A140" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="B140" t="s">
         <v>85</v>
@@ -8181,19 +6895,19 @@
         <v>1</v>
       </c>
       <c r="I140" t="s">
-        <v>741</v>
+        <v>315</v>
       </c>
       <c r="J140" s="1" t="str">
         <f t="shared" si="4"/>
         <v>GN-Interspecific-40</v>
       </c>
       <c r="K140" t="s">
-        <v>747</v>
+        <v>321</v>
       </c>
     </row>
     <row r="141" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A141" s="3" t="s">
-        <v>720</v>
+      <c r="A141" s="2" t="s">
+        <v>294</v>
       </c>
       <c r="B141" t="s">
         <v>86</v>
@@ -8217,19 +6931,19 @@
         <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>741</v>
+        <v>315</v>
       </c>
       <c r="J141" s="1" t="str">
         <f t="shared" si="4"/>
         <v>GN-Interspecific-40</v>
       </c>
       <c r="K141" t="s">
-        <v>747</v>
+        <v>321</v>
       </c>
     </row>
     <row r="142" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A142" s="3" t="s">
-        <v>721</v>
+      <c r="A142" s="2" t="s">
+        <v>295</v>
       </c>
       <c r="B142" t="s">
         <v>87</v>
@@ -8253,14 +6967,14 @@
         <v>1</v>
       </c>
       <c r="I142" t="s">
-        <v>741</v>
+        <v>315</v>
       </c>
       <c r="J142" s="1" t="str">
         <f t="shared" si="4"/>
         <v>GN-Interspecific-40</v>
       </c>
       <c r="K142" t="s">
-        <v>747</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -8270,2842 +6984,4 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DA2D3C5-4C56-6440-BE16-4A41B5B4C248}">
-  <dimension ref="A1:F141"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B141"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="C1" t="s">
-        <v>297</v>
-      </c>
-      <c r="D1" t="s">
-        <v>298</v>
-      </c>
-      <c r="E1" t="s">
-        <v>299</v>
-      </c>
-      <c r="F1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="C2" t="s">
-        <v>302</v>
-      </c>
-      <c r="D2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E2" t="s">
-        <v>299</v>
-      </c>
-      <c r="F2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="C3" t="s">
-        <v>304</v>
-      </c>
-      <c r="D3" t="s">
-        <v>298</v>
-      </c>
-      <c r="E3" t="s">
-        <v>299</v>
-      </c>
-      <c r="F3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C4" t="s">
-        <v>306</v>
-      </c>
-      <c r="D4" t="s">
-        <v>298</v>
-      </c>
-      <c r="E4" t="s">
-        <v>299</v>
-      </c>
-      <c r="F4" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C5" t="s">
-        <v>308</v>
-      </c>
-      <c r="D5" t="s">
-        <v>298</v>
-      </c>
-      <c r="E5" t="s">
-        <v>299</v>
-      </c>
-      <c r="F5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C6" t="s">
-        <v>310</v>
-      </c>
-      <c r="D6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E6" t="s">
-        <v>299</v>
-      </c>
-      <c r="F6" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C7" t="s">
-        <v>312</v>
-      </c>
-      <c r="D7" t="s">
-        <v>298</v>
-      </c>
-      <c r="E7" t="s">
-        <v>299</v>
-      </c>
-      <c r="F7" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C8" t="s">
-        <v>314</v>
-      </c>
-      <c r="D8" t="s">
-        <v>298</v>
-      </c>
-      <c r="E8" t="s">
-        <v>299</v>
-      </c>
-      <c r="F8" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C9" t="s">
-        <v>316</v>
-      </c>
-      <c r="D9" t="s">
-        <v>298</v>
-      </c>
-      <c r="E9" t="s">
-        <v>299</v>
-      </c>
-      <c r="F9" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C10" t="s">
-        <v>318</v>
-      </c>
-      <c r="D10" t="s">
-        <v>298</v>
-      </c>
-      <c r="E10" t="s">
-        <v>299</v>
-      </c>
-      <c r="F10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C11" t="s">
-        <v>320</v>
-      </c>
-      <c r="D11" t="s">
-        <v>298</v>
-      </c>
-      <c r="E11" t="s">
-        <v>299</v>
-      </c>
-      <c r="F11" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C12" t="s">
-        <v>322</v>
-      </c>
-      <c r="D12" t="s">
-        <v>298</v>
-      </c>
-      <c r="E12" t="s">
-        <v>299</v>
-      </c>
-      <c r="F12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C13" t="s">
-        <v>324</v>
-      </c>
-      <c r="D13" t="s">
-        <v>298</v>
-      </c>
-      <c r="E13" t="s">
-        <v>299</v>
-      </c>
-      <c r="F13" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="C14" t="s">
-        <v>326</v>
-      </c>
-      <c r="D14" t="s">
-        <v>298</v>
-      </c>
-      <c r="E14" t="s">
-        <v>299</v>
-      </c>
-      <c r="F14" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="C15" t="s">
-        <v>328</v>
-      </c>
-      <c r="D15" t="s">
-        <v>298</v>
-      </c>
-      <c r="E15" t="s">
-        <v>299</v>
-      </c>
-      <c r="F15" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="C16" t="s">
-        <v>330</v>
-      </c>
-      <c r="D16" t="s">
-        <v>298</v>
-      </c>
-      <c r="E16" t="s">
-        <v>299</v>
-      </c>
-      <c r="F16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C17" t="s">
-        <v>332</v>
-      </c>
-      <c r="D17" t="s">
-        <v>298</v>
-      </c>
-      <c r="E17" t="s">
-        <v>299</v>
-      </c>
-      <c r="F17" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="C18" t="s">
-        <v>334</v>
-      </c>
-      <c r="D18" t="s">
-        <v>298</v>
-      </c>
-      <c r="E18" t="s">
-        <v>299</v>
-      </c>
-      <c r="F18" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="C19" t="s">
-        <v>336</v>
-      </c>
-      <c r="D19" t="s">
-        <v>298</v>
-      </c>
-      <c r="E19" t="s">
-        <v>299</v>
-      </c>
-      <c r="F19" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="C20" t="s">
-        <v>338</v>
-      </c>
-      <c r="D20" t="s">
-        <v>298</v>
-      </c>
-      <c r="E20" t="s">
-        <v>299</v>
-      </c>
-      <c r="F20" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C21" t="s">
-        <v>340</v>
-      </c>
-      <c r="D21" t="s">
-        <v>298</v>
-      </c>
-      <c r="E21" t="s">
-        <v>299</v>
-      </c>
-      <c r="F21" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C22" t="s">
-        <v>342</v>
-      </c>
-      <c r="D22" t="s">
-        <v>298</v>
-      </c>
-      <c r="E22" t="s">
-        <v>299</v>
-      </c>
-      <c r="F22" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="C23" t="s">
-        <v>344</v>
-      </c>
-      <c r="D23" t="s">
-        <v>298</v>
-      </c>
-      <c r="E23" t="s">
-        <v>299</v>
-      </c>
-      <c r="F23" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="C24" t="s">
-        <v>346</v>
-      </c>
-      <c r="D24" t="s">
-        <v>298</v>
-      </c>
-      <c r="E24" t="s">
-        <v>299</v>
-      </c>
-      <c r="F24" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="C25" t="s">
-        <v>348</v>
-      </c>
-      <c r="D25" t="s">
-        <v>298</v>
-      </c>
-      <c r="E25" t="s">
-        <v>299</v>
-      </c>
-      <c r="F25" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="C26" t="s">
-        <v>350</v>
-      </c>
-      <c r="D26" t="s">
-        <v>298</v>
-      </c>
-      <c r="E26" t="s">
-        <v>299</v>
-      </c>
-      <c r="F26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="C27" t="s">
-        <v>352</v>
-      </c>
-      <c r="D27" t="s">
-        <v>298</v>
-      </c>
-      <c r="E27" t="s">
-        <v>299</v>
-      </c>
-      <c r="F27" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C28" t="s">
-        <v>354</v>
-      </c>
-      <c r="D28" t="s">
-        <v>298</v>
-      </c>
-      <c r="E28" t="s">
-        <v>299</v>
-      </c>
-      <c r="F28" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="C29" t="s">
-        <v>356</v>
-      </c>
-      <c r="D29" t="s">
-        <v>298</v>
-      </c>
-      <c r="E29" t="s">
-        <v>299</v>
-      </c>
-      <c r="F29" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="C30" t="s">
-        <v>358</v>
-      </c>
-      <c r="D30" t="s">
-        <v>298</v>
-      </c>
-      <c r="E30" t="s">
-        <v>299</v>
-      </c>
-      <c r="F30" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="C31" t="s">
-        <v>360</v>
-      </c>
-      <c r="D31" t="s">
-        <v>298</v>
-      </c>
-      <c r="E31" t="s">
-        <v>299</v>
-      </c>
-      <c r="F31" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="C32" t="s">
-        <v>362</v>
-      </c>
-      <c r="D32" t="s">
-        <v>298</v>
-      </c>
-      <c r="E32" t="s">
-        <v>299</v>
-      </c>
-      <c r="F32" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="C33" t="s">
-        <v>364</v>
-      </c>
-      <c r="D33" t="s">
-        <v>298</v>
-      </c>
-      <c r="E33" t="s">
-        <v>299</v>
-      </c>
-      <c r="F33" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="C34" t="s">
-        <v>366</v>
-      </c>
-      <c r="D34" t="s">
-        <v>298</v>
-      </c>
-      <c r="E34" t="s">
-        <v>299</v>
-      </c>
-      <c r="F34" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="C35" t="s">
-        <v>368</v>
-      </c>
-      <c r="D35" t="s">
-        <v>298</v>
-      </c>
-      <c r="E35" t="s">
-        <v>299</v>
-      </c>
-      <c r="F35" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="C36" t="s">
-        <v>370</v>
-      </c>
-      <c r="D36" t="s">
-        <v>298</v>
-      </c>
-      <c r="E36" t="s">
-        <v>299</v>
-      </c>
-      <c r="F36" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="C37" t="s">
-        <v>372</v>
-      </c>
-      <c r="D37" t="s">
-        <v>298</v>
-      </c>
-      <c r="E37" t="s">
-        <v>299</v>
-      </c>
-      <c r="F37" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="C38" t="s">
-        <v>374</v>
-      </c>
-      <c r="D38" t="s">
-        <v>298</v>
-      </c>
-      <c r="E38" t="s">
-        <v>299</v>
-      </c>
-      <c r="F38" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="C39" t="s">
-        <v>376</v>
-      </c>
-      <c r="D39" t="s">
-        <v>298</v>
-      </c>
-      <c r="E39" t="s">
-        <v>299</v>
-      </c>
-      <c r="F39" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="C40" t="s">
-        <v>378</v>
-      </c>
-      <c r="D40" t="s">
-        <v>298</v>
-      </c>
-      <c r="E40" t="s">
-        <v>299</v>
-      </c>
-      <c r="F40" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="C41" t="s">
-        <v>380</v>
-      </c>
-      <c r="D41" t="s">
-        <v>298</v>
-      </c>
-      <c r="E41" t="s">
-        <v>299</v>
-      </c>
-      <c r="F41" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="C42" t="s">
-        <v>382</v>
-      </c>
-      <c r="D42" t="s">
-        <v>298</v>
-      </c>
-      <c r="E42" t="s">
-        <v>299</v>
-      </c>
-      <c r="F42" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="C43" t="s">
-        <v>384</v>
-      </c>
-      <c r="D43" t="s">
-        <v>298</v>
-      </c>
-      <c r="E43" t="s">
-        <v>299</v>
-      </c>
-      <c r="F43" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="C44" t="s">
-        <v>386</v>
-      </c>
-      <c r="D44" t="s">
-        <v>298</v>
-      </c>
-      <c r="E44" t="s">
-        <v>299</v>
-      </c>
-      <c r="F44" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="C45" t="s">
-        <v>388</v>
-      </c>
-      <c r="D45" t="s">
-        <v>298</v>
-      </c>
-      <c r="E45" t="s">
-        <v>299</v>
-      </c>
-      <c r="F45" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="C46" t="s">
-        <v>390</v>
-      </c>
-      <c r="D46" t="s">
-        <v>298</v>
-      </c>
-      <c r="E46" t="s">
-        <v>299</v>
-      </c>
-      <c r="F46" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="C47" t="s">
-        <v>392</v>
-      </c>
-      <c r="D47" t="s">
-        <v>298</v>
-      </c>
-      <c r="E47" t="s">
-        <v>299</v>
-      </c>
-      <c r="F47" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="C48" t="s">
-        <v>394</v>
-      </c>
-      <c r="D48" t="s">
-        <v>298</v>
-      </c>
-      <c r="E48" t="s">
-        <v>299</v>
-      </c>
-      <c r="F48" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="C49" t="s">
-        <v>396</v>
-      </c>
-      <c r="D49" t="s">
-        <v>298</v>
-      </c>
-      <c r="E49" t="s">
-        <v>299</v>
-      </c>
-      <c r="F49" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="C50" t="s">
-        <v>398</v>
-      </c>
-      <c r="D50" t="s">
-        <v>298</v>
-      </c>
-      <c r="E50" t="s">
-        <v>299</v>
-      </c>
-      <c r="F50" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="C51" t="s">
-        <v>400</v>
-      </c>
-      <c r="D51" t="s">
-        <v>298</v>
-      </c>
-      <c r="E51" t="s">
-        <v>299</v>
-      </c>
-      <c r="F51" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="C52" t="s">
-        <v>402</v>
-      </c>
-      <c r="D52" t="s">
-        <v>298</v>
-      </c>
-      <c r="E52" t="s">
-        <v>299</v>
-      </c>
-      <c r="F52" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="C53" t="s">
-        <v>404</v>
-      </c>
-      <c r="D53" t="s">
-        <v>298</v>
-      </c>
-      <c r="E53" t="s">
-        <v>299</v>
-      </c>
-      <c r="F53" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="C54" t="s">
-        <v>406</v>
-      </c>
-      <c r="D54" t="s">
-        <v>298</v>
-      </c>
-      <c r="E54" t="s">
-        <v>299</v>
-      </c>
-      <c r="F54" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="C55" t="s">
-        <v>408</v>
-      </c>
-      <c r="D55" t="s">
-        <v>298</v>
-      </c>
-      <c r="E55" t="s">
-        <v>299</v>
-      </c>
-      <c r="F55" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="C56" t="s">
-        <v>410</v>
-      </c>
-      <c r="D56" t="s">
-        <v>298</v>
-      </c>
-      <c r="E56" t="s">
-        <v>299</v>
-      </c>
-      <c r="F56" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="C57" t="s">
-        <v>412</v>
-      </c>
-      <c r="D57" t="s">
-        <v>298</v>
-      </c>
-      <c r="E57" t="s">
-        <v>299</v>
-      </c>
-      <c r="F57" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="C58" t="s">
-        <v>414</v>
-      </c>
-      <c r="D58" t="s">
-        <v>298</v>
-      </c>
-      <c r="E58" t="s">
-        <v>299</v>
-      </c>
-      <c r="F58" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="C59" t="s">
-        <v>416</v>
-      </c>
-      <c r="D59" t="s">
-        <v>298</v>
-      </c>
-      <c r="E59" t="s">
-        <v>299</v>
-      </c>
-      <c r="F59" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="C60" t="s">
-        <v>418</v>
-      </c>
-      <c r="D60" t="s">
-        <v>298</v>
-      </c>
-      <c r="E60" t="s">
-        <v>299</v>
-      </c>
-      <c r="F60" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="C61" t="s">
-        <v>420</v>
-      </c>
-      <c r="D61" t="s">
-        <v>298</v>
-      </c>
-      <c r="E61" t="s">
-        <v>299</v>
-      </c>
-      <c r="F61" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="C62" t="s">
-        <v>422</v>
-      </c>
-      <c r="D62" t="s">
-        <v>298</v>
-      </c>
-      <c r="E62" t="s">
-        <v>299</v>
-      </c>
-      <c r="F62" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="C63" t="s">
-        <v>424</v>
-      </c>
-      <c r="D63" t="s">
-        <v>298</v>
-      </c>
-      <c r="E63" t="s">
-        <v>299</v>
-      </c>
-      <c r="F63" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="C64" t="s">
-        <v>426</v>
-      </c>
-      <c r="D64" t="s">
-        <v>298</v>
-      </c>
-      <c r="E64" t="s">
-        <v>299</v>
-      </c>
-      <c r="F64" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="C65" t="s">
-        <v>428</v>
-      </c>
-      <c r="D65" t="s">
-        <v>298</v>
-      </c>
-      <c r="E65" t="s">
-        <v>299</v>
-      </c>
-      <c r="F65" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="C66" t="s">
-        <v>430</v>
-      </c>
-      <c r="D66" t="s">
-        <v>298</v>
-      </c>
-      <c r="E66" t="s">
-        <v>299</v>
-      </c>
-      <c r="F66" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="C67" t="s">
-        <v>432</v>
-      </c>
-      <c r="D67" t="s">
-        <v>298</v>
-      </c>
-      <c r="E67" t="s">
-        <v>299</v>
-      </c>
-      <c r="F67" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="C68" t="s">
-        <v>434</v>
-      </c>
-      <c r="D68" t="s">
-        <v>298</v>
-      </c>
-      <c r="E68" t="s">
-        <v>299</v>
-      </c>
-      <c r="F68" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="C69" t="s">
-        <v>436</v>
-      </c>
-      <c r="D69" t="s">
-        <v>298</v>
-      </c>
-      <c r="E69" t="s">
-        <v>299</v>
-      </c>
-      <c r="F69" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="C70" t="s">
-        <v>438</v>
-      </c>
-      <c r="D70" t="s">
-        <v>298</v>
-      </c>
-      <c r="E70" t="s">
-        <v>299</v>
-      </c>
-      <c r="F70" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="C71" t="s">
-        <v>440</v>
-      </c>
-      <c r="D71" t="s">
-        <v>298</v>
-      </c>
-      <c r="E71" t="s">
-        <v>299</v>
-      </c>
-      <c r="F71" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="C72" t="s">
-        <v>442</v>
-      </c>
-      <c r="D72" t="s">
-        <v>298</v>
-      </c>
-      <c r="E72" t="s">
-        <v>299</v>
-      </c>
-      <c r="F72" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="C73" t="s">
-        <v>444</v>
-      </c>
-      <c r="D73" t="s">
-        <v>298</v>
-      </c>
-      <c r="E73" t="s">
-        <v>299</v>
-      </c>
-      <c r="F73" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="C74" t="s">
-        <v>446</v>
-      </c>
-      <c r="D74" t="s">
-        <v>298</v>
-      </c>
-      <c r="E74" t="s">
-        <v>299</v>
-      </c>
-      <c r="F74" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="C75" t="s">
-        <v>448</v>
-      </c>
-      <c r="D75" t="s">
-        <v>298</v>
-      </c>
-      <c r="E75" t="s">
-        <v>299</v>
-      </c>
-      <c r="F75" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="C76" t="s">
-        <v>450</v>
-      </c>
-      <c r="D76" t="s">
-        <v>298</v>
-      </c>
-      <c r="E76" t="s">
-        <v>299</v>
-      </c>
-      <c r="F76" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="C77" t="s">
-        <v>452</v>
-      </c>
-      <c r="D77" t="s">
-        <v>298</v>
-      </c>
-      <c r="E77" t="s">
-        <v>299</v>
-      </c>
-      <c r="F77" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="C78" t="s">
-        <v>454</v>
-      </c>
-      <c r="D78" t="s">
-        <v>298</v>
-      </c>
-      <c r="E78" t="s">
-        <v>299</v>
-      </c>
-      <c r="F78" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="C79" t="s">
-        <v>456</v>
-      </c>
-      <c r="D79" t="s">
-        <v>298</v>
-      </c>
-      <c r="E79" t="s">
-        <v>299</v>
-      </c>
-      <c r="F79" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="C80" t="s">
-        <v>458</v>
-      </c>
-      <c r="D80" t="s">
-        <v>298</v>
-      </c>
-      <c r="E80" t="s">
-        <v>299</v>
-      </c>
-      <c r="F80" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="C81" t="s">
-        <v>460</v>
-      </c>
-      <c r="D81" t="s">
-        <v>298</v>
-      </c>
-      <c r="E81" t="s">
-        <v>299</v>
-      </c>
-      <c r="F81" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="C82" t="s">
-        <v>462</v>
-      </c>
-      <c r="D82" t="s">
-        <v>298</v>
-      </c>
-      <c r="E82" t="s">
-        <v>299</v>
-      </c>
-      <c r="F82" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="C83" t="s">
-        <v>464</v>
-      </c>
-      <c r="D83" t="s">
-        <v>298</v>
-      </c>
-      <c r="E83" t="s">
-        <v>299</v>
-      </c>
-      <c r="F83" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="C84" t="s">
-        <v>466</v>
-      </c>
-      <c r="D84" t="s">
-        <v>298</v>
-      </c>
-      <c r="E84" t="s">
-        <v>299</v>
-      </c>
-      <c r="F84" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="C85" t="s">
-        <v>468</v>
-      </c>
-      <c r="D85" t="s">
-        <v>298</v>
-      </c>
-      <c r="E85" t="s">
-        <v>299</v>
-      </c>
-      <c r="F85" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="C86" t="s">
-        <v>470</v>
-      </c>
-      <c r="D86" t="s">
-        <v>298</v>
-      </c>
-      <c r="E86" t="s">
-        <v>299</v>
-      </c>
-      <c r="F86" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="C87" t="s">
-        <v>472</v>
-      </c>
-      <c r="D87" t="s">
-        <v>298</v>
-      </c>
-      <c r="E87" t="s">
-        <v>299</v>
-      </c>
-      <c r="F87" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="C88" t="s">
-        <v>474</v>
-      </c>
-      <c r="D88" t="s">
-        <v>298</v>
-      </c>
-      <c r="E88" t="s">
-        <v>299</v>
-      </c>
-      <c r="F88" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A89" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="C89" t="s">
-        <v>476</v>
-      </c>
-      <c r="D89" t="s">
-        <v>298</v>
-      </c>
-      <c r="E89" t="s">
-        <v>299</v>
-      </c>
-      <c r="F89" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="C90" t="s">
-        <v>478</v>
-      </c>
-      <c r="D90" t="s">
-        <v>298</v>
-      </c>
-      <c r="E90" t="s">
-        <v>299</v>
-      </c>
-      <c r="F90" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A91" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="C91" t="s">
-        <v>480</v>
-      </c>
-      <c r="D91" t="s">
-        <v>298</v>
-      </c>
-      <c r="E91" t="s">
-        <v>299</v>
-      </c>
-      <c r="F91" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A92" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="C92" t="s">
-        <v>482</v>
-      </c>
-      <c r="D92" t="s">
-        <v>298</v>
-      </c>
-      <c r="E92" t="s">
-        <v>299</v>
-      </c>
-      <c r="F92" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A93" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="C93" t="s">
-        <v>484</v>
-      </c>
-      <c r="D93" t="s">
-        <v>298</v>
-      </c>
-      <c r="E93" t="s">
-        <v>299</v>
-      </c>
-      <c r="F93" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A94" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="C94" t="s">
-        <v>486</v>
-      </c>
-      <c r="D94" t="s">
-        <v>298</v>
-      </c>
-      <c r="E94" t="s">
-        <v>299</v>
-      </c>
-      <c r="F94" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A95" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="C95" t="s">
-        <v>488</v>
-      </c>
-      <c r="D95" t="s">
-        <v>298</v>
-      </c>
-      <c r="E95" t="s">
-        <v>299</v>
-      </c>
-      <c r="F95" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A96" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="C96" t="s">
-        <v>490</v>
-      </c>
-      <c r="D96" t="s">
-        <v>298</v>
-      </c>
-      <c r="E96" t="s">
-        <v>299</v>
-      </c>
-      <c r="F96" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="C97" t="s">
-        <v>492</v>
-      </c>
-      <c r="D97" t="s">
-        <v>298</v>
-      </c>
-      <c r="E97" t="s">
-        <v>299</v>
-      </c>
-      <c r="F97" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A98" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="C98" t="s">
-        <v>494</v>
-      </c>
-      <c r="D98" t="s">
-        <v>298</v>
-      </c>
-      <c r="E98" t="s">
-        <v>299</v>
-      </c>
-      <c r="F98" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A99" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="C99" t="s">
-        <v>496</v>
-      </c>
-      <c r="D99" t="s">
-        <v>298</v>
-      </c>
-      <c r="E99" t="s">
-        <v>299</v>
-      </c>
-      <c r="F99" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="C100" t="s">
-        <v>498</v>
-      </c>
-      <c r="D100" t="s">
-        <v>298</v>
-      </c>
-      <c r="E100" t="s">
-        <v>299</v>
-      </c>
-      <c r="F100" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A101" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="C101" t="s">
-        <v>500</v>
-      </c>
-      <c r="D101" t="s">
-        <v>298</v>
-      </c>
-      <c r="E101" t="s">
-        <v>299</v>
-      </c>
-      <c r="F101" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A102" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="C102" t="s">
-        <v>502</v>
-      </c>
-      <c r="D102" t="s">
-        <v>298</v>
-      </c>
-      <c r="E102" t="s">
-        <v>299</v>
-      </c>
-      <c r="F102" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A103" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="C103" t="s">
-        <v>504</v>
-      </c>
-      <c r="D103" t="s">
-        <v>298</v>
-      </c>
-      <c r="E103" t="s">
-        <v>299</v>
-      </c>
-      <c r="F103" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A104" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="C104" t="s">
-        <v>506</v>
-      </c>
-      <c r="D104" t="s">
-        <v>298</v>
-      </c>
-      <c r="E104" t="s">
-        <v>299</v>
-      </c>
-      <c r="F104" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A105" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="C105" t="s">
-        <v>508</v>
-      </c>
-      <c r="D105" t="s">
-        <v>298</v>
-      </c>
-      <c r="E105" t="s">
-        <v>299</v>
-      </c>
-      <c r="F105" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A106" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="C106" t="s">
-        <v>510</v>
-      </c>
-      <c r="D106" t="s">
-        <v>298</v>
-      </c>
-      <c r="E106" t="s">
-        <v>299</v>
-      </c>
-      <c r="F106" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A107" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="C107" t="s">
-        <v>512</v>
-      </c>
-      <c r="D107" t="s">
-        <v>298</v>
-      </c>
-      <c r="E107" t="s">
-        <v>299</v>
-      </c>
-      <c r="F107" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A108" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="C108" t="s">
-        <v>514</v>
-      </c>
-      <c r="D108" t="s">
-        <v>298</v>
-      </c>
-      <c r="E108" t="s">
-        <v>299</v>
-      </c>
-      <c r="F108" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A109" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="C109" t="s">
-        <v>516</v>
-      </c>
-      <c r="D109" t="s">
-        <v>298</v>
-      </c>
-      <c r="E109" t="s">
-        <v>299</v>
-      </c>
-      <c r="F109" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A110" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="C110" t="s">
-        <v>518</v>
-      </c>
-      <c r="D110" t="s">
-        <v>298</v>
-      </c>
-      <c r="E110" t="s">
-        <v>299</v>
-      </c>
-      <c r="F110" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A111" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="C111" t="s">
-        <v>520</v>
-      </c>
-      <c r="D111" t="s">
-        <v>298</v>
-      </c>
-      <c r="E111" t="s">
-        <v>299</v>
-      </c>
-      <c r="F111" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A112" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="C112" t="s">
-        <v>522</v>
-      </c>
-      <c r="D112" t="s">
-        <v>298</v>
-      </c>
-      <c r="E112" t="s">
-        <v>299</v>
-      </c>
-      <c r="F112" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A113" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="C113" t="s">
-        <v>524</v>
-      </c>
-      <c r="D113" t="s">
-        <v>298</v>
-      </c>
-      <c r="E113" t="s">
-        <v>299</v>
-      </c>
-      <c r="F113" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A114" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="C114" t="s">
-        <v>526</v>
-      </c>
-      <c r="D114" t="s">
-        <v>298</v>
-      </c>
-      <c r="E114" t="s">
-        <v>299</v>
-      </c>
-      <c r="F114" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A115" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="C115" t="s">
-        <v>528</v>
-      </c>
-      <c r="D115" t="s">
-        <v>298</v>
-      </c>
-      <c r="E115" t="s">
-        <v>299</v>
-      </c>
-      <c r="F115" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A116" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="C116" t="s">
-        <v>530</v>
-      </c>
-      <c r="D116" t="s">
-        <v>298</v>
-      </c>
-      <c r="E116" t="s">
-        <v>299</v>
-      </c>
-      <c r="F116" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A117" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="C117" t="s">
-        <v>532</v>
-      </c>
-      <c r="D117" t="s">
-        <v>298</v>
-      </c>
-      <c r="E117" t="s">
-        <v>299</v>
-      </c>
-      <c r="F117" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A118" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="C118" t="s">
-        <v>534</v>
-      </c>
-      <c r="D118" t="s">
-        <v>298</v>
-      </c>
-      <c r="E118" t="s">
-        <v>299</v>
-      </c>
-      <c r="F118" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A119" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="C119" t="s">
-        <v>536</v>
-      </c>
-      <c r="D119" t="s">
-        <v>298</v>
-      </c>
-      <c r="E119" t="s">
-        <v>299</v>
-      </c>
-      <c r="F119" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A120" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="C120" t="s">
-        <v>538</v>
-      </c>
-      <c r="D120" t="s">
-        <v>298</v>
-      </c>
-      <c r="E120" t="s">
-        <v>299</v>
-      </c>
-      <c r="F120" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A121" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="C121" t="s">
-        <v>540</v>
-      </c>
-      <c r="D121" t="s">
-        <v>298</v>
-      </c>
-      <c r="E121" t="s">
-        <v>299</v>
-      </c>
-      <c r="F121" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A122" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="C122" t="s">
-        <v>542</v>
-      </c>
-      <c r="D122" t="s">
-        <v>298</v>
-      </c>
-      <c r="E122" t="s">
-        <v>299</v>
-      </c>
-      <c r="F122" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A123" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="C123" t="s">
-        <v>544</v>
-      </c>
-      <c r="D123" t="s">
-        <v>298</v>
-      </c>
-      <c r="E123" t="s">
-        <v>299</v>
-      </c>
-      <c r="F123" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A124" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="C124" t="s">
-        <v>546</v>
-      </c>
-      <c r="D124" t="s">
-        <v>298</v>
-      </c>
-      <c r="E124" t="s">
-        <v>299</v>
-      </c>
-      <c r="F124" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A125" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="C125" t="s">
-        <v>548</v>
-      </c>
-      <c r="D125" t="s">
-        <v>298</v>
-      </c>
-      <c r="E125" t="s">
-        <v>299</v>
-      </c>
-      <c r="F125" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A126" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="C126" t="s">
-        <v>550</v>
-      </c>
-      <c r="D126" t="s">
-        <v>298</v>
-      </c>
-      <c r="E126" t="s">
-        <v>299</v>
-      </c>
-      <c r="F126" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A127" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="C127" t="s">
-        <v>552</v>
-      </c>
-      <c r="D127" t="s">
-        <v>298</v>
-      </c>
-      <c r="E127" t="s">
-        <v>299</v>
-      </c>
-      <c r="F127" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A128" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="C128" t="s">
-        <v>554</v>
-      </c>
-      <c r="D128" t="s">
-        <v>298</v>
-      </c>
-      <c r="E128" t="s">
-        <v>299</v>
-      </c>
-      <c r="F128" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A129" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="C129" t="s">
-        <v>556</v>
-      </c>
-      <c r="D129" t="s">
-        <v>298</v>
-      </c>
-      <c r="E129" t="s">
-        <v>299</v>
-      </c>
-      <c r="F129" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A130" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="C130" t="s">
-        <v>558</v>
-      </c>
-      <c r="D130" t="s">
-        <v>298</v>
-      </c>
-      <c r="E130" t="s">
-        <v>299</v>
-      </c>
-      <c r="F130" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A131" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="C131" t="s">
-        <v>560</v>
-      </c>
-      <c r="D131" t="s">
-        <v>298</v>
-      </c>
-      <c r="E131" t="s">
-        <v>299</v>
-      </c>
-      <c r="F131" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A132" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="C132" t="s">
-        <v>562</v>
-      </c>
-      <c r="D132" t="s">
-        <v>298</v>
-      </c>
-      <c r="E132" t="s">
-        <v>299</v>
-      </c>
-      <c r="F132" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A133" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="C133" t="s">
-        <v>564</v>
-      </c>
-      <c r="D133" t="s">
-        <v>298</v>
-      </c>
-      <c r="E133" t="s">
-        <v>299</v>
-      </c>
-      <c r="F133" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A134" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="C134" t="s">
-        <v>566</v>
-      </c>
-      <c r="D134" t="s">
-        <v>298</v>
-      </c>
-      <c r="E134" t="s">
-        <v>299</v>
-      </c>
-      <c r="F134" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A135" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="C135" t="s">
-        <v>568</v>
-      </c>
-      <c r="D135" t="s">
-        <v>298</v>
-      </c>
-      <c r="E135" t="s">
-        <v>299</v>
-      </c>
-      <c r="F135" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A136" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="C136" t="s">
-        <v>570</v>
-      </c>
-      <c r="D136" t="s">
-        <v>298</v>
-      </c>
-      <c r="E136" t="s">
-        <v>299</v>
-      </c>
-      <c r="F136" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A137" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="C137" t="s">
-        <v>572</v>
-      </c>
-      <c r="D137" t="s">
-        <v>298</v>
-      </c>
-      <c r="E137" t="s">
-        <v>299</v>
-      </c>
-      <c r="F137" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A138" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="C138" t="s">
-        <v>574</v>
-      </c>
-      <c r="D138" t="s">
-        <v>298</v>
-      </c>
-      <c r="E138" t="s">
-        <v>299</v>
-      </c>
-      <c r="F138" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A139" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="C139" t="s">
-        <v>576</v>
-      </c>
-      <c r="D139" t="s">
-        <v>298</v>
-      </c>
-      <c r="E139" t="s">
-        <v>299</v>
-      </c>
-      <c r="F139" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A140" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="C140" t="s">
-        <v>578</v>
-      </c>
-      <c r="D140" t="s">
-        <v>298</v>
-      </c>
-      <c r="E140" t="s">
-        <v>299</v>
-      </c>
-      <c r="F140" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A141" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="C141" t="s">
-        <v>580</v>
-      </c>
-      <c r="D141" t="s">
-        <v>298</v>
-      </c>
-      <c r="E141" t="s">
-        <v>299</v>
-      </c>
-      <c r="F141" t="s">
-        <v>300</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:F282">
-    <sortCondition ref="E1:E282"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>